--- a/data/raw/mensal-brasil-desde-jan2013.xlsx
+++ b/data/raw/mensal-brasil-desde-jan2013.xlsx
@@ -1,23 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <fileSharing readOnlyRecommended="1" userName="Carlos Antonio Rocha" algorithmName="SHA-512" hashValue="6gyQ/gq5o2WkU1XV8h107SL7pE6SZMJ30e9vabonwVcUg4NYu8MIC9U/nF0ljCY4YwRmXc135KQr4WiO1lgBNQ==" saltValue="uC04lM9wjy6EFCHGNg8L6w==" spinCount="100000"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Precos\Levantamento de Preços\++SERIE_HISTORICA-SITE++\MENSAL\2013 EM DIANTE\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:10001_{10F513F4-B381-48F5-A92C-20BF00211D39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="2820" windowWidth="21600" windowHeight="11388"/>
   </bookViews>
   <sheets>
     <sheet name="BRASIL - DESDE JANEIRO DE 2013" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BRASIL - DESDE JANEIRO DE 2013'!$A$17:$O$744</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BRASIL - DESDE JANEIRO DE 2013'!$A$17:$O$737</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2588" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="40">
   <si>
     <t>AGÊNCIA NACIONAL DO PETRÓLEO, GÁS NATURAL E BIOCOMBUSTÍVEIS - ANP</t>
   </si>
@@ -203,7 +196,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -315,7 +308,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,7 +329,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -374,9 +367,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -409,26 +402,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -461,26 +437,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -653,36 +612,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:R751"/>
+  <dimension ref="A1:R758"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="17" topLeftCell="A721" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A751" sqref="A751"/>
+      <pane ySplit="17" topLeftCell="A742" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="31" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -692,7 +651,7 @@
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>32</v>
       </c>
@@ -702,7 +661,7 @@
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>27</v>
       </c>
@@ -712,7 +671,7 @@
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -720,7 +679,7 @@
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>1</v>
       </c>
@@ -730,7 +689,7 @@
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="20"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
@@ -738,7 +697,7 @@
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>2</v>
       </c>
@@ -748,7 +707,7 @@
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
@@ -758,7 +717,7 @@
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>12</v>
       </c>
@@ -768,7 +727,7 @@
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>3</v>
       </c>
@@ -778,7 +737,7 @@
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
     </row>
-    <row r="11" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>31</v>
       </c>
@@ -792,7 +751,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>29</v>
       </c>
@@ -806,7 +765,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>33</v>
       </c>
@@ -820,7 +779,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>38</v>
       </c>
@@ -834,7 +793,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>39</v>
       </c>
@@ -848,7 +807,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -856,7 +815,7 @@
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -903,7 +862,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>41275</v>
       </c>
@@ -952,7 +911,7 @@
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>41275</v>
       </c>
@@ -1002,7 +961,7 @@
       <c r="Q19" s="11"/>
       <c r="R19" s="14"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>41275</v>
       </c>
@@ -1052,7 +1011,7 @@
       <c r="Q20" s="11"/>
       <c r="R20" s="14"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>41275</v>
       </c>
@@ -1102,7 +1061,7 @@
       <c r="Q21" s="11"/>
       <c r="R21" s="14"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>41275</v>
       </c>
@@ -1152,7 +1111,7 @@
       <c r="Q22" s="11"/>
       <c r="R22" s="14"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>41275</v>
       </c>
@@ -1202,7 +1161,7 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="14"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>41306</v>
       </c>
@@ -1252,7 +1211,7 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="14"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>41306</v>
       </c>
@@ -1302,7 +1261,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="14"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>41306</v>
       </c>
@@ -1352,7 +1311,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="14"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>41306</v>
       </c>
@@ -1400,7 +1359,7 @@
       </c>
       <c r="R27" s="14"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>41306</v>
       </c>
@@ -1448,7 +1407,7 @@
       </c>
       <c r="R28" s="14"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>41306</v>
       </c>
@@ -1496,7 +1455,7 @@
       </c>
       <c r="R29" s="14"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>41334</v>
       </c>
@@ -1544,7 +1503,7 @@
       </c>
       <c r="R30" s="14"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>41334</v>
       </c>
@@ -1592,7 +1551,7 @@
       </c>
       <c r="R31" s="14"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>41334</v>
       </c>
@@ -1640,7 +1599,7 @@
       </c>
       <c r="R32" s="14"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>41334</v>
       </c>
@@ -1688,7 +1647,7 @@
       </c>
       <c r="R33" s="14"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>41334</v>
       </c>
@@ -1736,7 +1695,7 @@
       </c>
       <c r="R34" s="14"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>41334</v>
       </c>
@@ -1784,7 +1743,7 @@
       </c>
       <c r="R35" s="14"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>41365</v>
       </c>
@@ -1832,7 +1791,7 @@
       </c>
       <c r="R36" s="14"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>41365</v>
       </c>
@@ -1880,7 +1839,7 @@
       </c>
       <c r="R37" s="14"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>41365</v>
       </c>
@@ -1928,7 +1887,7 @@
       </c>
       <c r="R38" s="14"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>41365</v>
       </c>
@@ -1976,7 +1935,7 @@
       </c>
       <c r="R39" s="14"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>41365</v>
       </c>
@@ -2024,7 +1983,7 @@
       </c>
       <c r="R40" s="14"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>41365</v>
       </c>
@@ -2072,7 +2031,7 @@
       </c>
       <c r="R41" s="14"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41395</v>
       </c>
@@ -2120,7 +2079,7 @@
       </c>
       <c r="R42" s="14"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>41395</v>
       </c>
@@ -2168,7 +2127,7 @@
       </c>
       <c r="R43" s="14"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41395</v>
       </c>
@@ -2216,7 +2175,7 @@
       </c>
       <c r="R44" s="14"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>41395</v>
       </c>
@@ -2264,7 +2223,7 @@
       </c>
       <c r="R45" s="14"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>41395</v>
       </c>
@@ -2312,7 +2271,7 @@
       </c>
       <c r="R46" s="14"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>41395</v>
       </c>
@@ -2360,7 +2319,7 @@
       </c>
       <c r="R47" s="14"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>41426</v>
       </c>
@@ -2408,7 +2367,7 @@
       </c>
       <c r="R48" s="14"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>41426</v>
       </c>
@@ -2456,7 +2415,7 @@
       </c>
       <c r="R49" s="14"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>41426</v>
       </c>
@@ -2504,7 +2463,7 @@
       </c>
       <c r="R50" s="14"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>41426</v>
       </c>
@@ -2552,7 +2511,7 @@
       </c>
       <c r="R51" s="14"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>41426</v>
       </c>
@@ -2600,7 +2559,7 @@
       </c>
       <c r="R52" s="14"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>41426</v>
       </c>
@@ -2648,7 +2607,7 @@
       </c>
       <c r="R53" s="14"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>41456</v>
       </c>
@@ -2696,7 +2655,7 @@
       </c>
       <c r="R54" s="14"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>41456</v>
       </c>
@@ -2744,7 +2703,7 @@
       </c>
       <c r="R55" s="14"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>41456</v>
       </c>
@@ -2792,7 +2751,7 @@
       </c>
       <c r="R56" s="14"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>41456</v>
       </c>
@@ -2840,7 +2799,7 @@
       </c>
       <c r="R57" s="14"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>41456</v>
       </c>
@@ -2888,7 +2847,7 @@
       </c>
       <c r="R58" s="14"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>41456</v>
       </c>
@@ -2936,7 +2895,7 @@
       </c>
       <c r="R59" s="14"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>41487</v>
       </c>
@@ -2984,7 +2943,7 @@
       </c>
       <c r="R60" s="14"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>41487</v>
       </c>
@@ -3032,7 +2991,7 @@
       </c>
       <c r="R61" s="14"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>41487</v>
       </c>
@@ -3080,7 +3039,7 @@
       </c>
       <c r="R62" s="14"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>41487</v>
       </c>
@@ -3128,7 +3087,7 @@
       </c>
       <c r="R63" s="14"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>41487</v>
       </c>
@@ -3176,7 +3135,7 @@
       </c>
       <c r="R64" s="14"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>41487</v>
       </c>
@@ -3224,7 +3183,7 @@
       </c>
       <c r="R65" s="14"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>41518</v>
       </c>
@@ -3272,7 +3231,7 @@
       </c>
       <c r="R66" s="14"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>41518</v>
       </c>
@@ -3320,7 +3279,7 @@
       </c>
       <c r="R67" s="14"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>41518</v>
       </c>
@@ -3368,7 +3327,7 @@
       </c>
       <c r="R68" s="14"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>41518</v>
       </c>
@@ -3416,7 +3375,7 @@
       </c>
       <c r="R69" s="14"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>41518</v>
       </c>
@@ -3464,7 +3423,7 @@
       </c>
       <c r="R70" s="14"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>41518</v>
       </c>
@@ -3512,7 +3471,7 @@
       </c>
       <c r="R71" s="14"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>41548</v>
       </c>
@@ -3560,7 +3519,7 @@
       </c>
       <c r="R72" s="14"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>41548</v>
       </c>
@@ -3608,7 +3567,7 @@
       </c>
       <c r="R73" s="14"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>41548</v>
       </c>
@@ -3656,7 +3615,7 @@
       </c>
       <c r="R74" s="14"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>41548</v>
       </c>
@@ -3704,7 +3663,7 @@
       </c>
       <c r="R75" s="14"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>41548</v>
       </c>
@@ -3752,7 +3711,7 @@
       </c>
       <c r="R76" s="14"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>41548</v>
       </c>
@@ -3800,7 +3759,7 @@
       </c>
       <c r="R77" s="14"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>41579</v>
       </c>
@@ -3848,7 +3807,7 @@
       </c>
       <c r="R78" s="14"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>41579</v>
       </c>
@@ -3896,7 +3855,7 @@
       </c>
       <c r="R79" s="14"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>41579</v>
       </c>
@@ -3944,7 +3903,7 @@
       </c>
       <c r="R80" s="14"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>41579</v>
       </c>
@@ -3992,7 +3951,7 @@
       </c>
       <c r="R81" s="14"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>41579</v>
       </c>
@@ -4040,7 +3999,7 @@
       </c>
       <c r="R82" s="14"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>41579</v>
       </c>
@@ -4088,7 +4047,7 @@
       </c>
       <c r="R83" s="14"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>41609</v>
       </c>
@@ -4136,7 +4095,7 @@
       </c>
       <c r="R84" s="14"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>41609</v>
       </c>
@@ -4184,7 +4143,7 @@
       </c>
       <c r="R85" s="14"/>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>41609</v>
       </c>
@@ -4232,7 +4191,7 @@
       </c>
       <c r="R86" s="14"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>41609</v>
       </c>
@@ -4280,7 +4239,7 @@
       </c>
       <c r="R87" s="14"/>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>41609</v>
       </c>
@@ -4328,7 +4287,7 @@
       </c>
       <c r="R88" s="14"/>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>41609</v>
       </c>
@@ -4376,7 +4335,7 @@
       </c>
       <c r="R89" s="14"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>41640</v>
       </c>
@@ -4424,7 +4383,7 @@
       </c>
       <c r="R90" s="14"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>41640</v>
       </c>
@@ -4472,7 +4431,7 @@
       </c>
       <c r="R91" s="14"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>41640</v>
       </c>
@@ -4520,7 +4479,7 @@
       </c>
       <c r="R92" s="14"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>41640</v>
       </c>
@@ -4568,7 +4527,7 @@
       </c>
       <c r="R93" s="14"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>41640</v>
       </c>
@@ -4616,7 +4575,7 @@
       </c>
       <c r="R94" s="14"/>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>41640</v>
       </c>
@@ -4664,7 +4623,7 @@
       </c>
       <c r="R95" s="14"/>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>41671</v>
       </c>
@@ -4712,7 +4671,7 @@
       </c>
       <c r="R96" s="14"/>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>41671</v>
       </c>
@@ -4760,7 +4719,7 @@
       </c>
       <c r="R97" s="14"/>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>41671</v>
       </c>
@@ -4808,7 +4767,7 @@
       </c>
       <c r="R98" s="14"/>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>41671</v>
       </c>
@@ -4856,7 +4815,7 @@
       </c>
       <c r="R99" s="14"/>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>41671</v>
       </c>
@@ -4904,7 +4863,7 @@
       </c>
       <c r="R100" s="14"/>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>41671</v>
       </c>
@@ -4952,7 +4911,7 @@
       </c>
       <c r="R101" s="14"/>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>41699</v>
       </c>
@@ -5000,7 +4959,7 @@
       </c>
       <c r="R102" s="14"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>41699</v>
       </c>
@@ -5048,7 +5007,7 @@
       </c>
       <c r="R103" s="14"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>41699</v>
       </c>
@@ -5096,7 +5055,7 @@
       </c>
       <c r="R104" s="14"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>41699</v>
       </c>
@@ -5144,7 +5103,7 @@
       </c>
       <c r="R105" s="14"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>41699</v>
       </c>
@@ -5192,7 +5151,7 @@
       </c>
       <c r="R106" s="14"/>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>41699</v>
       </c>
@@ -5240,7 +5199,7 @@
       </c>
       <c r="R107" s="14"/>
     </row>
-    <row r="108" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>41730</v>
       </c>
@@ -5289,7 +5248,7 @@
       <c r="P108"/>
       <c r="R108" s="14"/>
     </row>
-    <row r="109" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>41730</v>
       </c>
@@ -5338,7 +5297,7 @@
       <c r="P109"/>
       <c r="R109" s="14"/>
     </row>
-    <row r="110" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>41730</v>
       </c>
@@ -5387,7 +5346,7 @@
       <c r="P110"/>
       <c r="R110" s="14"/>
     </row>
-    <row r="111" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>41730</v>
       </c>
@@ -5436,7 +5395,7 @@
       <c r="P111"/>
       <c r="R111" s="14"/>
     </row>
-    <row r="112" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>41730</v>
       </c>
@@ -5485,7 +5444,7 @@
       <c r="P112"/>
       <c r="R112" s="14"/>
     </row>
-    <row r="113" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>41730</v>
       </c>
@@ -5534,7 +5493,7 @@
       <c r="P113"/>
       <c r="R113" s="14"/>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>41760</v>
       </c>
@@ -5582,7 +5541,7 @@
       </c>
       <c r="R114" s="14"/>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>41760</v>
       </c>
@@ -5630,7 +5589,7 @@
       </c>
       <c r="R115" s="14"/>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>41760</v>
       </c>
@@ -5678,7 +5637,7 @@
       </c>
       <c r="R116" s="14"/>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>41760</v>
       </c>
@@ -5726,7 +5685,7 @@
       </c>
       <c r="R117" s="14"/>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>41760</v>
       </c>
@@ -5774,7 +5733,7 @@
       </c>
       <c r="R118" s="14"/>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>41760</v>
       </c>
@@ -5822,7 +5781,7 @@
       </c>
       <c r="R119" s="14"/>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>41791</v>
       </c>
@@ -5870,7 +5829,7 @@
       </c>
       <c r="R120" s="14"/>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>41791</v>
       </c>
@@ -5918,7 +5877,7 @@
       </c>
       <c r="R121" s="14"/>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>41791</v>
       </c>
@@ -5966,7 +5925,7 @@
       </c>
       <c r="R122" s="14"/>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>41791</v>
       </c>
@@ -6014,7 +5973,7 @@
       </c>
       <c r="R123" s="14"/>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>41791</v>
       </c>
@@ -6062,7 +6021,7 @@
       </c>
       <c r="R124" s="14"/>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>41791</v>
       </c>
@@ -6110,7 +6069,7 @@
       </c>
       <c r="R125" s="14"/>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>41821</v>
       </c>
@@ -6158,7 +6117,7 @@
       </c>
       <c r="R126" s="14"/>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>41821</v>
       </c>
@@ -6206,7 +6165,7 @@
       </c>
       <c r="R127" s="14"/>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>41821</v>
       </c>
@@ -6254,7 +6213,7 @@
       </c>
       <c r="R128" s="14"/>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>41821</v>
       </c>
@@ -6302,7 +6261,7 @@
       </c>
       <c r="R129" s="14"/>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>41821</v>
       </c>
@@ -6350,7 +6309,7 @@
       </c>
       <c r="R130" s="14"/>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>41821</v>
       </c>
@@ -6398,7 +6357,7 @@
       </c>
       <c r="R131" s="14"/>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>41852</v>
       </c>
@@ -6446,7 +6405,7 @@
       </c>
       <c r="R132" s="14"/>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>41852</v>
       </c>
@@ -6494,7 +6453,7 @@
       </c>
       <c r="R133" s="14"/>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>41852</v>
       </c>
@@ -6542,7 +6501,7 @@
       </c>
       <c r="R134" s="14"/>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>41852</v>
       </c>
@@ -6590,7 +6549,7 @@
       </c>
       <c r="R135" s="14"/>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>41852</v>
       </c>
@@ -6638,7 +6597,7 @@
       </c>
       <c r="R136" s="14"/>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>41852</v>
       </c>
@@ -6686,7 +6645,7 @@
       </c>
       <c r="R137" s="14"/>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>41883</v>
       </c>
@@ -6734,7 +6693,7 @@
       </c>
       <c r="R138" s="14"/>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>41883</v>
       </c>
@@ -6782,7 +6741,7 @@
       </c>
       <c r="R139" s="14"/>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>41883</v>
       </c>
@@ -6830,7 +6789,7 @@
       </c>
       <c r="R140" s="14"/>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>41883</v>
       </c>
@@ -6878,7 +6837,7 @@
       </c>
       <c r="R141" s="14"/>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>41883</v>
       </c>
@@ -6926,7 +6885,7 @@
       </c>
       <c r="R142" s="14"/>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>41883</v>
       </c>
@@ -6974,7 +6933,7 @@
       </c>
       <c r="R143" s="14"/>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>41913</v>
       </c>
@@ -7022,7 +6981,7 @@
       </c>
       <c r="R144" s="14"/>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>41913</v>
       </c>
@@ -7070,7 +7029,7 @@
       </c>
       <c r="R145" s="14"/>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>41913</v>
       </c>
@@ -7118,7 +7077,7 @@
       </c>
       <c r="R146" s="14"/>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>41913</v>
       </c>
@@ -7166,7 +7125,7 @@
       </c>
       <c r="R147" s="14"/>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>41913</v>
       </c>
@@ -7214,7 +7173,7 @@
       </c>
       <c r="R148" s="14"/>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>41913</v>
       </c>
@@ -7262,7 +7221,7 @@
       </c>
       <c r="R149" s="14"/>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>41944</v>
       </c>
@@ -7310,7 +7269,7 @@
       </c>
       <c r="R150" s="14"/>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>41944</v>
       </c>
@@ -7358,7 +7317,7 @@
       </c>
       <c r="R151" s="14"/>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>41944</v>
       </c>
@@ -7406,7 +7365,7 @@
       </c>
       <c r="R152" s="14"/>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>41944</v>
       </c>
@@ -7454,7 +7413,7 @@
       </c>
       <c r="R153" s="14"/>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>41944</v>
       </c>
@@ -7502,7 +7461,7 @@
       </c>
       <c r="R154" s="14"/>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>41944</v>
       </c>
@@ -7550,7 +7509,7 @@
       </c>
       <c r="R155" s="14"/>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>41974</v>
       </c>
@@ -7598,7 +7557,7 @@
       </c>
       <c r="R156" s="14"/>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>41974</v>
       </c>
@@ -7646,7 +7605,7 @@
       </c>
       <c r="R157" s="14"/>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>41974</v>
       </c>
@@ -7694,7 +7653,7 @@
       </c>
       <c r="R158" s="14"/>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>41974</v>
       </c>
@@ -7742,7 +7701,7 @@
       </c>
       <c r="R159" s="14"/>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>41974</v>
       </c>
@@ -7790,7 +7749,7 @@
       </c>
       <c r="R160" s="14"/>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>41974</v>
       </c>
@@ -7838,7 +7797,7 @@
       </c>
       <c r="R161" s="14"/>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>42005</v>
       </c>
@@ -7886,7 +7845,7 @@
       </c>
       <c r="R162" s="14"/>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>42005</v>
       </c>
@@ -7934,7 +7893,7 @@
       </c>
       <c r="R163" s="14"/>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>42005</v>
       </c>
@@ -7982,7 +7941,7 @@
       </c>
       <c r="R164" s="14"/>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>42005</v>
       </c>
@@ -8030,7 +7989,7 @@
       </c>
       <c r="R165" s="14"/>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>42005</v>
       </c>
@@ -8078,7 +8037,7 @@
       </c>
       <c r="R166" s="14"/>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>42005</v>
       </c>
@@ -8126,7 +8085,7 @@
       </c>
       <c r="R167" s="14"/>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>42036</v>
       </c>
@@ -8174,7 +8133,7 @@
       </c>
       <c r="R168" s="14"/>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>42036</v>
       </c>
@@ -8222,7 +8181,7 @@
       </c>
       <c r="R169" s="14"/>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>42036</v>
       </c>
@@ -8270,7 +8229,7 @@
       </c>
       <c r="R170" s="14"/>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>42036</v>
       </c>
@@ -8318,7 +8277,7 @@
       </c>
       <c r="R171" s="14"/>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>42036</v>
       </c>
@@ -8366,7 +8325,7 @@
       </c>
       <c r="R172" s="14"/>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>42036</v>
       </c>
@@ -8414,7 +8373,7 @@
       </c>
       <c r="R173" s="14"/>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>42064</v>
       </c>
@@ -8462,7 +8421,7 @@
       </c>
       <c r="R174" s="14"/>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>42064</v>
       </c>
@@ -8510,7 +8469,7 @@
       </c>
       <c r="R175" s="14"/>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>42064</v>
       </c>
@@ -8558,7 +8517,7 @@
       </c>
       <c r="R176" s="14"/>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>42064</v>
       </c>
@@ -8606,7 +8565,7 @@
       </c>
       <c r="R177" s="14"/>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>42064</v>
       </c>
@@ -8654,7 +8613,7 @@
       </c>
       <c r="R178" s="14"/>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>42064</v>
       </c>
@@ -8702,7 +8661,7 @@
       </c>
       <c r="R179" s="14"/>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>42095</v>
       </c>
@@ -8750,7 +8709,7 @@
       </c>
       <c r="R180" s="14"/>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>42095</v>
       </c>
@@ -8798,7 +8757,7 @@
       </c>
       <c r="R181" s="14"/>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>42095</v>
       </c>
@@ -8846,7 +8805,7 @@
       </c>
       <c r="R182" s="14"/>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>42095</v>
       </c>
@@ -8894,7 +8853,7 @@
       </c>
       <c r="R183" s="14"/>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>42095</v>
       </c>
@@ -8942,7 +8901,7 @@
       </c>
       <c r="R184" s="14"/>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>42095</v>
       </c>
@@ -8990,7 +8949,7 @@
       </c>
       <c r="R185" s="14"/>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>42125</v>
       </c>
@@ -9038,7 +8997,7 @@
       </c>
       <c r="R186" s="14"/>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>42125</v>
       </c>
@@ -9086,7 +9045,7 @@
       </c>
       <c r="R187" s="14"/>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>42125</v>
       </c>
@@ -9134,7 +9093,7 @@
       </c>
       <c r="R188" s="14"/>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>42125</v>
       </c>
@@ -9182,7 +9141,7 @@
       </c>
       <c r="R189" s="14"/>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>42125</v>
       </c>
@@ -9230,7 +9189,7 @@
       </c>
       <c r="R190" s="14"/>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>42125</v>
       </c>
@@ -9278,7 +9237,7 @@
       </c>
       <c r="R191" s="14"/>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>42156</v>
       </c>
@@ -9326,7 +9285,7 @@
       </c>
       <c r="R192" s="14"/>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>42156</v>
       </c>
@@ -9374,7 +9333,7 @@
       </c>
       <c r="R193" s="14"/>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>42156</v>
       </c>
@@ -9422,7 +9381,7 @@
       </c>
       <c r="R194" s="14"/>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>42156</v>
       </c>
@@ -9470,7 +9429,7 @@
       </c>
       <c r="R195" s="14"/>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>42156</v>
       </c>
@@ -9518,7 +9477,7 @@
       </c>
       <c r="R196" s="14"/>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>42156</v>
       </c>
@@ -9566,7 +9525,7 @@
       </c>
       <c r="R197" s="14"/>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>42186</v>
       </c>
@@ -9614,7 +9573,7 @@
       </c>
       <c r="R198" s="14"/>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>42186</v>
       </c>
@@ -9662,7 +9621,7 @@
       </c>
       <c r="R199" s="14"/>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>42186</v>
       </c>
@@ -9710,7 +9669,7 @@
       </c>
       <c r="R200" s="14"/>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>42186</v>
       </c>
@@ -9758,7 +9717,7 @@
       </c>
       <c r="R201" s="14"/>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>42186</v>
       </c>
@@ -9806,7 +9765,7 @@
       </c>
       <c r="R202" s="14"/>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>42186</v>
       </c>
@@ -9854,7 +9813,7 @@
       </c>
       <c r="R203" s="14"/>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>42217</v>
       </c>
@@ -9902,7 +9861,7 @@
       </c>
       <c r="R204" s="14"/>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>42217</v>
       </c>
@@ -9950,7 +9909,7 @@
       </c>
       <c r="R205" s="14"/>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>42217</v>
       </c>
@@ -9998,7 +9957,7 @@
       </c>
       <c r="R206" s="14"/>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>42217</v>
       </c>
@@ -10046,7 +10005,7 @@
       </c>
       <c r="R207" s="14"/>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>42217</v>
       </c>
@@ -10094,7 +10053,7 @@
       </c>
       <c r="R208" s="14"/>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>42217</v>
       </c>
@@ -10142,7 +10101,7 @@
       </c>
       <c r="R209" s="14"/>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>42248</v>
       </c>
@@ -10190,7 +10149,7 @@
       </c>
       <c r="R210" s="14"/>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>42248</v>
       </c>
@@ -10238,7 +10197,7 @@
       </c>
       <c r="R211" s="14"/>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>42248</v>
       </c>
@@ -10286,7 +10245,7 @@
       </c>
       <c r="R212" s="14"/>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>42248</v>
       </c>
@@ -10334,7 +10293,7 @@
       </c>
       <c r="R213" s="14"/>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>42248</v>
       </c>
@@ -10382,7 +10341,7 @@
       </c>
       <c r="R214" s="14"/>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>42248</v>
       </c>
@@ -10430,7 +10389,7 @@
       </c>
       <c r="R215" s="14"/>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>42278</v>
       </c>
@@ -10478,7 +10437,7 @@
       </c>
       <c r="R216" s="14"/>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>42278</v>
       </c>
@@ -10526,7 +10485,7 @@
       </c>
       <c r="R217" s="14"/>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>42278</v>
       </c>
@@ -10574,7 +10533,7 @@
       </c>
       <c r="R218" s="14"/>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>42278</v>
       </c>
@@ -10622,7 +10581,7 @@
       </c>
       <c r="R219" s="14"/>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>42278</v>
       </c>
@@ -10670,7 +10629,7 @@
       </c>
       <c r="R220" s="14"/>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>42278</v>
       </c>
@@ -10718,7 +10677,7 @@
       </c>
       <c r="R221" s="14"/>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>42309</v>
       </c>
@@ -10766,7 +10725,7 @@
       </c>
       <c r="R222" s="14"/>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>42309</v>
       </c>
@@ -10814,7 +10773,7 @@
       </c>
       <c r="R223" s="14"/>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>42309</v>
       </c>
@@ -10862,7 +10821,7 @@
       </c>
       <c r="R224" s="14"/>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>42309</v>
       </c>
@@ -10910,7 +10869,7 @@
       </c>
       <c r="R225" s="14"/>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>42309</v>
       </c>
@@ -10958,7 +10917,7 @@
       </c>
       <c r="R226" s="14"/>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>42309</v>
       </c>
@@ -11006,7 +10965,7 @@
       </c>
       <c r="R227" s="14"/>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>42339</v>
       </c>
@@ -11054,7 +11013,7 @@
       </c>
       <c r="R228" s="14"/>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>42339</v>
       </c>
@@ -11102,7 +11061,7 @@
       </c>
       <c r="R229" s="14"/>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>42339</v>
       </c>
@@ -11150,7 +11109,7 @@
       </c>
       <c r="R230" s="14"/>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>42339</v>
       </c>
@@ -11198,7 +11157,7 @@
       </c>
       <c r="R231" s="14"/>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>42339</v>
       </c>
@@ -11246,7 +11205,7 @@
       </c>
       <c r="R232" s="14"/>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>42339</v>
       </c>
@@ -11294,7 +11253,7 @@
       </c>
       <c r="R233" s="14"/>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>42370</v>
       </c>
@@ -11342,7 +11301,7 @@
       </c>
       <c r="R234" s="14"/>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>42370</v>
       </c>
@@ -11390,7 +11349,7 @@
       </c>
       <c r="R235" s="14"/>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>42370</v>
       </c>
@@ -11438,7 +11397,7 @@
       </c>
       <c r="R236" s="14"/>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>42370</v>
       </c>
@@ -11486,7 +11445,7 @@
       </c>
       <c r="R237" s="14"/>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>42370</v>
       </c>
@@ -11534,7 +11493,7 @@
       </c>
       <c r="R238" s="14"/>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>42370</v>
       </c>
@@ -11582,7 +11541,7 @@
       </c>
       <c r="R239" s="14"/>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>42401</v>
       </c>
@@ -11630,7 +11589,7 @@
       </c>
       <c r="R240" s="14"/>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>42401</v>
       </c>
@@ -11678,7 +11637,7 @@
       </c>
       <c r="R241" s="14"/>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>42401</v>
       </c>
@@ -11726,7 +11685,7 @@
       </c>
       <c r="R242" s="14"/>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>42401</v>
       </c>
@@ -11774,7 +11733,7 @@
       </c>
       <c r="R243" s="14"/>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>42401</v>
       </c>
@@ -11822,7 +11781,7 @@
       </c>
       <c r="R244" s="14"/>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>42401</v>
       </c>
@@ -11870,7 +11829,7 @@
       </c>
       <c r="R245" s="14"/>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>42430</v>
       </c>
@@ -11918,7 +11877,7 @@
       </c>
       <c r="R246" s="14"/>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>42430</v>
       </c>
@@ -11966,7 +11925,7 @@
       </c>
       <c r="R247" s="14"/>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>42430</v>
       </c>
@@ -12014,7 +11973,7 @@
       </c>
       <c r="R248" s="14"/>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>42430</v>
       </c>
@@ -12062,7 +12021,7 @@
       </c>
       <c r="R249" s="14"/>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>42430</v>
       </c>
@@ -12110,7 +12069,7 @@
       </c>
       <c r="R250" s="14"/>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>42430</v>
       </c>
@@ -12158,7 +12117,7 @@
       </c>
       <c r="R251" s="14"/>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>42461</v>
       </c>
@@ -12206,7 +12165,7 @@
       </c>
       <c r="R252" s="14"/>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>42461</v>
       </c>
@@ -12254,7 +12213,7 @@
       </c>
       <c r="R253" s="14"/>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>42461</v>
       </c>
@@ -12302,7 +12261,7 @@
       </c>
       <c r="R254" s="14"/>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>42461</v>
       </c>
@@ -12350,7 +12309,7 @@
       </c>
       <c r="R255" s="14"/>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>42461</v>
       </c>
@@ -12398,7 +12357,7 @@
       </c>
       <c r="R256" s="14"/>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>42461</v>
       </c>
@@ -12446,7 +12405,7 @@
       </c>
       <c r="R257" s="14"/>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>42491</v>
       </c>
@@ -12494,7 +12453,7 @@
       </c>
       <c r="R258" s="14"/>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>42491</v>
       </c>
@@ -12542,7 +12501,7 @@
       </c>
       <c r="R259" s="14"/>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>42491</v>
       </c>
@@ -12590,7 +12549,7 @@
       </c>
       <c r="R260" s="14"/>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>42491</v>
       </c>
@@ -12638,7 +12597,7 @@
       </c>
       <c r="R261" s="14"/>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>42491</v>
       </c>
@@ -12686,7 +12645,7 @@
       </c>
       <c r="R262" s="14"/>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>42491</v>
       </c>
@@ -12734,7 +12693,7 @@
       </c>
       <c r="R263" s="14"/>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>42522</v>
       </c>
@@ -12782,7 +12741,7 @@
       </c>
       <c r="R264" s="14"/>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>42522</v>
       </c>
@@ -12830,7 +12789,7 @@
       </c>
       <c r="R265" s="14"/>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>42522</v>
       </c>
@@ -12878,7 +12837,7 @@
       </c>
       <c r="R266" s="14"/>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>42522</v>
       </c>
@@ -12926,7 +12885,7 @@
       </c>
       <c r="R267" s="14"/>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>42522</v>
       </c>
@@ -12974,7 +12933,7 @@
       </c>
       <c r="R268" s="14"/>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>42522</v>
       </c>
@@ -13022,7 +12981,7 @@
       </c>
       <c r="R269" s="14"/>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>42552</v>
       </c>
@@ -13070,7 +13029,7 @@
       </c>
       <c r="R270" s="14"/>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>42552</v>
       </c>
@@ -13118,7 +13077,7 @@
       </c>
       <c r="R271" s="14"/>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>42552</v>
       </c>
@@ -13166,7 +13125,7 @@
       </c>
       <c r="R272" s="14"/>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>42552</v>
       </c>
@@ -13214,7 +13173,7 @@
       </c>
       <c r="R273" s="14"/>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>42552</v>
       </c>
@@ -13262,7 +13221,7 @@
       </c>
       <c r="R274" s="14"/>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>42552</v>
       </c>
@@ -13310,7 +13269,7 @@
       </c>
       <c r="R275" s="14"/>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>42583</v>
       </c>
@@ -13358,7 +13317,7 @@
       </c>
       <c r="R276" s="14"/>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>42583</v>
       </c>
@@ -13406,7 +13365,7 @@
       </c>
       <c r="R277" s="14"/>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>42583</v>
       </c>
@@ -13454,7 +13413,7 @@
       </c>
       <c r="R278" s="14"/>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>42583</v>
       </c>
@@ -13502,7 +13461,7 @@
       </c>
       <c r="R279" s="14"/>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>42583</v>
       </c>
@@ -13550,7 +13509,7 @@
       </c>
       <c r="R280" s="14"/>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>42583</v>
       </c>
@@ -13598,7 +13557,7 @@
       </c>
       <c r="R281" s="14"/>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>42614</v>
       </c>
@@ -13646,7 +13605,7 @@
       </c>
       <c r="R282" s="14"/>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>42614</v>
       </c>
@@ -13694,7 +13653,7 @@
       </c>
       <c r="R283" s="14"/>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>42614</v>
       </c>
@@ -13742,7 +13701,7 @@
       </c>
       <c r="R284" s="14"/>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>42614</v>
       </c>
@@ -13790,7 +13749,7 @@
       </c>
       <c r="R285" s="14"/>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>42614</v>
       </c>
@@ -13838,7 +13797,7 @@
       </c>
       <c r="R286" s="14"/>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>42614</v>
       </c>
@@ -13886,7 +13845,7 @@
       </c>
       <c r="R287" s="14"/>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>42644</v>
       </c>
@@ -13934,7 +13893,7 @@
       </c>
       <c r="R288" s="14"/>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>42644</v>
       </c>
@@ -13982,7 +13941,7 @@
       </c>
       <c r="R289" s="14"/>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>42644</v>
       </c>
@@ -14030,7 +13989,7 @@
       </c>
       <c r="R290" s="14"/>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>42644</v>
       </c>
@@ -14078,7 +14037,7 @@
       </c>
       <c r="R291" s="14"/>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>42644</v>
       </c>
@@ -14126,7 +14085,7 @@
       </c>
       <c r="R292" s="14"/>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>42644</v>
       </c>
@@ -14174,7 +14133,7 @@
       </c>
       <c r="R293" s="14"/>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>42675</v>
       </c>
@@ -14222,7 +14181,7 @@
       </c>
       <c r="R294" s="14"/>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>42675</v>
       </c>
@@ -14270,7 +14229,7 @@
       </c>
       <c r="R295" s="14"/>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>42675</v>
       </c>
@@ -14318,7 +14277,7 @@
       </c>
       <c r="R296" s="14"/>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>42675</v>
       </c>
@@ -14366,7 +14325,7 @@
       </c>
       <c r="R297" s="14"/>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>42675</v>
       </c>
@@ -14414,7 +14373,7 @@
       </c>
       <c r="R298" s="14"/>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>42675</v>
       </c>
@@ -14462,7 +14421,7 @@
       </c>
       <c r="R299" s="14"/>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>42705</v>
       </c>
@@ -14510,7 +14469,7 @@
       </c>
       <c r="R300" s="14"/>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>42705</v>
       </c>
@@ -14558,7 +14517,7 @@
       </c>
       <c r="R301" s="14"/>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>42705</v>
       </c>
@@ -14606,7 +14565,7 @@
       </c>
       <c r="R302" s="14"/>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>42705</v>
       </c>
@@ -14654,7 +14613,7 @@
       </c>
       <c r="R303" s="14"/>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>42705</v>
       </c>
@@ -14702,7 +14661,7 @@
       </c>
       <c r="R304" s="14"/>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>42705</v>
       </c>
@@ -14750,7 +14709,7 @@
       </c>
       <c r="R305" s="14"/>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>42736</v>
       </c>
@@ -14798,7 +14757,7 @@
       </c>
       <c r="R306" s="14"/>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>42736</v>
       </c>
@@ -14846,7 +14805,7 @@
       </c>
       <c r="R307" s="14"/>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>42736</v>
       </c>
@@ -14894,7 +14853,7 @@
       </c>
       <c r="R308" s="14"/>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>42736</v>
       </c>
@@ -14942,7 +14901,7 @@
       </c>
       <c r="R309" s="14"/>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>42736</v>
       </c>
@@ -14990,7 +14949,7 @@
       </c>
       <c r="R310" s="14"/>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>42736</v>
       </c>
@@ -15038,7 +14997,7 @@
       </c>
       <c r="R311" s="14"/>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>42767</v>
       </c>
@@ -15086,7 +15045,7 @@
       </c>
       <c r="R312" s="14"/>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>42767</v>
       </c>
@@ -15134,7 +15093,7 @@
       </c>
       <c r="R313" s="14"/>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>42767</v>
       </c>
@@ -15182,7 +15141,7 @@
       </c>
       <c r="R314" s="14"/>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>42767</v>
       </c>
@@ -15230,7 +15189,7 @@
       </c>
       <c r="R315" s="14"/>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>42767</v>
       </c>
@@ -15278,7 +15237,7 @@
       </c>
       <c r="R316" s="14"/>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>42767</v>
       </c>
@@ -15326,7 +15285,7 @@
       </c>
       <c r="R317" s="14"/>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>42795</v>
       </c>
@@ -15374,7 +15333,7 @@
       </c>
       <c r="R318" s="14"/>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>42795</v>
       </c>
@@ -15422,7 +15381,7 @@
       </c>
       <c r="R319" s="14"/>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>42795</v>
       </c>
@@ -15470,7 +15429,7 @@
       </c>
       <c r="R320" s="14"/>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>42795</v>
       </c>
@@ -15518,7 +15477,7 @@
       </c>
       <c r="R321" s="14"/>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>42795</v>
       </c>
@@ -15566,7 +15525,7 @@
       </c>
       <c r="R322" s="14"/>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>42795</v>
       </c>
@@ -15614,7 +15573,7 @@
       </c>
       <c r="R323" s="14"/>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>42826</v>
       </c>
@@ -15662,7 +15621,7 @@
       </c>
       <c r="R324" s="14"/>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>42826</v>
       </c>
@@ -15710,7 +15669,7 @@
       </c>
       <c r="R325" s="14"/>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>42826</v>
       </c>
@@ -15758,7 +15717,7 @@
       </c>
       <c r="R326" s="14"/>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>42826</v>
       </c>
@@ -15806,7 +15765,7 @@
       </c>
       <c r="R327" s="14"/>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>42826</v>
       </c>
@@ -15854,7 +15813,7 @@
       </c>
       <c r="R328" s="14"/>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>42826</v>
       </c>
@@ -15902,7 +15861,7 @@
       </c>
       <c r="R329" s="14"/>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>42856</v>
       </c>
@@ -15950,7 +15909,7 @@
       </c>
       <c r="R330" s="14"/>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>42856</v>
       </c>
@@ -15998,7 +15957,7 @@
       </c>
       <c r="R331" s="14"/>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>42856</v>
       </c>
@@ -16046,7 +16005,7 @@
       </c>
       <c r="R332" s="14"/>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>42856</v>
       </c>
@@ -16094,7 +16053,7 @@
       </c>
       <c r="R333" s="14"/>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>42856</v>
       </c>
@@ -16142,7 +16101,7 @@
       </c>
       <c r="R334" s="14"/>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>42856</v>
       </c>
@@ -16190,7 +16149,7 @@
       </c>
       <c r="R335" s="14"/>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>42887</v>
       </c>
@@ -16238,7 +16197,7 @@
       </c>
       <c r="R336" s="14"/>
     </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>42887</v>
       </c>
@@ -16286,7 +16245,7 @@
       </c>
       <c r="R337" s="14"/>
     </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>42887</v>
       </c>
@@ -16334,7 +16293,7 @@
       </c>
       <c r="R338" s="14"/>
     </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>42887</v>
       </c>
@@ -16382,7 +16341,7 @@
       </c>
       <c r="R339" s="14"/>
     </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>42887</v>
       </c>
@@ -16430,7 +16389,7 @@
       </c>
       <c r="R340" s="14"/>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>42887</v>
       </c>
@@ -16478,7 +16437,7 @@
       </c>
       <c r="R341" s="14"/>
     </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>42917</v>
       </c>
@@ -16526,7 +16485,7 @@
       </c>
       <c r="R342" s="14"/>
     </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>42917</v>
       </c>
@@ -16574,7 +16533,7 @@
       </c>
       <c r="R343" s="14"/>
     </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>42917</v>
       </c>
@@ -16622,7 +16581,7 @@
       </c>
       <c r="R344" s="14"/>
     </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>42917</v>
       </c>
@@ -16670,7 +16629,7 @@
       </c>
       <c r="R345" s="14"/>
     </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>42917</v>
       </c>
@@ -16718,7 +16677,7 @@
       </c>
       <c r="R346" s="14"/>
     </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>42917</v>
       </c>
@@ -16766,7 +16725,7 @@
       </c>
       <c r="R347" s="14"/>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>42948</v>
       </c>
@@ -16814,7 +16773,7 @@
       </c>
       <c r="R348" s="14"/>
     </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>42948</v>
       </c>
@@ -16862,7 +16821,7 @@
       </c>
       <c r="R349" s="14"/>
     </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>42948</v>
       </c>
@@ -16910,7 +16869,7 @@
       </c>
       <c r="R350" s="14"/>
     </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>42948</v>
       </c>
@@ -16958,7 +16917,7 @@
       </c>
       <c r="R351" s="14"/>
     </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>42948</v>
       </c>
@@ -17006,7 +16965,7 @@
       </c>
       <c r="R352" s="14"/>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>42948</v>
       </c>
@@ -17054,7 +17013,7 @@
       </c>
       <c r="R353" s="14"/>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>42979</v>
       </c>
@@ -17102,7 +17061,7 @@
       </c>
       <c r="R354" s="14"/>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>42979</v>
       </c>
@@ -17150,7 +17109,7 @@
       </c>
       <c r="R355" s="14"/>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>42979</v>
       </c>
@@ -17198,7 +17157,7 @@
       </c>
       <c r="R356" s="14"/>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>42979</v>
       </c>
@@ -17246,7 +17205,7 @@
       </c>
       <c r="R357" s="14"/>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>42979</v>
       </c>
@@ -17294,7 +17253,7 @@
       </c>
       <c r="R358" s="14"/>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>42979</v>
       </c>
@@ -17342,7 +17301,7 @@
       </c>
       <c r="R359" s="14"/>
     </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>43009</v>
       </c>
@@ -17390,7 +17349,7 @@
       </c>
       <c r="R360" s="14"/>
     </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>43009</v>
       </c>
@@ -17438,7 +17397,7 @@
       </c>
       <c r="R361" s="14"/>
     </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>43009</v>
       </c>
@@ -17486,7 +17445,7 @@
       </c>
       <c r="R362" s="14"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>43009</v>
       </c>
@@ -17534,7 +17493,7 @@
       </c>
       <c r="R363" s="14"/>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>43009</v>
       </c>
@@ -17582,7 +17541,7 @@
       </c>
       <c r="R364" s="14"/>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>43009</v>
       </c>
@@ -17630,7 +17589,7 @@
       </c>
       <c r="R365" s="14"/>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>43040</v>
       </c>
@@ -17678,7 +17637,7 @@
       </c>
       <c r="R366" s="14"/>
     </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>43040</v>
       </c>
@@ -17726,7 +17685,7 @@
       </c>
       <c r="R367" s="14"/>
     </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>43040</v>
       </c>
@@ -17774,7 +17733,7 @@
       </c>
       <c r="R368" s="14"/>
     </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>43040</v>
       </c>
@@ -17822,7 +17781,7 @@
       </c>
       <c r="R369" s="14"/>
     </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>43040</v>
       </c>
@@ -17870,7 +17829,7 @@
       </c>
       <c r="R370" s="14"/>
     </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>43040</v>
       </c>
@@ -17918,7 +17877,7 @@
       </c>
       <c r="R371" s="14"/>
     </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>43070</v>
       </c>
@@ -17966,7 +17925,7 @@
       </c>
       <c r="R372" s="14"/>
     </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>43070</v>
       </c>
@@ -18014,7 +17973,7 @@
       </c>
       <c r="R373" s="14"/>
     </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>43070</v>
       </c>
@@ -18062,7 +18021,7 @@
       </c>
       <c r="R374" s="14"/>
     </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>43070</v>
       </c>
@@ -18110,7 +18069,7 @@
       </c>
       <c r="R375" s="14"/>
     </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>43070</v>
       </c>
@@ -18158,7 +18117,7 @@
       </c>
       <c r="R376" s="14"/>
     </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>43070</v>
       </c>
@@ -18206,7 +18165,7 @@
       </c>
       <c r="R377" s="14"/>
     </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>43101</v>
       </c>
@@ -18254,7 +18213,7 @@
       </c>
       <c r="R378" s="14"/>
     </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>43101</v>
       </c>
@@ -18302,7 +18261,7 @@
       </c>
       <c r="R379" s="14"/>
     </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>43101</v>
       </c>
@@ -18350,7 +18309,7 @@
       </c>
       <c r="R380" s="14"/>
     </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>43101</v>
       </c>
@@ -18398,7 +18357,7 @@
       </c>
       <c r="R381" s="14"/>
     </row>
-    <row r="382" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>43101</v>
       </c>
@@ -18446,7 +18405,7 @@
       </c>
       <c r="R382" s="14"/>
     </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>43101</v>
       </c>
@@ -18494,7 +18453,7 @@
       </c>
       <c r="R383" s="14"/>
     </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>43132</v>
       </c>
@@ -18542,7 +18501,7 @@
       </c>
       <c r="R384" s="14"/>
     </row>
-    <row r="385" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>43132</v>
       </c>
@@ -18590,7 +18549,7 @@
       </c>
       <c r="R385" s="14"/>
     </row>
-    <row r="386" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>43132</v>
       </c>
@@ -18638,7 +18597,7 @@
       </c>
       <c r="R386" s="14"/>
     </row>
-    <row r="387" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>43132</v>
       </c>
@@ -18686,7 +18645,7 @@
       </c>
       <c r="R387" s="14"/>
     </row>
-    <row r="388" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
         <v>43132</v>
       </c>
@@ -18734,7 +18693,7 @@
       </c>
       <c r="R388" s="14"/>
     </row>
-    <row r="389" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
         <v>43132</v>
       </c>
@@ -18782,7 +18741,7 @@
       </c>
       <c r="R389" s="14"/>
     </row>
-    <row r="390" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>43160</v>
       </c>
@@ -18830,7 +18789,7 @@
       </c>
       <c r="R390" s="14"/>
     </row>
-    <row r="391" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>43160</v>
       </c>
@@ -18878,7 +18837,7 @@
       </c>
       <c r="R391" s="14"/>
     </row>
-    <row r="392" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>43160</v>
       </c>
@@ -18926,7 +18885,7 @@
       </c>
       <c r="R392" s="14"/>
     </row>
-    <row r="393" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
         <v>43160</v>
       </c>
@@ -18974,7 +18933,7 @@
       </c>
       <c r="R393" s="14"/>
     </row>
-    <row r="394" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>43160</v>
       </c>
@@ -19022,7 +18981,7 @@
       </c>
       <c r="R394" s="14"/>
     </row>
-    <row r="395" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
         <v>43160</v>
       </c>
@@ -19070,7 +19029,7 @@
       </c>
       <c r="R395" s="14"/>
     </row>
-    <row r="396" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
         <v>43191</v>
       </c>
@@ -19118,7 +19077,7 @@
       </c>
       <c r="R396" s="14"/>
     </row>
-    <row r="397" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
         <v>43191</v>
       </c>
@@ -19166,7 +19125,7 @@
       </c>
       <c r="R397" s="14"/>
     </row>
-    <row r="398" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
         <v>43191</v>
       </c>
@@ -19214,7 +19173,7 @@
       </c>
       <c r="R398" s="14"/>
     </row>
-    <row r="399" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>43191</v>
       </c>
@@ -19262,7 +19221,7 @@
       </c>
       <c r="R399" s="14"/>
     </row>
-    <row r="400" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>43191</v>
       </c>
@@ -19310,7 +19269,7 @@
       </c>
       <c r="R400" s="14"/>
     </row>
-    <row r="401" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
         <v>43191</v>
       </c>
@@ -19358,7 +19317,7 @@
       </c>
       <c r="R401" s="14"/>
     </row>
-    <row r="402" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
         <v>43221</v>
       </c>
@@ -19406,7 +19365,7 @@
       </c>
       <c r="R402" s="14"/>
     </row>
-    <row r="403" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
         <v>43221</v>
       </c>
@@ -19454,7 +19413,7 @@
       </c>
       <c r="R403" s="14"/>
     </row>
-    <row r="404" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
         <v>43221</v>
       </c>
@@ -19502,7 +19461,7 @@
       </c>
       <c r="R404" s="14"/>
     </row>
-    <row r="405" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
         <v>43221</v>
       </c>
@@ -19550,7 +19509,7 @@
       </c>
       <c r="R405" s="14"/>
     </row>
-    <row r="406" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
         <v>43221</v>
       </c>
@@ -19598,7 +19557,7 @@
       </c>
       <c r="R406" s="14"/>
     </row>
-    <row r="407" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
         <v>43221</v>
       </c>
@@ -19646,7 +19605,7 @@
       </c>
       <c r="R407" s="14"/>
     </row>
-    <row r="408" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
         <v>43252</v>
       </c>
@@ -19694,7 +19653,7 @@
       </c>
       <c r="R408" s="14"/>
     </row>
-    <row r="409" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>43252</v>
       </c>
@@ -19742,7 +19701,7 @@
       </c>
       <c r="R409" s="14"/>
     </row>
-    <row r="410" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
         <v>43252</v>
       </c>
@@ -19790,7 +19749,7 @@
       </c>
       <c r="R410" s="14"/>
     </row>
-    <row r="411" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
         <v>43252</v>
       </c>
@@ -19838,7 +19797,7 @@
       </c>
       <c r="R411" s="14"/>
     </row>
-    <row r="412" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
         <v>43252</v>
       </c>
@@ -19886,7 +19845,7 @@
       </c>
       <c r="R412" s="14"/>
     </row>
-    <row r="413" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
         <v>43252</v>
       </c>
@@ -19934,7 +19893,7 @@
       </c>
       <c r="R413" s="14"/>
     </row>
-    <row r="414" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
         <v>43282</v>
       </c>
@@ -19982,7 +19941,7 @@
       </c>
       <c r="R414" s="14"/>
     </row>
-    <row r="415" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
         <v>43282</v>
       </c>
@@ -20030,7 +19989,7 @@
       </c>
       <c r="R415" s="14"/>
     </row>
-    <row r="416" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
         <v>43282</v>
       </c>
@@ -20078,7 +20037,7 @@
       </c>
       <c r="R416" s="14"/>
     </row>
-    <row r="417" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
         <v>43282</v>
       </c>
@@ -20126,7 +20085,7 @@
       </c>
       <c r="R417" s="14"/>
     </row>
-    <row r="418" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A418" s="2">
         <v>43282</v>
       </c>
@@ -20174,7 +20133,7 @@
       </c>
       <c r="R418" s="14"/>
     </row>
-    <row r="419" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A419" s="2">
         <v>43282</v>
       </c>
@@ -20222,7 +20181,7 @@
       </c>
       <c r="R419" s="14"/>
     </row>
-    <row r="420" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A420" s="2">
         <v>43313</v>
       </c>
@@ -20270,7 +20229,7 @@
       </c>
       <c r="R420" s="14"/>
     </row>
-    <row r="421" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
         <v>43313</v>
       </c>
@@ -20318,7 +20277,7 @@
       </c>
       <c r="R421" s="14"/>
     </row>
-    <row r="422" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
         <v>43313</v>
       </c>
@@ -20366,7 +20325,7 @@
       </c>
       <c r="R422" s="14"/>
     </row>
-    <row r="423" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
         <v>43313</v>
       </c>
@@ -20414,7 +20373,7 @@
       </c>
       <c r="R423" s="14"/>
     </row>
-    <row r="424" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
         <v>43313</v>
       </c>
@@ -20462,7 +20421,7 @@
       </c>
       <c r="R424" s="14"/>
     </row>
-    <row r="425" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
         <v>43313</v>
       </c>
@@ -20510,7 +20469,7 @@
       </c>
       <c r="R425" s="14"/>
     </row>
-    <row r="426" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
         <v>43344</v>
       </c>
@@ -20558,7 +20517,7 @@
       </c>
       <c r="R426" s="14"/>
     </row>
-    <row r="427" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
         <v>43344</v>
       </c>
@@ -20606,7 +20565,7 @@
       </c>
       <c r="R427" s="14"/>
     </row>
-    <row r="428" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
         <v>43344</v>
       </c>
@@ -20654,7 +20613,7 @@
       </c>
       <c r="R428" s="14"/>
     </row>
-    <row r="429" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
         <v>43344</v>
       </c>
@@ -20702,7 +20661,7 @@
       </c>
       <c r="R429" s="14"/>
     </row>
-    <row r="430" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
         <v>43344</v>
       </c>
@@ -20750,7 +20709,7 @@
       </c>
       <c r="R430" s="14"/>
     </row>
-    <row r="431" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
         <v>43344</v>
       </c>
@@ -20798,7 +20757,7 @@
       </c>
       <c r="R431" s="14"/>
     </row>
-    <row r="432" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
         <v>43374</v>
       </c>
@@ -20846,7 +20805,7 @@
       </c>
       <c r="R432" s="14"/>
     </row>
-    <row r="433" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
         <v>43374</v>
       </c>
@@ -20894,7 +20853,7 @@
       </c>
       <c r="R433" s="14"/>
     </row>
-    <row r="434" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
         <v>43374</v>
       </c>
@@ -20942,7 +20901,7 @@
       </c>
       <c r="R434" s="14"/>
     </row>
-    <row r="435" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
         <v>43374</v>
       </c>
@@ -20990,7 +20949,7 @@
       </c>
       <c r="R435" s="14"/>
     </row>
-    <row r="436" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
         <v>43374</v>
       </c>
@@ -21038,7 +20997,7 @@
       </c>
       <c r="R436" s="14"/>
     </row>
-    <row r="437" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
         <v>43374</v>
       </c>
@@ -21086,7 +21045,7 @@
       </c>
       <c r="R437" s="14"/>
     </row>
-    <row r="438" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
         <v>43405</v>
       </c>
@@ -21134,7 +21093,7 @@
       </c>
       <c r="R438" s="14"/>
     </row>
-    <row r="439" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
         <v>43405</v>
       </c>
@@ -21182,7 +21141,7 @@
       </c>
       <c r="R439" s="14"/>
     </row>
-    <row r="440" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
         <v>43405</v>
       </c>
@@ -21230,7 +21189,7 @@
       </c>
       <c r="R440" s="14"/>
     </row>
-    <row r="441" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
         <v>43405</v>
       </c>
@@ -21278,7 +21237,7 @@
       </c>
       <c r="R441" s="14"/>
     </row>
-    <row r="442" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
         <v>43405</v>
       </c>
@@ -21326,7 +21285,7 @@
       </c>
       <c r="R442" s="14"/>
     </row>
-    <row r="443" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
         <v>43405</v>
       </c>
@@ -21374,7 +21333,7 @@
       </c>
       <c r="R443" s="14"/>
     </row>
-    <row r="444" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
         <v>43435</v>
       </c>
@@ -21422,7 +21381,7 @@
       </c>
       <c r="R444" s="14"/>
     </row>
-    <row r="445" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
         <v>43435</v>
       </c>
@@ -21470,7 +21429,7 @@
       </c>
       <c r="R445" s="14"/>
     </row>
-    <row r="446" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
         <v>43435</v>
       </c>
@@ -21518,7 +21477,7 @@
       </c>
       <c r="R446" s="14"/>
     </row>
-    <row r="447" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
         <v>43435</v>
       </c>
@@ -21566,7 +21525,7 @@
       </c>
       <c r="R447" s="14"/>
     </row>
-    <row r="448" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A448" s="2">
         <v>43435</v>
       </c>
@@ -21614,7 +21573,7 @@
       </c>
       <c r="R448" s="14"/>
     </row>
-    <row r="449" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
         <v>43435</v>
       </c>
@@ -21662,7 +21621,7 @@
       </c>
       <c r="R449" s="14"/>
     </row>
-    <row r="450" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A450" s="12">
         <v>43466</v>
       </c>
@@ -21710,7 +21669,7 @@
       </c>
       <c r="R450" s="14"/>
     </row>
-    <row r="451" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A451" s="12">
         <v>43466</v>
       </c>
@@ -21758,7 +21717,7 @@
       </c>
       <c r="R451" s="14"/>
     </row>
-    <row r="452" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A452" s="12">
         <v>43466</v>
       </c>
@@ -21806,7 +21765,7 @@
       </c>
       <c r="R452" s="14"/>
     </row>
-    <row r="453" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A453" s="12">
         <v>43466</v>
       </c>
@@ -21854,7 +21813,7 @@
       </c>
       <c r="R453" s="14"/>
     </row>
-    <row r="454" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A454" s="12">
         <v>43466</v>
       </c>
@@ -21902,7 +21861,7 @@
       </c>
       <c r="R454" s="14"/>
     </row>
-    <row r="455" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A455" s="12">
         <v>43466</v>
       </c>
@@ -21950,7 +21909,7 @@
       </c>
       <c r="R455" s="14"/>
     </row>
-    <row r="456" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A456" s="12">
         <v>43497</v>
       </c>
@@ -21998,7 +21957,7 @@
       </c>
       <c r="R456" s="14"/>
     </row>
-    <row r="457" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A457" s="12">
         <v>43497</v>
       </c>
@@ -22046,7 +22005,7 @@
       </c>
       <c r="R457" s="14"/>
     </row>
-    <row r="458" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A458" s="12">
         <v>43497</v>
       </c>
@@ -22094,7 +22053,7 @@
       </c>
       <c r="R458" s="14"/>
     </row>
-    <row r="459" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A459" s="12">
         <v>43497</v>
       </c>
@@ -22142,7 +22101,7 @@
       </c>
       <c r="R459" s="14"/>
     </row>
-    <row r="460" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A460" s="12">
         <v>43497</v>
       </c>
@@ -22190,7 +22149,7 @@
       </c>
       <c r="R460" s="14"/>
     </row>
-    <row r="461" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A461" s="12">
         <v>43497</v>
       </c>
@@ -22238,7 +22197,7 @@
       </c>
       <c r="R461" s="14"/>
     </row>
-    <row r="462" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A462" s="12">
         <v>43525</v>
       </c>
@@ -22286,7 +22245,7 @@
       </c>
       <c r="R462" s="14"/>
     </row>
-    <row r="463" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A463" s="12">
         <v>43525</v>
       </c>
@@ -22334,7 +22293,7 @@
       </c>
       <c r="R463" s="14"/>
     </row>
-    <row r="464" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A464" s="12">
         <v>43525</v>
       </c>
@@ -22382,7 +22341,7 @@
       </c>
       <c r="R464" s="14"/>
     </row>
-    <row r="465" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A465" s="12">
         <v>43525</v>
       </c>
@@ -22430,7 +22389,7 @@
       </c>
       <c r="R465" s="14"/>
     </row>
-    <row r="466" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A466" s="12">
         <v>43525</v>
       </c>
@@ -22478,7 +22437,7 @@
       </c>
       <c r="R466" s="14"/>
     </row>
-    <row r="467" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A467" s="12">
         <v>43525</v>
       </c>
@@ -22526,7 +22485,7 @@
       </c>
       <c r="R467" s="14"/>
     </row>
-    <row r="468" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A468" s="12">
         <v>43556</v>
       </c>
@@ -22574,7 +22533,7 @@
       </c>
       <c r="R468" s="14"/>
     </row>
-    <row r="469" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A469" s="12">
         <v>43556</v>
       </c>
@@ -22622,7 +22581,7 @@
       </c>
       <c r="R469" s="14"/>
     </row>
-    <row r="470" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A470" s="12">
         <v>43556</v>
       </c>
@@ -22670,7 +22629,7 @@
       </c>
       <c r="R470" s="14"/>
     </row>
-    <row r="471" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A471" s="12">
         <v>43556</v>
       </c>
@@ -22718,7 +22677,7 @@
       </c>
       <c r="R471" s="14"/>
     </row>
-    <row r="472" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A472" s="12">
         <v>43556</v>
       </c>
@@ -22766,7 +22725,7 @@
       </c>
       <c r="R472" s="14"/>
     </row>
-    <row r="473" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A473" s="12">
         <v>43556</v>
       </c>
@@ -22814,7 +22773,7 @@
       </c>
       <c r="R473" s="14"/>
     </row>
-    <row r="474" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A474" s="12">
         <v>43586</v>
       </c>
@@ -22862,7 +22821,7 @@
       </c>
       <c r="R474" s="14"/>
     </row>
-    <row r="475" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A475" s="12">
         <v>43586</v>
       </c>
@@ -22910,7 +22869,7 @@
       </c>
       <c r="R475" s="14"/>
     </row>
-    <row r="476" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A476" s="12">
         <v>43586</v>
       </c>
@@ -22958,7 +22917,7 @@
       </c>
       <c r="R476" s="14"/>
     </row>
-    <row r="477" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A477" s="12">
         <v>43586</v>
       </c>
@@ -23006,7 +22965,7 @@
       </c>
       <c r="R477" s="14"/>
     </row>
-    <row r="478" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A478" s="12">
         <v>43586</v>
       </c>
@@ -23054,7 +23013,7 @@
       </c>
       <c r="R478" s="14"/>
     </row>
-    <row r="479" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A479" s="12">
         <v>43586</v>
       </c>
@@ -23102,7 +23061,7 @@
       </c>
       <c r="R479" s="14"/>
     </row>
-    <row r="480" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A480" s="12">
         <v>43617</v>
       </c>
@@ -23150,7 +23109,7 @@
       </c>
       <c r="R480" s="14"/>
     </row>
-    <row r="481" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A481" s="12">
         <v>43617</v>
       </c>
@@ -23198,7 +23157,7 @@
       </c>
       <c r="R481" s="14"/>
     </row>
-    <row r="482" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A482" s="12">
         <v>43617</v>
       </c>
@@ -23246,7 +23205,7 @@
       </c>
       <c r="R482" s="14"/>
     </row>
-    <row r="483" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A483" s="12">
         <v>43617</v>
       </c>
@@ -23294,7 +23253,7 @@
       </c>
       <c r="R483" s="14"/>
     </row>
-    <row r="484" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A484" s="12">
         <v>43617</v>
       </c>
@@ -23342,7 +23301,7 @@
       </c>
       <c r="R484" s="14"/>
     </row>
-    <row r="485" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A485" s="12">
         <v>43617</v>
       </c>
@@ -23390,7 +23349,7 @@
       </c>
       <c r="R485" s="14"/>
     </row>
-    <row r="486" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A486" s="12">
         <v>43647</v>
       </c>
@@ -23438,7 +23397,7 @@
       </c>
       <c r="R486" s="14"/>
     </row>
-    <row r="487" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A487" s="12">
         <v>43647</v>
       </c>
@@ -23486,7 +23445,7 @@
       </c>
       <c r="R487" s="14"/>
     </row>
-    <row r="488" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A488" s="12">
         <v>43647</v>
       </c>
@@ -23534,7 +23493,7 @@
       </c>
       <c r="R488" s="14"/>
     </row>
-    <row r="489" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A489" s="12">
         <v>43647</v>
       </c>
@@ -23582,7 +23541,7 @@
       </c>
       <c r="R489" s="14"/>
     </row>
-    <row r="490" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A490" s="12">
         <v>43647</v>
       </c>
@@ -23630,7 +23589,7 @@
       </c>
       <c r="R490" s="14"/>
     </row>
-    <row r="491" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A491" s="12">
         <v>43647</v>
       </c>
@@ -23678,7 +23637,7 @@
       </c>
       <c r="R491" s="14"/>
     </row>
-    <row r="492" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A492" s="12">
         <v>43678</v>
       </c>
@@ -23726,7 +23685,7 @@
       </c>
       <c r="R492" s="14"/>
     </row>
-    <row r="493" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A493" s="12">
         <v>43678</v>
       </c>
@@ -23774,7 +23733,7 @@
       </c>
       <c r="R493" s="14"/>
     </row>
-    <row r="494" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A494" s="12">
         <v>43678</v>
       </c>
@@ -23822,7 +23781,7 @@
       </c>
       <c r="R494" s="14"/>
     </row>
-    <row r="495" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A495" s="12">
         <v>43678</v>
       </c>
@@ -23870,7 +23829,7 @@
       </c>
       <c r="R495" s="14"/>
     </row>
-    <row r="496" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A496" s="12">
         <v>43678</v>
       </c>
@@ -23918,7 +23877,7 @@
       </c>
       <c r="R496" s="14"/>
     </row>
-    <row r="497" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A497" s="12">
         <v>43678</v>
       </c>
@@ -23966,7 +23925,7 @@
       </c>
       <c r="R497" s="14"/>
     </row>
-    <row r="498" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A498" s="12">
         <v>43709</v>
       </c>
@@ -24014,7 +23973,7 @@
       </c>
       <c r="R498" s="14"/>
     </row>
-    <row r="499" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A499" s="12">
         <v>43709</v>
       </c>
@@ -24062,7 +24021,7 @@
       </c>
       <c r="R499" s="14"/>
     </row>
-    <row r="500" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A500" s="12">
         <v>43709</v>
       </c>
@@ -24110,7 +24069,7 @@
       </c>
       <c r="R500" s="14"/>
     </row>
-    <row r="501" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A501" s="12">
         <v>43709</v>
       </c>
@@ -24158,7 +24117,7 @@
       </c>
       <c r="R501" s="14"/>
     </row>
-    <row r="502" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A502" s="12">
         <v>43709</v>
       </c>
@@ -24206,7 +24165,7 @@
       </c>
       <c r="R502" s="14"/>
     </row>
-    <row r="503" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A503" s="12">
         <v>43709</v>
       </c>
@@ -24254,7 +24213,7 @@
       </c>
       <c r="R503" s="14"/>
     </row>
-    <row r="504" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A504" s="12">
         <v>43739</v>
       </c>
@@ -24302,7 +24261,7 @@
       </c>
       <c r="R504" s="14"/>
     </row>
-    <row r="505" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A505" s="12">
         <v>43739</v>
       </c>
@@ -24350,7 +24309,7 @@
       </c>
       <c r="R505" s="14"/>
     </row>
-    <row r="506" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A506" s="12">
         <v>43739</v>
       </c>
@@ -24398,7 +24357,7 @@
       </c>
       <c r="R506" s="14"/>
     </row>
-    <row r="507" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A507" s="12">
         <v>43739</v>
       </c>
@@ -24446,7 +24405,7 @@
       </c>
       <c r="R507" s="14"/>
     </row>
-    <row r="508" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A508" s="12">
         <v>43739</v>
       </c>
@@ -24494,7 +24453,7 @@
       </c>
       <c r="R508" s="14"/>
     </row>
-    <row r="509" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A509" s="12">
         <v>43739</v>
       </c>
@@ -24542,7 +24501,7 @@
       </c>
       <c r="R509" s="14"/>
     </row>
-    <row r="510" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A510" s="12">
         <v>43770</v>
       </c>
@@ -24590,7 +24549,7 @@
       </c>
       <c r="R510" s="14"/>
     </row>
-    <row r="511" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A511" s="12">
         <v>43770</v>
       </c>
@@ -24638,7 +24597,7 @@
       </c>
       <c r="R511" s="14"/>
     </row>
-    <row r="512" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A512" s="12">
         <v>43770</v>
       </c>
@@ -24686,7 +24645,7 @@
       </c>
       <c r="R512" s="14"/>
     </row>
-    <row r="513" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A513" s="12">
         <v>43770</v>
       </c>
@@ -24734,7 +24693,7 @@
       </c>
       <c r="R513" s="14"/>
     </row>
-    <row r="514" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A514" s="12">
         <v>43770</v>
       </c>
@@ -24782,7 +24741,7 @@
       </c>
       <c r="R514" s="14"/>
     </row>
-    <row r="515" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A515" s="12">
         <v>43770</v>
       </c>
@@ -24830,7 +24789,7 @@
       </c>
       <c r="R515" s="14"/>
     </row>
-    <row r="516" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A516" s="12">
         <v>43800</v>
       </c>
@@ -24878,7 +24837,7 @@
       </c>
       <c r="R516" s="14"/>
     </row>
-    <row r="517" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A517" s="12">
         <v>43800</v>
       </c>
@@ -24926,7 +24885,7 @@
       </c>
       <c r="R517" s="14"/>
     </row>
-    <row r="518" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A518" s="12">
         <v>43800</v>
       </c>
@@ -24974,7 +24933,7 @@
       </c>
       <c r="R518" s="14"/>
     </row>
-    <row r="519" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A519" s="12">
         <v>43800</v>
       </c>
@@ -25022,7 +24981,7 @@
       </c>
       <c r="R519" s="14"/>
     </row>
-    <row r="520" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A520" s="12">
         <v>43800</v>
       </c>
@@ -25070,7 +25029,7 @@
       </c>
       <c r="R520" s="14"/>
     </row>
-    <row r="521" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A521" s="12">
         <v>43800</v>
       </c>
@@ -25118,7 +25077,7 @@
       </c>
       <c r="R521" s="14"/>
     </row>
-    <row r="522" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A522" s="12">
         <v>43831</v>
       </c>
@@ -25166,7 +25125,7 @@
       </c>
       <c r="R522" s="14"/>
     </row>
-    <row r="523" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A523" s="12">
         <v>43831</v>
       </c>
@@ -25214,7 +25173,7 @@
       </c>
       <c r="R523" s="14"/>
     </row>
-    <row r="524" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A524" s="12">
         <v>43831</v>
       </c>
@@ -25262,7 +25221,7 @@
       </c>
       <c r="R524" s="14"/>
     </row>
-    <row r="525" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A525" s="12">
         <v>43831</v>
       </c>
@@ -25310,7 +25269,7 @@
       </c>
       <c r="R525" s="14"/>
     </row>
-    <row r="526" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A526" s="12">
         <v>43831</v>
       </c>
@@ -25358,7 +25317,7 @@
       </c>
       <c r="R526" s="14"/>
     </row>
-    <row r="527" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A527" s="12">
         <v>43831</v>
       </c>
@@ -25406,7 +25365,7 @@
       </c>
       <c r="R527" s="14"/>
     </row>
-    <row r="528" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A528" s="12">
         <v>43862</v>
       </c>
@@ -25454,7 +25413,7 @@
       </c>
       <c r="R528" s="14"/>
     </row>
-    <row r="529" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A529" s="12">
         <v>43862</v>
       </c>
@@ -25502,7 +25461,7 @@
       </c>
       <c r="R529" s="14"/>
     </row>
-    <row r="530" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A530" s="12">
         <v>43862</v>
       </c>
@@ -25550,7 +25509,7 @@
       </c>
       <c r="R530" s="14"/>
     </row>
-    <row r="531" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A531" s="12">
         <v>43862</v>
       </c>
@@ -25598,7 +25557,7 @@
       </c>
       <c r="R531" s="14"/>
     </row>
-    <row r="532" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A532" s="12">
         <v>43862</v>
       </c>
@@ -25646,7 +25605,7 @@
       </c>
       <c r="R532" s="14"/>
     </row>
-    <row r="533" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A533" s="12">
         <v>43862</v>
       </c>
@@ -25694,7 +25653,7 @@
       </c>
       <c r="R533" s="14"/>
     </row>
-    <row r="534" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A534" s="12">
         <v>43891</v>
       </c>
@@ -25742,7 +25701,7 @@
       </c>
       <c r="R534" s="14"/>
     </row>
-    <row r="535" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A535" s="12">
         <v>43891</v>
       </c>
@@ -25790,7 +25749,7 @@
       </c>
       <c r="R535" s="14"/>
     </row>
-    <row r="536" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A536" s="12">
         <v>43891</v>
       </c>
@@ -25838,7 +25797,7 @@
       </c>
       <c r="R536" s="14"/>
     </row>
-    <row r="537" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A537" s="12">
         <v>43891</v>
       </c>
@@ -25886,7 +25845,7 @@
       </c>
       <c r="R537" s="14"/>
     </row>
-    <row r="538" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A538" s="12">
         <v>43891</v>
       </c>
@@ -25934,7 +25893,7 @@
       </c>
       <c r="R538" s="14"/>
     </row>
-    <row r="539" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A539" s="12">
         <v>43891</v>
       </c>
@@ -25982,7 +25941,7 @@
       </c>
       <c r="R539" s="14"/>
     </row>
-    <row r="540" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A540" s="12">
         <v>43922</v>
       </c>
@@ -26030,7 +25989,7 @@
       </c>
       <c r="R540" s="14"/>
     </row>
-    <row r="541" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A541" s="12">
         <v>43922</v>
       </c>
@@ -26078,7 +26037,7 @@
       </c>
       <c r="R541" s="14"/>
     </row>
-    <row r="542" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A542" s="12">
         <v>43922</v>
       </c>
@@ -26126,7 +26085,7 @@
       </c>
       <c r="R542" s="14"/>
     </row>
-    <row r="543" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A543" s="12">
         <v>43922</v>
       </c>
@@ -26174,7 +26133,7 @@
       </c>
       <c r="R543" s="14"/>
     </row>
-    <row r="544" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A544" s="12">
         <v>43922</v>
       </c>
@@ -26222,7 +26181,7 @@
       </c>
       <c r="R544" s="14"/>
     </row>
-    <row r="545" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A545" s="12">
         <v>43922</v>
       </c>
@@ -26270,7 +26229,7 @@
       </c>
       <c r="R545" s="14"/>
     </row>
-    <row r="546" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A546" s="12">
         <v>43952</v>
       </c>
@@ -26318,7 +26277,7 @@
       </c>
       <c r="R546" s="14"/>
     </row>
-    <row r="547" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A547" s="12">
         <v>43952</v>
       </c>
@@ -26366,7 +26325,7 @@
       </c>
       <c r="R547" s="14"/>
     </row>
-    <row r="548" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A548" s="12">
         <v>43952</v>
       </c>
@@ -26414,7 +26373,7 @@
       </c>
       <c r="R548" s="14"/>
     </row>
-    <row r="549" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A549" s="12">
         <v>43952</v>
       </c>
@@ -26462,7 +26421,7 @@
       </c>
       <c r="R549" s="14"/>
     </row>
-    <row r="550" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A550" s="12">
         <v>43952</v>
       </c>
@@ -26510,7 +26469,7 @@
       </c>
       <c r="R550" s="14"/>
     </row>
-    <row r="551" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A551" s="12">
         <v>43952</v>
       </c>
@@ -26558,7 +26517,7 @@
       </c>
       <c r="R551" s="14"/>
     </row>
-    <row r="552" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A552" s="12">
         <v>43983</v>
       </c>
@@ -26606,7 +26565,7 @@
       </c>
       <c r="R552" s="14"/>
     </row>
-    <row r="553" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A553" s="12">
         <v>43983</v>
       </c>
@@ -26654,7 +26613,7 @@
       </c>
       <c r="R553" s="14"/>
     </row>
-    <row r="554" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A554" s="12">
         <v>43983</v>
       </c>
@@ -26702,7 +26661,7 @@
       </c>
       <c r="R554" s="14"/>
     </row>
-    <row r="555" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A555" s="12">
         <v>43983</v>
       </c>
@@ -26750,7 +26709,7 @@
       </c>
       <c r="R555" s="14"/>
     </row>
-    <row r="556" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A556" s="12">
         <v>43983</v>
       </c>
@@ -26798,7 +26757,7 @@
       </c>
       <c r="R556" s="14"/>
     </row>
-    <row r="557" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A557" s="12">
         <v>43983</v>
       </c>
@@ -26846,7 +26805,7 @@
       </c>
       <c r="R557" s="14"/>
     </row>
-    <row r="558" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A558" s="12">
         <v>44013</v>
       </c>
@@ -26894,7 +26853,7 @@
       </c>
       <c r="R558" s="14"/>
     </row>
-    <row r="559" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A559" s="12">
         <v>44013</v>
       </c>
@@ -26942,7 +26901,7 @@
       </c>
       <c r="R559" s="14"/>
     </row>
-    <row r="560" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A560" s="12">
         <v>44013</v>
       </c>
@@ -26990,7 +26949,7 @@
       </c>
       <c r="R560" s="14"/>
     </row>
-    <row r="561" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A561" s="12">
         <v>44013</v>
       </c>
@@ -27038,7 +26997,7 @@
       </c>
       <c r="R561" s="14"/>
     </row>
-    <row r="562" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A562" s="12">
         <v>44013</v>
       </c>
@@ -27086,7 +27045,7 @@
       </c>
       <c r="R562" s="14"/>
     </row>
-    <row r="563" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A563" s="12">
         <v>44013</v>
       </c>
@@ -27134,7 +27093,7 @@
       </c>
       <c r="R563" s="14"/>
     </row>
-    <row r="564" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A564" s="12">
         <v>44044</v>
       </c>
@@ -27182,7 +27141,7 @@
       </c>
       <c r="R564" s="14"/>
     </row>
-    <row r="565" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A565" s="12">
         <v>44044</v>
       </c>
@@ -27230,7 +27189,7 @@
       </c>
       <c r="R565" s="14"/>
     </row>
-    <row r="566" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A566" s="12">
         <v>44044</v>
       </c>
@@ -27278,7 +27237,7 @@
       </c>
       <c r="R566" s="14"/>
     </row>
-    <row r="567" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A567" s="12">
         <v>44044</v>
       </c>
@@ -27326,7 +27285,7 @@
       </c>
       <c r="R567" s="14"/>
     </row>
-    <row r="568" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A568" s="12">
         <v>44044</v>
       </c>
@@ -27374,7 +27333,7 @@
       </c>
       <c r="R568" s="14"/>
     </row>
-    <row r="569" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A569" s="12">
         <v>44044</v>
       </c>
@@ -27422,7 +27381,7 @@
       </c>
       <c r="R569" s="14"/>
     </row>
-    <row r="570" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A570" s="12">
         <v>44105</v>
       </c>
@@ -27470,7 +27429,7 @@
       </c>
       <c r="R570" s="14"/>
     </row>
-    <row r="571" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A571" s="12">
         <v>44105</v>
       </c>
@@ -27518,7 +27477,7 @@
       </c>
       <c r="R571" s="14"/>
     </row>
-    <row r="572" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A572" s="12">
         <v>44105</v>
       </c>
@@ -27566,7 +27525,7 @@
       </c>
       <c r="R572" s="14"/>
     </row>
-    <row r="573" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A573" s="12">
         <v>44105</v>
       </c>
@@ -27614,7 +27573,7 @@
       </c>
       <c r="R573" s="14"/>
     </row>
-    <row r="574" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A574" s="12">
         <v>44105</v>
       </c>
@@ -27662,7 +27621,7 @@
       </c>
       <c r="R574" s="14"/>
     </row>
-    <row r="575" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A575" s="12">
         <v>44105</v>
       </c>
@@ -27710,7 +27669,7 @@
       </c>
       <c r="R575" s="14"/>
     </row>
-    <row r="576" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A576" s="12">
         <v>44105</v>
       </c>
@@ -27758,7 +27717,7 @@
       </c>
       <c r="R576" s="14"/>
     </row>
-    <row r="577" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A577" s="12">
         <v>44136</v>
       </c>
@@ -27806,7 +27765,7 @@
       </c>
       <c r="R577" s="14"/>
     </row>
-    <row r="578" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A578" s="12">
         <v>44136</v>
       </c>
@@ -27854,7 +27813,7 @@
       </c>
       <c r="R578" s="14"/>
     </row>
-    <row r="579" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A579" s="12">
         <v>44136</v>
       </c>
@@ -27902,7 +27861,7 @@
       </c>
       <c r="R579" s="14"/>
     </row>
-    <row r="580" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A580" s="12">
         <v>44136</v>
       </c>
@@ -27950,7 +27909,7 @@
       </c>
       <c r="R580" s="14"/>
     </row>
-    <row r="581" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A581" s="12">
         <v>44136</v>
       </c>
@@ -27998,7 +27957,7 @@
       </c>
       <c r="R581" s="14"/>
     </row>
-    <row r="582" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A582" s="12">
         <v>44136</v>
       </c>
@@ -28046,7 +28005,7 @@
       </c>
       <c r="R582" s="14"/>
     </row>
-    <row r="583" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A583" s="12">
         <v>44136</v>
       </c>
@@ -28094,7 +28053,7 @@
       </c>
       <c r="R583" s="14"/>
     </row>
-    <row r="584" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A584" s="12">
         <v>44166</v>
       </c>
@@ -28142,7 +28101,7 @@
       </c>
       <c r="R584" s="14"/>
     </row>
-    <row r="585" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A585" s="12">
         <v>44166</v>
       </c>
@@ -28190,7 +28149,7 @@
       </c>
       <c r="R585" s="14"/>
     </row>
-    <row r="586" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A586" s="12">
         <v>44166</v>
       </c>
@@ -28238,7 +28197,7 @@
       </c>
       <c r="R586" s="14"/>
     </row>
-    <row r="587" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A587" s="12">
         <v>44166</v>
       </c>
@@ -28286,7 +28245,7 @@
       </c>
       <c r="R587" s="14"/>
     </row>
-    <row r="588" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A588" s="12">
         <v>44166</v>
       </c>
@@ -28334,7 +28293,7 @@
       </c>
       <c r="R588" s="14"/>
     </row>
-    <row r="589" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A589" s="12">
         <v>44166</v>
       </c>
@@ -28382,7 +28341,7 @@
       </c>
       <c r="R589" s="14"/>
     </row>
-    <row r="590" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A590" s="12">
         <v>44166</v>
       </c>
@@ -28430,7 +28389,7 @@
       </c>
       <c r="R590" s="14"/>
     </row>
-    <row r="591" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A591" s="12">
         <v>44197</v>
       </c>
@@ -28477,7 +28436,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="592" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A592" s="12">
         <v>44197</v>
       </c>
@@ -28524,7 +28483,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="593" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A593" s="12">
         <v>44197</v>
       </c>
@@ -28571,7 +28530,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="594" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A594" s="12">
         <v>44197</v>
       </c>
@@ -28618,7 +28577,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="595" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A595" s="12">
         <v>44197</v>
       </c>
@@ -28665,7 +28624,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="596" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A596" s="12">
         <v>44197</v>
       </c>
@@ -28712,7 +28671,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="597" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A597" s="12">
         <v>44197</v>
       </c>
@@ -28759,7 +28718,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="598" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A598" s="12">
         <v>44228</v>
       </c>
@@ -28806,7 +28765,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="599" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A599" s="12">
         <v>44228</v>
       </c>
@@ -28853,7 +28812,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="600" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A600" s="12">
         <v>44228</v>
       </c>
@@ -28900,7 +28859,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="601" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A601" s="12">
         <v>44228</v>
       </c>
@@ -28947,7 +28906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="602" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A602" s="12">
         <v>44228</v>
       </c>
@@ -28994,7 +28953,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="603" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A603" s="12">
         <v>44228</v>
       </c>
@@ -29041,7 +29000,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="604" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A604" s="12">
         <v>44228</v>
       </c>
@@ -29088,7 +29047,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="605" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A605" s="12">
         <v>44256</v>
       </c>
@@ -29135,7 +29094,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="606" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A606" s="12">
         <v>44256</v>
       </c>
@@ -29182,7 +29141,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="607" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A607" s="12">
         <v>44256</v>
       </c>
@@ -29229,7 +29188,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="608" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A608" s="12">
         <v>44256</v>
       </c>
@@ -29276,7 +29235,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="609" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A609" s="12">
         <v>44256</v>
       </c>
@@ -29323,7 +29282,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="610" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A610" s="12">
         <v>44256</v>
       </c>
@@ -29370,7 +29329,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="611" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A611" s="12">
         <v>44256</v>
       </c>
@@ -29417,7 +29376,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="612" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A612" s="12">
         <v>44287</v>
       </c>
@@ -29464,7 +29423,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="613" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A613" s="12">
         <v>44287</v>
       </c>
@@ -29511,7 +29470,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="614" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A614" s="12">
         <v>44287</v>
       </c>
@@ -29558,7 +29517,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="615" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A615" s="12">
         <v>44287</v>
       </c>
@@ -29605,7 +29564,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="616" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A616" s="12">
         <v>44287</v>
       </c>
@@ -29652,7 +29611,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="617" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A617" s="12">
         <v>44287</v>
       </c>
@@ -29699,7 +29658,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="618" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A618" s="12">
         <v>44287</v>
       </c>
@@ -29746,7 +29705,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="619" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A619" s="12">
         <v>44317</v>
       </c>
@@ -29793,7 +29752,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="620" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A620" s="12">
         <v>44317</v>
       </c>
@@ -29840,7 +29799,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="621" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A621" s="12">
         <v>44317</v>
       </c>
@@ -29887,7 +29846,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="622" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A622" s="12">
         <v>44317</v>
       </c>
@@ -29934,7 +29893,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="623" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A623" s="12">
         <v>44317</v>
       </c>
@@ -29981,7 +29940,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="624" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A624" s="12">
         <v>44317</v>
       </c>
@@ -30028,7 +29987,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="625" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A625" s="12">
         <v>44317</v>
       </c>
@@ -30075,7 +30034,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="626" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A626" s="12">
         <v>44348</v>
       </c>
@@ -30122,7 +30081,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="627" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A627" s="12">
         <v>44348</v>
       </c>
@@ -30169,7 +30128,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="628" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A628" s="12">
         <v>44348</v>
       </c>
@@ -30216,7 +30175,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="629" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A629" s="12">
         <v>44348</v>
       </c>
@@ -30263,7 +30222,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="630" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A630" s="12">
         <v>44348</v>
       </c>
@@ -30310,7 +30269,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="631" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A631" s="12">
         <v>44348</v>
       </c>
@@ -30357,7 +30316,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="632" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A632" s="12">
         <v>44348</v>
       </c>
@@ -30404,7 +30363,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="633" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A633" s="12">
         <v>44378</v>
       </c>
@@ -30451,7 +30410,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="634" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A634" s="12">
         <v>44378</v>
       </c>
@@ -30498,7 +30457,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="635" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A635" s="12">
         <v>44378</v>
       </c>
@@ -30545,7 +30504,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="636" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A636" s="12">
         <v>44378</v>
       </c>
@@ -30592,7 +30551,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="637" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A637" s="12">
         <v>44378</v>
       </c>
@@ -30639,7 +30598,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="638" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A638" s="12">
         <v>44378</v>
       </c>
@@ -30686,7 +30645,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="639" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A639" s="12">
         <v>44378</v>
       </c>
@@ -30733,7 +30692,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="640" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A640" s="12">
         <v>44409</v>
       </c>
@@ -30780,7 +30739,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="641" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A641" s="12">
         <v>44409</v>
       </c>
@@ -30827,7 +30786,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="642" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A642" s="12">
         <v>44409</v>
       </c>
@@ -30874,7 +30833,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="643" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A643" s="12">
         <v>44409</v>
       </c>
@@ -30921,7 +30880,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="644" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A644" s="12">
         <v>44409</v>
       </c>
@@ -30968,7 +30927,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="645" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A645" s="12">
         <v>44409</v>
       </c>
@@ -31015,7 +30974,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="646" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A646" s="12">
         <v>44409</v>
       </c>
@@ -31062,7 +31021,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="647" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A647" s="12">
         <v>44440</v>
       </c>
@@ -31109,7 +31068,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="648" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A648" s="12">
         <v>44440</v>
       </c>
@@ -31156,7 +31115,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="649" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A649" s="12">
         <v>44440</v>
       </c>
@@ -31203,7 +31162,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="650" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A650" s="12">
         <v>44440</v>
       </c>
@@ -31250,7 +31209,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="651" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A651" s="12">
         <v>44440</v>
       </c>
@@ -31297,7 +31256,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="652" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A652" s="12">
         <v>44440</v>
       </c>
@@ -31344,7 +31303,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="653" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A653" s="12">
         <v>44440</v>
       </c>
@@ -31391,7 +31350,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="654" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A654" s="12">
         <v>44470</v>
       </c>
@@ -31438,7 +31397,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="655" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A655" s="12">
         <v>44470</v>
       </c>
@@ -31485,7 +31444,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="656" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A656" s="12">
         <v>44470</v>
       </c>
@@ -31532,7 +31491,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="657" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A657" s="12">
         <v>44470</v>
       </c>
@@ -31579,7 +31538,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="658" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A658" s="12">
         <v>44470</v>
       </c>
@@ -31626,7 +31585,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="659" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A659" s="12">
         <v>44470</v>
       </c>
@@ -31673,7 +31632,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="660" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A660" s="12">
         <v>44470</v>
       </c>
@@ -31720,7 +31679,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="661" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A661" s="12">
         <v>44501</v>
       </c>
@@ -31767,7 +31726,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="662" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A662" s="12">
         <v>44501</v>
       </c>
@@ -31814,7 +31773,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="663" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A663" s="12">
         <v>44501</v>
       </c>
@@ -31861,7 +31820,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="664" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A664" s="12">
         <v>44501</v>
       </c>
@@ -31908,7 +31867,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="665" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A665" s="12">
         <v>44501</v>
       </c>
@@ -31955,7 +31914,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="666" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A666" s="12">
         <v>44501</v>
       </c>
@@ -32002,7 +31961,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="667" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A667" s="12">
         <v>44501</v>
       </c>
@@ -32049,7 +32008,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="668" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A668" s="12">
         <v>44531</v>
       </c>
@@ -32096,7 +32055,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="669" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A669" s="12">
         <v>44531</v>
       </c>
@@ -32143,7 +32102,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="670" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A670" s="12">
         <v>44531</v>
       </c>
@@ -32190,7 +32149,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="671" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A671" s="12">
         <v>44531</v>
       </c>
@@ -32237,7 +32196,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="672" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A672" s="12">
         <v>44531</v>
       </c>
@@ -32284,7 +32243,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="673" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A673" s="12">
         <v>44531</v>
       </c>
@@ -32331,7 +32290,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="674" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A674" s="12">
         <v>44531</v>
       </c>
@@ -32378,7 +32337,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="675" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A675" s="12">
         <v>44562</v>
       </c>
@@ -32425,7 +32384,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="676" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A676" s="12">
         <v>44562</v>
       </c>
@@ -32472,7 +32431,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="677" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A677" s="12">
         <v>44562</v>
       </c>
@@ -32519,7 +32478,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="678" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A678" s="12">
         <v>44562</v>
       </c>
@@ -32566,7 +32525,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="679" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A679" s="12">
         <v>44562</v>
       </c>
@@ -32613,7 +32572,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="680" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A680" s="12">
         <v>44562</v>
       </c>
@@ -32660,7 +32619,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="681" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A681" s="12">
         <v>44562</v>
       </c>
@@ -32707,7 +32666,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="682" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A682" s="12">
         <v>44593</v>
       </c>
@@ -32754,7 +32713,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="683" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A683" s="12">
         <v>44593</v>
       </c>
@@ -32801,7 +32760,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="684" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A684" s="12">
         <v>44593</v>
       </c>
@@ -32848,7 +32807,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="685" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A685" s="12">
         <v>44593</v>
       </c>
@@ -32895,7 +32854,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="686" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A686" s="12">
         <v>44593</v>
       </c>
@@ -32942,7 +32901,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="687" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A687" s="12">
         <v>44593</v>
       </c>
@@ -32989,7 +32948,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="688" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A688" s="12">
         <v>44593</v>
       </c>
@@ -33036,7 +32995,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="689" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A689" s="12">
         <v>44621</v>
       </c>
@@ -33083,7 +33042,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="690" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A690" s="12">
         <v>44621</v>
       </c>
@@ -33130,7 +33089,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="691" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A691" s="12">
         <v>44621</v>
       </c>
@@ -33177,7 +33136,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="692" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A692" s="12">
         <v>44621</v>
       </c>
@@ -33224,7 +33183,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="693" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A693" s="12">
         <v>44621</v>
       </c>
@@ -33271,7 +33230,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="694" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A694" s="12">
         <v>44621</v>
       </c>
@@ -33318,7 +33277,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="695" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A695" s="12">
         <v>44621</v>
       </c>
@@ -33365,7 +33324,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="696" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A696" s="12">
         <v>44652</v>
       </c>
@@ -33412,7 +33371,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="697" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A697" s="12">
         <v>44652</v>
       </c>
@@ -33459,7 +33418,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="698" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A698" s="12">
         <v>44652</v>
       </c>
@@ -33506,7 +33465,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="699" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A699" s="12">
         <v>44652</v>
       </c>
@@ -33553,7 +33512,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="700" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A700" s="12">
         <v>44652</v>
       </c>
@@ -33600,7 +33559,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="701" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A701" s="12">
         <v>44652</v>
       </c>
@@ -33647,7 +33606,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="702" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A702" s="12">
         <v>44652</v>
       </c>
@@ -33694,7 +33653,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="703" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A703" s="12">
         <v>44682</v>
       </c>
@@ -33741,7 +33700,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="704" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A704" s="12">
         <v>44682</v>
       </c>
@@ -33788,7 +33747,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="705" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A705" s="12">
         <v>44682</v>
       </c>
@@ -33835,7 +33794,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="706" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A706" s="12">
         <v>44682</v>
       </c>
@@ -33882,7 +33841,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="707" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A707" s="12">
         <v>44682</v>
       </c>
@@ -33929,7 +33888,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="708" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A708" s="12">
         <v>44682</v>
       </c>
@@ -33976,7 +33935,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="709" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A709" s="12">
         <v>44682</v>
       </c>
@@ -34023,7 +33982,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="710" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A710" s="12">
         <v>44713</v>
       </c>
@@ -34070,7 +34029,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="711" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A711" s="12">
         <v>44713</v>
       </c>
@@ -34117,7 +34076,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="712" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A712" s="12">
         <v>44713</v>
       </c>
@@ -34164,7 +34123,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="713" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A713" s="12">
         <v>44713</v>
       </c>
@@ -34211,7 +34170,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="714" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A714" s="12">
         <v>44713</v>
       </c>
@@ -34258,7 +34217,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="715" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A715" s="12">
         <v>44713</v>
       </c>
@@ -34305,7 +34264,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="716" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A716" s="12">
         <v>44713</v>
       </c>
@@ -34352,7 +34311,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="717" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A717" s="12">
         <v>44743</v>
       </c>
@@ -34399,7 +34358,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="718" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A718" s="12">
         <v>44743</v>
       </c>
@@ -34446,7 +34405,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="719" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A719" s="12">
         <v>44743</v>
       </c>
@@ -34493,7 +34452,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="720" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A720" s="12">
         <v>44743</v>
       </c>
@@ -34540,7 +34499,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="721" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A721" s="12">
         <v>44743</v>
       </c>
@@ -34587,7 +34546,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="722" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A722" s="12">
         <v>44743</v>
       </c>
@@ -34634,7 +34593,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="723" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A723" s="12">
         <v>44743</v>
       </c>
@@ -34681,7 +34640,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="724" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A724" s="17">
         <v>44774</v>
       </c>
@@ -34728,7 +34687,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="725" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A725" s="17">
         <v>44774</v>
       </c>
@@ -34775,7 +34734,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="726" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A726" s="17">
         <v>44774</v>
       </c>
@@ -34822,7 +34781,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="727" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A727" s="17">
         <v>44774</v>
       </c>
@@ -34869,7 +34828,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="728" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A728" s="17">
         <v>44774</v>
       </c>
@@ -34916,7 +34875,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="729" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A729" s="17">
         <v>44774</v>
       </c>
@@ -34963,7 +34922,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="730" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A730" s="17">
         <v>44774</v>
       </c>
@@ -35010,7 +34969,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="731" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A731" s="17">
         <v>44805</v>
       </c>
@@ -35057,7 +35016,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="732" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A732" s="17">
         <v>44805</v>
       </c>
@@ -35104,7 +35063,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="733" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A733" s="17">
         <v>44805</v>
       </c>
@@ -35151,7 +35110,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="734" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A734" s="17">
         <v>44805</v>
       </c>
@@ -35198,7 +35157,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="735" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A735" s="17">
         <v>44805</v>
       </c>
@@ -35245,7 +35204,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="736" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A736" s="17">
         <v>44805</v>
       </c>
@@ -35292,7 +35251,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="737" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A737" s="17">
         <v>44805</v>
       </c>
@@ -35339,7 +35298,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="738" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A738" s="17">
         <v>44835</v>
       </c>
@@ -35386,7 +35345,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="739" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A739" s="17">
         <v>44835</v>
       </c>
@@ -35433,7 +35392,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="740" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A740" s="17">
         <v>44835</v>
       </c>
@@ -35480,7 +35439,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="741" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A741" s="17">
         <v>44835</v>
       </c>
@@ -35527,7 +35486,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="742" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A742" s="17">
         <v>44835</v>
       </c>
@@ -35574,7 +35533,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="743" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A743" s="17">
         <v>44835</v>
       </c>
@@ -35621,7 +35580,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="744" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A744" s="17">
         <v>44835</v>
       </c>
@@ -35668,7 +35627,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="745" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A745" s="17">
         <v>44866</v>
       </c>
@@ -35715,7 +35674,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="746" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A746" s="17">
         <v>44866</v>
       </c>
@@ -35762,7 +35721,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="747" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A747" s="17">
         <v>44866</v>
       </c>
@@ -35809,7 +35768,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="748" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A748" s="17">
         <v>44866</v>
       </c>
@@ -35856,7 +35815,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="749" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A749" s="17">
         <v>44866</v>
       </c>
@@ -35903,7 +35862,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="750" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A750" s="17">
         <v>44866</v>
       </c>
@@ -35950,7 +35909,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="751" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A751" s="17">
         <v>44866</v>
       </c>
@@ -35997,24 +35956,340 @@
         <v>34</v>
       </c>
     </row>
+    <row r="752" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A752" s="17">
+        <v>44896</v>
+      </c>
+      <c r="B752" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C752" s="16">
+        <v>11662</v>
+      </c>
+      <c r="D752" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E752" s="19">
+        <v>3.84</v>
+      </c>
+      <c r="F752" s="18">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="G752" s="19">
+        <v>3</v>
+      </c>
+      <c r="H752" s="19">
+        <v>6.54</v>
+      </c>
+      <c r="I752" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J752" s="18">
+        <v>0.105</v>
+      </c>
+      <c r="K752" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L752" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M752" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N752" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O752" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="753" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A753" s="17">
+        <v>44896</v>
+      </c>
+      <c r="B753" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C753" s="16">
+        <v>10560</v>
+      </c>
+      <c r="D753" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E753" s="19">
+        <v>5.15</v>
+      </c>
+      <c r="F753" s="18">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="G753" s="19">
+        <v>4.16</v>
+      </c>
+      <c r="H753" s="19">
+        <v>7.99</v>
+      </c>
+      <c r="I753" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J753" s="18">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K753" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L753" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M753" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N753" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O753" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="754" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A754" s="17">
+        <v>44896</v>
+      </c>
+      <c r="B754" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C754" s="16">
+        <v>13541</v>
+      </c>
+      <c r="D754" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E754" s="19">
+        <v>4.97</v>
+      </c>
+      <c r="F754" s="18">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="G754" s="19">
+        <v>4.09</v>
+      </c>
+      <c r="H754" s="19">
+        <v>7.69</v>
+      </c>
+      <c r="I754" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J754" s="18">
+        <v>0.06</v>
+      </c>
+      <c r="K754" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L754" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M754" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N754" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O754" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="755" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A755" s="17">
+        <v>44896</v>
+      </c>
+      <c r="B755" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C755" s="16">
+        <v>10879</v>
+      </c>
+      <c r="D755" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E755" s="19">
+        <v>109.18</v>
+      </c>
+      <c r="F755" s="18">
+        <v>10.753</v>
+      </c>
+      <c r="G755" s="19">
+        <v>80</v>
+      </c>
+      <c r="H755" s="19">
+        <v>150</v>
+      </c>
+      <c r="I755" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J755" s="18">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="K755" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L755" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M755" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N755" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O755" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="756" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A756" s="17">
+        <v>44896</v>
+      </c>
+      <c r="B756" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C756" s="16">
+        <v>1245</v>
+      </c>
+      <c r="D756" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E756" s="19">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="F756" s="18">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="G756" s="19">
+        <v>3.19</v>
+      </c>
+      <c r="H756" s="19">
+        <v>6.74</v>
+      </c>
+      <c r="I756" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J756" s="18">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="K756" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L756" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M756" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N756" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O756" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="757" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A757" s="17">
+        <v>44896</v>
+      </c>
+      <c r="B757" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C757" s="16">
+        <v>5682</v>
+      </c>
+      <c r="D757" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E757" s="19">
+        <v>6.36</v>
+      </c>
+      <c r="F757" s="18">
+        <v>0.372</v>
+      </c>
+      <c r="G757" s="19">
+        <v>4.62</v>
+      </c>
+      <c r="H757" s="19">
+        <v>8.52</v>
+      </c>
+      <c r="I757" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J757" s="18">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="K757" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L757" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M757" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N757" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O757" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="758" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A758" s="17">
+        <v>44896</v>
+      </c>
+      <c r="B758" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C758" s="16">
+        <v>9398</v>
+      </c>
+      <c r="D758" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E758" s="19">
+        <v>6.49</v>
+      </c>
+      <c r="F758" s="18">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="G758" s="19">
+        <v>5.57</v>
+      </c>
+      <c r="H758" s="19">
+        <v>9.65</v>
+      </c>
+      <c r="I758" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J758" s="18">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="K758" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L758" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M758" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N758" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O758" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:O751">
-    <sortCondition ref="A18:A751"/>
-    <sortCondition ref="B18:B751"/>
+  <sortState ref="A18:O758">
+    <sortCondition ref="A18:A758"/>
+    <sortCondition ref="B18:B758"/>
   </sortState>
-  <mergeCells count="11">
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/data/raw/mensal-brasil-desde-jan2013.xlsx
+++ b/data/raw/mensal-brasil-desde-jan2013.xlsx
@@ -1,10 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileSharing readOnlyRecommended="1" userName="Carlos Antonio Rocha" algorithmName="SHA-512" hashValue="6gyQ/gq5o2WkU1XV8h107SL7pE6SZMJ30e9vabonwVcUg4NYu8MIC9U/nF0ljCY4YwRmXc135KQr4WiO1lgBNQ==" saltValue="uC04lM9wjy6EFCHGNg8L6w==" spinCount="100000"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Precos\Levantamento de Preços\++SERIE_HISTORICA-SITE++\MENSAL\2013 EM DIANTE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:10001_{BE4CEA5B-7716-46B3-8BF1-50FCC5A90D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="2820" windowWidth="21600" windowHeight="11388"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BRASIL - DESDE JANEIRO DE 2013" sheetId="1" r:id="rId1"/>
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="40">
   <si>
     <t>AGÊNCIA NACIONAL DO PETRÓLEO, GÁS NATURAL E BIOCOMBUSTÍVEIS - ANP</t>
   </si>
@@ -196,7 +203,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -329,7 +336,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -367,9 +374,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -402,9 +409,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -437,9 +461,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -612,36 +653,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:R758"/>
+  <dimension ref="A1:R765"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="17" topLeftCell="A742" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="31" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -651,7 +692,7 @@
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>32</v>
       </c>
@@ -661,7 +702,7 @@
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>27</v>
       </c>
@@ -671,7 +712,7 @@
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
     </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -679,7 +720,7 @@
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>1</v>
       </c>
@@ -689,7 +730,7 @@
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
     </row>
-    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="20"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
@@ -697,7 +738,7 @@
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>2</v>
       </c>
@@ -707,7 +748,7 @@
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
@@ -717,7 +758,7 @@
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>12</v>
       </c>
@@ -727,7 +768,7 @@
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>3</v>
       </c>
@@ -737,7 +778,7 @@
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
     </row>
-    <row r="11" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>31</v>
       </c>
@@ -751,7 +792,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>29</v>
       </c>
@@ -765,7 +806,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>33</v>
       </c>
@@ -779,7 +820,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>38</v>
       </c>
@@ -793,7 +834,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>39</v>
       </c>
@@ -807,7 +848,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -815,7 +856,7 @@
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -862,7 +903,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>41275</v>
       </c>
@@ -911,7 +952,7 @@
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
     </row>
-    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>41275</v>
       </c>
@@ -961,7 +1002,7 @@
       <c r="Q19" s="11"/>
       <c r="R19" s="14"/>
     </row>
-    <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>41275</v>
       </c>
@@ -1011,7 +1052,7 @@
       <c r="Q20" s="11"/>
       <c r="R20" s="14"/>
     </row>
-    <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>41275</v>
       </c>
@@ -1061,7 +1102,7 @@
       <c r="Q21" s="11"/>
       <c r="R21" s="14"/>
     </row>
-    <row r="22" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>41275</v>
       </c>
@@ -1111,7 +1152,7 @@
       <c r="Q22" s="11"/>
       <c r="R22" s="14"/>
     </row>
-    <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>41275</v>
       </c>
@@ -1161,7 +1202,7 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="14"/>
     </row>
-    <row r="24" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>41306</v>
       </c>
@@ -1211,7 +1252,7 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="14"/>
     </row>
-    <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>41306</v>
       </c>
@@ -1261,7 +1302,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="14"/>
     </row>
-    <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>41306</v>
       </c>
@@ -1311,7 +1352,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="14"/>
     </row>
-    <row r="27" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>41306</v>
       </c>
@@ -1359,7 +1400,7 @@
       </c>
       <c r="R27" s="14"/>
     </row>
-    <row r="28" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>41306</v>
       </c>
@@ -1407,7 +1448,7 @@
       </c>
       <c r="R28" s="14"/>
     </row>
-    <row r="29" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>41306</v>
       </c>
@@ -1455,7 +1496,7 @@
       </c>
       <c r="R29" s="14"/>
     </row>
-    <row r="30" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>41334</v>
       </c>
@@ -1503,7 +1544,7 @@
       </c>
       <c r="R30" s="14"/>
     </row>
-    <row r="31" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>41334</v>
       </c>
@@ -1551,7 +1592,7 @@
       </c>
       <c r="R31" s="14"/>
     </row>
-    <row r="32" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>41334</v>
       </c>
@@ -1599,7 +1640,7 @@
       </c>
       <c r="R32" s="14"/>
     </row>
-    <row r="33" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>41334</v>
       </c>
@@ -1647,7 +1688,7 @@
       </c>
       <c r="R33" s="14"/>
     </row>
-    <row r="34" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>41334</v>
       </c>
@@ -1695,7 +1736,7 @@
       </c>
       <c r="R34" s="14"/>
     </row>
-    <row r="35" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>41334</v>
       </c>
@@ -1743,7 +1784,7 @@
       </c>
       <c r="R35" s="14"/>
     </row>
-    <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>41365</v>
       </c>
@@ -1791,7 +1832,7 @@
       </c>
       <c r="R36" s="14"/>
     </row>
-    <row r="37" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>41365</v>
       </c>
@@ -1839,7 +1880,7 @@
       </c>
       <c r="R37" s="14"/>
     </row>
-    <row r="38" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>41365</v>
       </c>
@@ -1887,7 +1928,7 @@
       </c>
       <c r="R38" s="14"/>
     </row>
-    <row r="39" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>41365</v>
       </c>
@@ -1935,7 +1976,7 @@
       </c>
       <c r="R39" s="14"/>
     </row>
-    <row r="40" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>41365</v>
       </c>
@@ -1983,7 +2024,7 @@
       </c>
       <c r="R40" s="14"/>
     </row>
-    <row r="41" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>41365</v>
       </c>
@@ -2031,7 +2072,7 @@
       </c>
       <c r="R41" s="14"/>
     </row>
-    <row r="42" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41395</v>
       </c>
@@ -2079,7 +2120,7 @@
       </c>
       <c r="R42" s="14"/>
     </row>
-    <row r="43" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>41395</v>
       </c>
@@ -2127,7 +2168,7 @@
       </c>
       <c r="R43" s="14"/>
     </row>
-    <row r="44" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41395</v>
       </c>
@@ -2175,7 +2216,7 @@
       </c>
       <c r="R44" s="14"/>
     </row>
-    <row r="45" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>41395</v>
       </c>
@@ -2223,7 +2264,7 @@
       </c>
       <c r="R45" s="14"/>
     </row>
-    <row r="46" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>41395</v>
       </c>
@@ -2271,7 +2312,7 @@
       </c>
       <c r="R46" s="14"/>
     </row>
-    <row r="47" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>41395</v>
       </c>
@@ -2319,7 +2360,7 @@
       </c>
       <c r="R47" s="14"/>
     </row>
-    <row r="48" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>41426</v>
       </c>
@@ -2367,7 +2408,7 @@
       </c>
       <c r="R48" s="14"/>
     </row>
-    <row r="49" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>41426</v>
       </c>
@@ -2415,7 +2456,7 @@
       </c>
       <c r="R49" s="14"/>
     </row>
-    <row r="50" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>41426</v>
       </c>
@@ -2463,7 +2504,7 @@
       </c>
       <c r="R50" s="14"/>
     </row>
-    <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>41426</v>
       </c>
@@ -2511,7 +2552,7 @@
       </c>
       <c r="R51" s="14"/>
     </row>
-    <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>41426</v>
       </c>
@@ -2559,7 +2600,7 @@
       </c>
       <c r="R52" s="14"/>
     </row>
-    <row r="53" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>41426</v>
       </c>
@@ -2607,7 +2648,7 @@
       </c>
       <c r="R53" s="14"/>
     </row>
-    <row r="54" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>41456</v>
       </c>
@@ -2655,7 +2696,7 @@
       </c>
       <c r="R54" s="14"/>
     </row>
-    <row r="55" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>41456</v>
       </c>
@@ -2703,7 +2744,7 @@
       </c>
       <c r="R55" s="14"/>
     </row>
-    <row r="56" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>41456</v>
       </c>
@@ -2751,7 +2792,7 @@
       </c>
       <c r="R56" s="14"/>
     </row>
-    <row r="57" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>41456</v>
       </c>
@@ -2799,7 +2840,7 @@
       </c>
       <c r="R57" s="14"/>
     </row>
-    <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>41456</v>
       </c>
@@ -2847,7 +2888,7 @@
       </c>
       <c r="R58" s="14"/>
     </row>
-    <row r="59" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>41456</v>
       </c>
@@ -2895,7 +2936,7 @@
       </c>
       <c r="R59" s="14"/>
     </row>
-    <row r="60" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>41487</v>
       </c>
@@ -2943,7 +2984,7 @@
       </c>
       <c r="R60" s="14"/>
     </row>
-    <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>41487</v>
       </c>
@@ -2991,7 +3032,7 @@
       </c>
       <c r="R61" s="14"/>
     </row>
-    <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>41487</v>
       </c>
@@ -3039,7 +3080,7 @@
       </c>
       <c r="R62" s="14"/>
     </row>
-    <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>41487</v>
       </c>
@@ -3087,7 +3128,7 @@
       </c>
       <c r="R63" s="14"/>
     </row>
-    <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>41487</v>
       </c>
@@ -3135,7 +3176,7 @@
       </c>
       <c r="R64" s="14"/>
     </row>
-    <row r="65" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>41487</v>
       </c>
@@ -3183,7 +3224,7 @@
       </c>
       <c r="R65" s="14"/>
     </row>
-    <row r="66" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>41518</v>
       </c>
@@ -3231,7 +3272,7 @@
       </c>
       <c r="R66" s="14"/>
     </row>
-    <row r="67" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>41518</v>
       </c>
@@ -3279,7 +3320,7 @@
       </c>
       <c r="R67" s="14"/>
     </row>
-    <row r="68" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>41518</v>
       </c>
@@ -3327,7 +3368,7 @@
       </c>
       <c r="R68" s="14"/>
     </row>
-    <row r="69" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>41518</v>
       </c>
@@ -3375,7 +3416,7 @@
       </c>
       <c r="R69" s="14"/>
     </row>
-    <row r="70" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>41518</v>
       </c>
@@ -3423,7 +3464,7 @@
       </c>
       <c r="R70" s="14"/>
     </row>
-    <row r="71" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>41518</v>
       </c>
@@ -3471,7 +3512,7 @@
       </c>
       <c r="R71" s="14"/>
     </row>
-    <row r="72" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>41548</v>
       </c>
@@ -3519,7 +3560,7 @@
       </c>
       <c r="R72" s="14"/>
     </row>
-    <row r="73" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>41548</v>
       </c>
@@ -3567,7 +3608,7 @@
       </c>
       <c r="R73" s="14"/>
     </row>
-    <row r="74" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>41548</v>
       </c>
@@ -3615,7 +3656,7 @@
       </c>
       <c r="R74" s="14"/>
     </row>
-    <row r="75" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>41548</v>
       </c>
@@ -3663,7 +3704,7 @@
       </c>
       <c r="R75" s="14"/>
     </row>
-    <row r="76" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>41548</v>
       </c>
@@ -3711,7 +3752,7 @@
       </c>
       <c r="R76" s="14"/>
     </row>
-    <row r="77" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>41548</v>
       </c>
@@ -3759,7 +3800,7 @@
       </c>
       <c r="R77" s="14"/>
     </row>
-    <row r="78" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>41579</v>
       </c>
@@ -3807,7 +3848,7 @@
       </c>
       <c r="R78" s="14"/>
     </row>
-    <row r="79" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>41579</v>
       </c>
@@ -3855,7 +3896,7 @@
       </c>
       <c r="R79" s="14"/>
     </row>
-    <row r="80" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>41579</v>
       </c>
@@ -3903,7 +3944,7 @@
       </c>
       <c r="R80" s="14"/>
     </row>
-    <row r="81" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>41579</v>
       </c>
@@ -3951,7 +3992,7 @@
       </c>
       <c r="R81" s="14"/>
     </row>
-    <row r="82" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>41579</v>
       </c>
@@ -3999,7 +4040,7 @@
       </c>
       <c r="R82" s="14"/>
     </row>
-    <row r="83" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>41579</v>
       </c>
@@ -4047,7 +4088,7 @@
       </c>
       <c r="R83" s="14"/>
     </row>
-    <row r="84" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>41609</v>
       </c>
@@ -4095,7 +4136,7 @@
       </c>
       <c r="R84" s="14"/>
     </row>
-    <row r="85" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>41609</v>
       </c>
@@ -4143,7 +4184,7 @@
       </c>
       <c r="R85" s="14"/>
     </row>
-    <row r="86" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>41609</v>
       </c>
@@ -4191,7 +4232,7 @@
       </c>
       <c r="R86" s="14"/>
     </row>
-    <row r="87" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>41609</v>
       </c>
@@ -4239,7 +4280,7 @@
       </c>
       <c r="R87" s="14"/>
     </row>
-    <row r="88" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>41609</v>
       </c>
@@ -4287,7 +4328,7 @@
       </c>
       <c r="R88" s="14"/>
     </row>
-    <row r="89" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>41609</v>
       </c>
@@ -4335,7 +4376,7 @@
       </c>
       <c r="R89" s="14"/>
     </row>
-    <row r="90" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>41640</v>
       </c>
@@ -4383,7 +4424,7 @@
       </c>
       <c r="R90" s="14"/>
     </row>
-    <row r="91" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>41640</v>
       </c>
@@ -4431,7 +4472,7 @@
       </c>
       <c r="R91" s="14"/>
     </row>
-    <row r="92" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>41640</v>
       </c>
@@ -4479,7 +4520,7 @@
       </c>
       <c r="R92" s="14"/>
     </row>
-    <row r="93" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>41640</v>
       </c>
@@ -4527,7 +4568,7 @@
       </c>
       <c r="R93" s="14"/>
     </row>
-    <row r="94" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>41640</v>
       </c>
@@ -4575,7 +4616,7 @@
       </c>
       <c r="R94" s="14"/>
     </row>
-    <row r="95" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>41640</v>
       </c>
@@ -4623,7 +4664,7 @@
       </c>
       <c r="R95" s="14"/>
     </row>
-    <row r="96" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>41671</v>
       </c>
@@ -4671,7 +4712,7 @@
       </c>
       <c r="R96" s="14"/>
     </row>
-    <row r="97" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>41671</v>
       </c>
@@ -4719,7 +4760,7 @@
       </c>
       <c r="R97" s="14"/>
     </row>
-    <row r="98" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>41671</v>
       </c>
@@ -4767,7 +4808,7 @@
       </c>
       <c r="R98" s="14"/>
     </row>
-    <row r="99" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>41671</v>
       </c>
@@ -4815,7 +4856,7 @@
       </c>
       <c r="R99" s="14"/>
     </row>
-    <row r="100" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>41671</v>
       </c>
@@ -4863,7 +4904,7 @@
       </c>
       <c r="R100" s="14"/>
     </row>
-    <row r="101" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>41671</v>
       </c>
@@ -4911,7 +4952,7 @@
       </c>
       <c r="R101" s="14"/>
     </row>
-    <row r="102" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>41699</v>
       </c>
@@ -4959,7 +5000,7 @@
       </c>
       <c r="R102" s="14"/>
     </row>
-    <row r="103" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>41699</v>
       </c>
@@ -5007,7 +5048,7 @@
       </c>
       <c r="R103" s="14"/>
     </row>
-    <row r="104" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>41699</v>
       </c>
@@ -5055,7 +5096,7 @@
       </c>
       <c r="R104" s="14"/>
     </row>
-    <row r="105" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>41699</v>
       </c>
@@ -5103,7 +5144,7 @@
       </c>
       <c r="R105" s="14"/>
     </row>
-    <row r="106" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>41699</v>
       </c>
@@ -5151,7 +5192,7 @@
       </c>
       <c r="R106" s="14"/>
     </row>
-    <row r="107" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>41699</v>
       </c>
@@ -5199,7 +5240,7 @@
       </c>
       <c r="R107" s="14"/>
     </row>
-    <row r="108" spans="1:18" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>41730</v>
       </c>
@@ -5248,7 +5289,7 @@
       <c r="P108"/>
       <c r="R108" s="14"/>
     </row>
-    <row r="109" spans="1:18" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>41730</v>
       </c>
@@ -5297,7 +5338,7 @@
       <c r="P109"/>
       <c r="R109" s="14"/>
     </row>
-    <row r="110" spans="1:18" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>41730</v>
       </c>
@@ -5346,7 +5387,7 @@
       <c r="P110"/>
       <c r="R110" s="14"/>
     </row>
-    <row r="111" spans="1:18" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>41730</v>
       </c>
@@ -5395,7 +5436,7 @@
       <c r="P111"/>
       <c r="R111" s="14"/>
     </row>
-    <row r="112" spans="1:18" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>41730</v>
       </c>
@@ -5444,7 +5485,7 @@
       <c r="P112"/>
       <c r="R112" s="14"/>
     </row>
-    <row r="113" spans="1:18" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>41730</v>
       </c>
@@ -5493,7 +5534,7 @@
       <c r="P113"/>
       <c r="R113" s="14"/>
     </row>
-    <row r="114" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>41760</v>
       </c>
@@ -5541,7 +5582,7 @@
       </c>
       <c r="R114" s="14"/>
     </row>
-    <row r="115" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>41760</v>
       </c>
@@ -5589,7 +5630,7 @@
       </c>
       <c r="R115" s="14"/>
     </row>
-    <row r="116" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>41760</v>
       </c>
@@ -5637,7 +5678,7 @@
       </c>
       <c r="R116" s="14"/>
     </row>
-    <row r="117" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>41760</v>
       </c>
@@ -5685,7 +5726,7 @@
       </c>
       <c r="R117" s="14"/>
     </row>
-    <row r="118" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>41760</v>
       </c>
@@ -5733,7 +5774,7 @@
       </c>
       <c r="R118" s="14"/>
     </row>
-    <row r="119" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>41760</v>
       </c>
@@ -5781,7 +5822,7 @@
       </c>
       <c r="R119" s="14"/>
     </row>
-    <row r="120" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>41791</v>
       </c>
@@ -5829,7 +5870,7 @@
       </c>
       <c r="R120" s="14"/>
     </row>
-    <row r="121" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>41791</v>
       </c>
@@ -5877,7 +5918,7 @@
       </c>
       <c r="R121" s="14"/>
     </row>
-    <row r="122" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>41791</v>
       </c>
@@ -5925,7 +5966,7 @@
       </c>
       <c r="R122" s="14"/>
     </row>
-    <row r="123" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>41791</v>
       </c>
@@ -5973,7 +6014,7 @@
       </c>
       <c r="R123" s="14"/>
     </row>
-    <row r="124" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>41791</v>
       </c>
@@ -6021,7 +6062,7 @@
       </c>
       <c r="R124" s="14"/>
     </row>
-    <row r="125" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>41791</v>
       </c>
@@ -6069,7 +6110,7 @@
       </c>
       <c r="R125" s="14"/>
     </row>
-    <row r="126" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>41821</v>
       </c>
@@ -6117,7 +6158,7 @@
       </c>
       <c r="R126" s="14"/>
     </row>
-    <row r="127" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>41821</v>
       </c>
@@ -6165,7 +6206,7 @@
       </c>
       <c r="R127" s="14"/>
     </row>
-    <row r="128" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>41821</v>
       </c>
@@ -6213,7 +6254,7 @@
       </c>
       <c r="R128" s="14"/>
     </row>
-    <row r="129" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>41821</v>
       </c>
@@ -6261,7 +6302,7 @@
       </c>
       <c r="R129" s="14"/>
     </row>
-    <row r="130" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>41821</v>
       </c>
@@ -6309,7 +6350,7 @@
       </c>
       <c r="R130" s="14"/>
     </row>
-    <row r="131" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>41821</v>
       </c>
@@ -6357,7 +6398,7 @@
       </c>
       <c r="R131" s="14"/>
     </row>
-    <row r="132" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>41852</v>
       </c>
@@ -6405,7 +6446,7 @@
       </c>
       <c r="R132" s="14"/>
     </row>
-    <row r="133" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>41852</v>
       </c>
@@ -6453,7 +6494,7 @@
       </c>
       <c r="R133" s="14"/>
     </row>
-    <row r="134" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>41852</v>
       </c>
@@ -6501,7 +6542,7 @@
       </c>
       <c r="R134" s="14"/>
     </row>
-    <row r="135" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>41852</v>
       </c>
@@ -6549,7 +6590,7 @@
       </c>
       <c r="R135" s="14"/>
     </row>
-    <row r="136" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>41852</v>
       </c>
@@ -6597,7 +6638,7 @@
       </c>
       <c r="R136" s="14"/>
     </row>
-    <row r="137" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>41852</v>
       </c>
@@ -6645,7 +6686,7 @@
       </c>
       <c r="R137" s="14"/>
     </row>
-    <row r="138" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>41883</v>
       </c>
@@ -6693,7 +6734,7 @@
       </c>
       <c r="R138" s="14"/>
     </row>
-    <row r="139" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>41883</v>
       </c>
@@ -6741,7 +6782,7 @@
       </c>
       <c r="R139" s="14"/>
     </row>
-    <row r="140" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>41883</v>
       </c>
@@ -6789,7 +6830,7 @@
       </c>
       <c r="R140" s="14"/>
     </row>
-    <row r="141" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>41883</v>
       </c>
@@ -6837,7 +6878,7 @@
       </c>
       <c r="R141" s="14"/>
     </row>
-    <row r="142" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>41883</v>
       </c>
@@ -6885,7 +6926,7 @@
       </c>
       <c r="R142" s="14"/>
     </row>
-    <row r="143" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>41883</v>
       </c>
@@ -6933,7 +6974,7 @@
       </c>
       <c r="R143" s="14"/>
     </row>
-    <row r="144" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>41913</v>
       </c>
@@ -6981,7 +7022,7 @@
       </c>
       <c r="R144" s="14"/>
     </row>
-    <row r="145" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>41913</v>
       </c>
@@ -7029,7 +7070,7 @@
       </c>
       <c r="R145" s="14"/>
     </row>
-    <row r="146" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>41913</v>
       </c>
@@ -7077,7 +7118,7 @@
       </c>
       <c r="R146" s="14"/>
     </row>
-    <row r="147" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>41913</v>
       </c>
@@ -7125,7 +7166,7 @@
       </c>
       <c r="R147" s="14"/>
     </row>
-    <row r="148" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>41913</v>
       </c>
@@ -7173,7 +7214,7 @@
       </c>
       <c r="R148" s="14"/>
     </row>
-    <row r="149" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>41913</v>
       </c>
@@ -7221,7 +7262,7 @@
       </c>
       <c r="R149" s="14"/>
     </row>
-    <row r="150" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>41944</v>
       </c>
@@ -7269,7 +7310,7 @@
       </c>
       <c r="R150" s="14"/>
     </row>
-    <row r="151" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>41944</v>
       </c>
@@ -7317,7 +7358,7 @@
       </c>
       <c r="R151" s="14"/>
     </row>
-    <row r="152" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>41944</v>
       </c>
@@ -7365,7 +7406,7 @@
       </c>
       <c r="R152" s="14"/>
     </row>
-    <row r="153" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>41944</v>
       </c>
@@ -7413,7 +7454,7 @@
       </c>
       <c r="R153" s="14"/>
     </row>
-    <row r="154" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>41944</v>
       </c>
@@ -7461,7 +7502,7 @@
       </c>
       <c r="R154" s="14"/>
     </row>
-    <row r="155" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>41944</v>
       </c>
@@ -7509,7 +7550,7 @@
       </c>
       <c r="R155" s="14"/>
     </row>
-    <row r="156" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>41974</v>
       </c>
@@ -7557,7 +7598,7 @@
       </c>
       <c r="R156" s="14"/>
     </row>
-    <row r="157" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>41974</v>
       </c>
@@ -7605,7 +7646,7 @@
       </c>
       <c r="R157" s="14"/>
     </row>
-    <row r="158" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>41974</v>
       </c>
@@ -7653,7 +7694,7 @@
       </c>
       <c r="R158" s="14"/>
     </row>
-    <row r="159" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>41974</v>
       </c>
@@ -7701,7 +7742,7 @@
       </c>
       <c r="R159" s="14"/>
     </row>
-    <row r="160" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>41974</v>
       </c>
@@ -7749,7 +7790,7 @@
       </c>
       <c r="R160" s="14"/>
     </row>
-    <row r="161" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>41974</v>
       </c>
@@ -7797,7 +7838,7 @@
       </c>
       <c r="R161" s="14"/>
     </row>
-    <row r="162" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>42005</v>
       </c>
@@ -7845,7 +7886,7 @@
       </c>
       <c r="R162" s="14"/>
     </row>
-    <row r="163" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>42005</v>
       </c>
@@ -7893,7 +7934,7 @@
       </c>
       <c r="R163" s="14"/>
     </row>
-    <row r="164" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>42005</v>
       </c>
@@ -7941,7 +7982,7 @@
       </c>
       <c r="R164" s="14"/>
     </row>
-    <row r="165" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>42005</v>
       </c>
@@ -7989,7 +8030,7 @@
       </c>
       <c r="R165" s="14"/>
     </row>
-    <row r="166" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>42005</v>
       </c>
@@ -8037,7 +8078,7 @@
       </c>
       <c r="R166" s="14"/>
     </row>
-    <row r="167" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>42005</v>
       </c>
@@ -8085,7 +8126,7 @@
       </c>
       <c r="R167" s="14"/>
     </row>
-    <row r="168" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>42036</v>
       </c>
@@ -8133,7 +8174,7 @@
       </c>
       <c r="R168" s="14"/>
     </row>
-    <row r="169" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>42036</v>
       </c>
@@ -8181,7 +8222,7 @@
       </c>
       <c r="R169" s="14"/>
     </row>
-    <row r="170" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>42036</v>
       </c>
@@ -8229,7 +8270,7 @@
       </c>
       <c r="R170" s="14"/>
     </row>
-    <row r="171" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>42036</v>
       </c>
@@ -8277,7 +8318,7 @@
       </c>
       <c r="R171" s="14"/>
     </row>
-    <row r="172" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>42036</v>
       </c>
@@ -8325,7 +8366,7 @@
       </c>
       <c r="R172" s="14"/>
     </row>
-    <row r="173" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>42036</v>
       </c>
@@ -8373,7 +8414,7 @@
       </c>
       <c r="R173" s="14"/>
     </row>
-    <row r="174" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>42064</v>
       </c>
@@ -8421,7 +8462,7 @@
       </c>
       <c r="R174" s="14"/>
     </row>
-    <row r="175" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>42064</v>
       </c>
@@ -8469,7 +8510,7 @@
       </c>
       <c r="R175" s="14"/>
     </row>
-    <row r="176" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>42064</v>
       </c>
@@ -8517,7 +8558,7 @@
       </c>
       <c r="R176" s="14"/>
     </row>
-    <row r="177" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>42064</v>
       </c>
@@ -8565,7 +8606,7 @@
       </c>
       <c r="R177" s="14"/>
     </row>
-    <row r="178" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>42064</v>
       </c>
@@ -8613,7 +8654,7 @@
       </c>
       <c r="R178" s="14"/>
     </row>
-    <row r="179" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>42064</v>
       </c>
@@ -8661,7 +8702,7 @@
       </c>
       <c r="R179" s="14"/>
     </row>
-    <row r="180" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>42095</v>
       </c>
@@ -8709,7 +8750,7 @@
       </c>
       <c r="R180" s="14"/>
     </row>
-    <row r="181" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>42095</v>
       </c>
@@ -8757,7 +8798,7 @@
       </c>
       <c r="R181" s="14"/>
     </row>
-    <row r="182" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>42095</v>
       </c>
@@ -8805,7 +8846,7 @@
       </c>
       <c r="R182" s="14"/>
     </row>
-    <row r="183" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>42095</v>
       </c>
@@ -8853,7 +8894,7 @@
       </c>
       <c r="R183" s="14"/>
     </row>
-    <row r="184" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>42095</v>
       </c>
@@ -8901,7 +8942,7 @@
       </c>
       <c r="R184" s="14"/>
     </row>
-    <row r="185" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>42095</v>
       </c>
@@ -8949,7 +8990,7 @@
       </c>
       <c r="R185" s="14"/>
     </row>
-    <row r="186" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>42125</v>
       </c>
@@ -8997,7 +9038,7 @@
       </c>
       <c r="R186" s="14"/>
     </row>
-    <row r="187" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>42125</v>
       </c>
@@ -9045,7 +9086,7 @@
       </c>
       <c r="R187" s="14"/>
     </row>
-    <row r="188" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>42125</v>
       </c>
@@ -9093,7 +9134,7 @@
       </c>
       <c r="R188" s="14"/>
     </row>
-    <row r="189" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>42125</v>
       </c>
@@ -9141,7 +9182,7 @@
       </c>
       <c r="R189" s="14"/>
     </row>
-    <row r="190" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>42125</v>
       </c>
@@ -9189,7 +9230,7 @@
       </c>
       <c r="R190" s="14"/>
     </row>
-    <row r="191" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>42125</v>
       </c>
@@ -9237,7 +9278,7 @@
       </c>
       <c r="R191" s="14"/>
     </row>
-    <row r="192" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>42156</v>
       </c>
@@ -9285,7 +9326,7 @@
       </c>
       <c r="R192" s="14"/>
     </row>
-    <row r="193" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>42156</v>
       </c>
@@ -9333,7 +9374,7 @@
       </c>
       <c r="R193" s="14"/>
     </row>
-    <row r="194" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>42156</v>
       </c>
@@ -9381,7 +9422,7 @@
       </c>
       <c r="R194" s="14"/>
     </row>
-    <row r="195" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>42156</v>
       </c>
@@ -9429,7 +9470,7 @@
       </c>
       <c r="R195" s="14"/>
     </row>
-    <row r="196" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>42156</v>
       </c>
@@ -9477,7 +9518,7 @@
       </c>
       <c r="R196" s="14"/>
     </row>
-    <row r="197" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>42156</v>
       </c>
@@ -9525,7 +9566,7 @@
       </c>
       <c r="R197" s="14"/>
     </row>
-    <row r="198" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>42186</v>
       </c>
@@ -9573,7 +9614,7 @@
       </c>
       <c r="R198" s="14"/>
     </row>
-    <row r="199" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>42186</v>
       </c>
@@ -9621,7 +9662,7 @@
       </c>
       <c r="R199" s="14"/>
     </row>
-    <row r="200" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>42186</v>
       </c>
@@ -9669,7 +9710,7 @@
       </c>
       <c r="R200" s="14"/>
     </row>
-    <row r="201" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>42186</v>
       </c>
@@ -9717,7 +9758,7 @@
       </c>
       <c r="R201" s="14"/>
     </row>
-    <row r="202" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>42186</v>
       </c>
@@ -9765,7 +9806,7 @@
       </c>
       <c r="R202" s="14"/>
     </row>
-    <row r="203" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>42186</v>
       </c>
@@ -9813,7 +9854,7 @@
       </c>
       <c r="R203" s="14"/>
     </row>
-    <row r="204" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>42217</v>
       </c>
@@ -9861,7 +9902,7 @@
       </c>
       <c r="R204" s="14"/>
     </row>
-    <row r="205" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>42217</v>
       </c>
@@ -9909,7 +9950,7 @@
       </c>
       <c r="R205" s="14"/>
     </row>
-    <row r="206" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>42217</v>
       </c>
@@ -9957,7 +9998,7 @@
       </c>
       <c r="R206" s="14"/>
     </row>
-    <row r="207" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>42217</v>
       </c>
@@ -10005,7 +10046,7 @@
       </c>
       <c r="R207" s="14"/>
     </row>
-    <row r="208" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>42217</v>
       </c>
@@ -10053,7 +10094,7 @@
       </c>
       <c r="R208" s="14"/>
     </row>
-    <row r="209" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>42217</v>
       </c>
@@ -10101,7 +10142,7 @@
       </c>
       <c r="R209" s="14"/>
     </row>
-    <row r="210" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>42248</v>
       </c>
@@ -10149,7 +10190,7 @@
       </c>
       <c r="R210" s="14"/>
     </row>
-    <row r="211" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>42248</v>
       </c>
@@ -10197,7 +10238,7 @@
       </c>
       <c r="R211" s="14"/>
     </row>
-    <row r="212" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>42248</v>
       </c>
@@ -10245,7 +10286,7 @@
       </c>
       <c r="R212" s="14"/>
     </row>
-    <row r="213" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>42248</v>
       </c>
@@ -10293,7 +10334,7 @@
       </c>
       <c r="R213" s="14"/>
     </row>
-    <row r="214" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>42248</v>
       </c>
@@ -10341,7 +10382,7 @@
       </c>
       <c r="R214" s="14"/>
     </row>
-    <row r="215" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>42248</v>
       </c>
@@ -10389,7 +10430,7 @@
       </c>
       <c r="R215" s="14"/>
     </row>
-    <row r="216" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>42278</v>
       </c>
@@ -10437,7 +10478,7 @@
       </c>
       <c r="R216" s="14"/>
     </row>
-    <row r="217" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>42278</v>
       </c>
@@ -10485,7 +10526,7 @@
       </c>
       <c r="R217" s="14"/>
     </row>
-    <row r="218" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>42278</v>
       </c>
@@ -10533,7 +10574,7 @@
       </c>
       <c r="R218" s="14"/>
     </row>
-    <row r="219" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>42278</v>
       </c>
@@ -10581,7 +10622,7 @@
       </c>
       <c r="R219" s="14"/>
     </row>
-    <row r="220" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>42278</v>
       </c>
@@ -10629,7 +10670,7 @@
       </c>
       <c r="R220" s="14"/>
     </row>
-    <row r="221" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>42278</v>
       </c>
@@ -10677,7 +10718,7 @@
       </c>
       <c r="R221" s="14"/>
     </row>
-    <row r="222" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>42309</v>
       </c>
@@ -10725,7 +10766,7 @@
       </c>
       <c r="R222" s="14"/>
     </row>
-    <row r="223" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>42309</v>
       </c>
@@ -10773,7 +10814,7 @@
       </c>
       <c r="R223" s="14"/>
     </row>
-    <row r="224" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>42309</v>
       </c>
@@ -10821,7 +10862,7 @@
       </c>
       <c r="R224" s="14"/>
     </row>
-    <row r="225" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>42309</v>
       </c>
@@ -10869,7 +10910,7 @@
       </c>
       <c r="R225" s="14"/>
     </row>
-    <row r="226" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>42309</v>
       </c>
@@ -10917,7 +10958,7 @@
       </c>
       <c r="R226" s="14"/>
     </row>
-    <row r="227" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>42309</v>
       </c>
@@ -10965,7 +11006,7 @@
       </c>
       <c r="R227" s="14"/>
     </row>
-    <row r="228" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>42339</v>
       </c>
@@ -11013,7 +11054,7 @@
       </c>
       <c r="R228" s="14"/>
     </row>
-    <row r="229" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>42339</v>
       </c>
@@ -11061,7 +11102,7 @@
       </c>
       <c r="R229" s="14"/>
     </row>
-    <row r="230" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>42339</v>
       </c>
@@ -11109,7 +11150,7 @@
       </c>
       <c r="R230" s="14"/>
     </row>
-    <row r="231" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>42339</v>
       </c>
@@ -11157,7 +11198,7 @@
       </c>
       <c r="R231" s="14"/>
     </row>
-    <row r="232" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>42339</v>
       </c>
@@ -11205,7 +11246,7 @@
       </c>
       <c r="R232" s="14"/>
     </row>
-    <row r="233" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>42339</v>
       </c>
@@ -11253,7 +11294,7 @@
       </c>
       <c r="R233" s="14"/>
     </row>
-    <row r="234" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>42370</v>
       </c>
@@ -11301,7 +11342,7 @@
       </c>
       <c r="R234" s="14"/>
     </row>
-    <row r="235" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>42370</v>
       </c>
@@ -11349,7 +11390,7 @@
       </c>
       <c r="R235" s="14"/>
     </row>
-    <row r="236" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>42370</v>
       </c>
@@ -11397,7 +11438,7 @@
       </c>
       <c r="R236" s="14"/>
     </row>
-    <row r="237" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>42370</v>
       </c>
@@ -11445,7 +11486,7 @@
       </c>
       <c r="R237" s="14"/>
     </row>
-    <row r="238" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>42370</v>
       </c>
@@ -11493,7 +11534,7 @@
       </c>
       <c r="R238" s="14"/>
     </row>
-    <row r="239" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>42370</v>
       </c>
@@ -11541,7 +11582,7 @@
       </c>
       <c r="R239" s="14"/>
     </row>
-    <row r="240" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>42401</v>
       </c>
@@ -11589,7 +11630,7 @@
       </c>
       <c r="R240" s="14"/>
     </row>
-    <row r="241" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>42401</v>
       </c>
@@ -11637,7 +11678,7 @@
       </c>
       <c r="R241" s="14"/>
     </row>
-    <row r="242" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>42401</v>
       </c>
@@ -11685,7 +11726,7 @@
       </c>
       <c r="R242" s="14"/>
     </row>
-    <row r="243" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>42401</v>
       </c>
@@ -11733,7 +11774,7 @@
       </c>
       <c r="R243" s="14"/>
     </row>
-    <row r="244" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>42401</v>
       </c>
@@ -11781,7 +11822,7 @@
       </c>
       <c r="R244" s="14"/>
     </row>
-    <row r="245" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>42401</v>
       </c>
@@ -11829,7 +11870,7 @@
       </c>
       <c r="R245" s="14"/>
     </row>
-    <row r="246" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>42430</v>
       </c>
@@ -11877,7 +11918,7 @@
       </c>
       <c r="R246" s="14"/>
     </row>
-    <row r="247" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>42430</v>
       </c>
@@ -11925,7 +11966,7 @@
       </c>
       <c r="R247" s="14"/>
     </row>
-    <row r="248" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>42430</v>
       </c>
@@ -11973,7 +12014,7 @@
       </c>
       <c r="R248" s="14"/>
     </row>
-    <row r="249" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>42430</v>
       </c>
@@ -12021,7 +12062,7 @@
       </c>
       <c r="R249" s="14"/>
     </row>
-    <row r="250" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>42430</v>
       </c>
@@ -12069,7 +12110,7 @@
       </c>
       <c r="R250" s="14"/>
     </row>
-    <row r="251" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>42430</v>
       </c>
@@ -12117,7 +12158,7 @@
       </c>
       <c r="R251" s="14"/>
     </row>
-    <row r="252" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>42461</v>
       </c>
@@ -12165,7 +12206,7 @@
       </c>
       <c r="R252" s="14"/>
     </row>
-    <row r="253" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>42461</v>
       </c>
@@ -12213,7 +12254,7 @@
       </c>
       <c r="R253" s="14"/>
     </row>
-    <row r="254" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>42461</v>
       </c>
@@ -12261,7 +12302,7 @@
       </c>
       <c r="R254" s="14"/>
     </row>
-    <row r="255" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>42461</v>
       </c>
@@ -12309,7 +12350,7 @@
       </c>
       <c r="R255" s="14"/>
     </row>
-    <row r="256" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>42461</v>
       </c>
@@ -12357,7 +12398,7 @@
       </c>
       <c r="R256" s="14"/>
     </row>
-    <row r="257" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>42461</v>
       </c>
@@ -12405,7 +12446,7 @@
       </c>
       <c r="R257" s="14"/>
     </row>
-    <row r="258" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>42491</v>
       </c>
@@ -12453,7 +12494,7 @@
       </c>
       <c r="R258" s="14"/>
     </row>
-    <row r="259" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>42491</v>
       </c>
@@ -12501,7 +12542,7 @@
       </c>
       <c r="R259" s="14"/>
     </row>
-    <row r="260" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>42491</v>
       </c>
@@ -12549,7 +12590,7 @@
       </c>
       <c r="R260" s="14"/>
     </row>
-    <row r="261" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>42491</v>
       </c>
@@ -12597,7 +12638,7 @@
       </c>
       <c r="R261" s="14"/>
     </row>
-    <row r="262" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>42491</v>
       </c>
@@ -12645,7 +12686,7 @@
       </c>
       <c r="R262" s="14"/>
     </row>
-    <row r="263" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>42491</v>
       </c>
@@ -12693,7 +12734,7 @@
       </c>
       <c r="R263" s="14"/>
     </row>
-    <row r="264" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>42522</v>
       </c>
@@ -12741,7 +12782,7 @@
       </c>
       <c r="R264" s="14"/>
     </row>
-    <row r="265" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>42522</v>
       </c>
@@ -12789,7 +12830,7 @@
       </c>
       <c r="R265" s="14"/>
     </row>
-    <row r="266" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>42522</v>
       </c>
@@ -12837,7 +12878,7 @@
       </c>
       <c r="R266" s="14"/>
     </row>
-    <row r="267" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>42522</v>
       </c>
@@ -12885,7 +12926,7 @@
       </c>
       <c r="R267" s="14"/>
     </row>
-    <row r="268" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>42522</v>
       </c>
@@ -12933,7 +12974,7 @@
       </c>
       <c r="R268" s="14"/>
     </row>
-    <row r="269" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>42522</v>
       </c>
@@ -12981,7 +13022,7 @@
       </c>
       <c r="R269" s="14"/>
     </row>
-    <row r="270" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>42552</v>
       </c>
@@ -13029,7 +13070,7 @@
       </c>
       <c r="R270" s="14"/>
     </row>
-    <row r="271" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>42552</v>
       </c>
@@ -13077,7 +13118,7 @@
       </c>
       <c r="R271" s="14"/>
     </row>
-    <row r="272" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>42552</v>
       </c>
@@ -13125,7 +13166,7 @@
       </c>
       <c r="R272" s="14"/>
     </row>
-    <row r="273" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>42552</v>
       </c>
@@ -13173,7 +13214,7 @@
       </c>
       <c r="R273" s="14"/>
     </row>
-    <row r="274" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>42552</v>
       </c>
@@ -13221,7 +13262,7 @@
       </c>
       <c r="R274" s="14"/>
     </row>
-    <row r="275" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>42552</v>
       </c>
@@ -13269,7 +13310,7 @@
       </c>
       <c r="R275" s="14"/>
     </row>
-    <row r="276" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>42583</v>
       </c>
@@ -13317,7 +13358,7 @@
       </c>
       <c r="R276" s="14"/>
     </row>
-    <row r="277" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>42583</v>
       </c>
@@ -13365,7 +13406,7 @@
       </c>
       <c r="R277" s="14"/>
     </row>
-    <row r="278" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>42583</v>
       </c>
@@ -13413,7 +13454,7 @@
       </c>
       <c r="R278" s="14"/>
     </row>
-    <row r="279" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>42583</v>
       </c>
@@ -13461,7 +13502,7 @@
       </c>
       <c r="R279" s="14"/>
     </row>
-    <row r="280" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>42583</v>
       </c>
@@ -13509,7 +13550,7 @@
       </c>
       <c r="R280" s="14"/>
     </row>
-    <row r="281" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>42583</v>
       </c>
@@ -13557,7 +13598,7 @@
       </c>
       <c r="R281" s="14"/>
     </row>
-    <row r="282" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>42614</v>
       </c>
@@ -13605,7 +13646,7 @@
       </c>
       <c r="R282" s="14"/>
     </row>
-    <row r="283" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>42614</v>
       </c>
@@ -13653,7 +13694,7 @@
       </c>
       <c r="R283" s="14"/>
     </row>
-    <row r="284" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>42614</v>
       </c>
@@ -13701,7 +13742,7 @@
       </c>
       <c r="R284" s="14"/>
     </row>
-    <row r="285" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>42614</v>
       </c>
@@ -13749,7 +13790,7 @@
       </c>
       <c r="R285" s="14"/>
     </row>
-    <row r="286" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>42614</v>
       </c>
@@ -13797,7 +13838,7 @@
       </c>
       <c r="R286" s="14"/>
     </row>
-    <row r="287" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>42614</v>
       </c>
@@ -13845,7 +13886,7 @@
       </c>
       <c r="R287" s="14"/>
     </row>
-    <row r="288" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>42644</v>
       </c>
@@ -13893,7 +13934,7 @@
       </c>
       <c r="R288" s="14"/>
     </row>
-    <row r="289" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>42644</v>
       </c>
@@ -13941,7 +13982,7 @@
       </c>
       <c r="R289" s="14"/>
     </row>
-    <row r="290" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>42644</v>
       </c>
@@ -13989,7 +14030,7 @@
       </c>
       <c r="R290" s="14"/>
     </row>
-    <row r="291" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>42644</v>
       </c>
@@ -14037,7 +14078,7 @@
       </c>
       <c r="R291" s="14"/>
     </row>
-    <row r="292" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>42644</v>
       </c>
@@ -14085,7 +14126,7 @@
       </c>
       <c r="R292" s="14"/>
     </row>
-    <row r="293" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>42644</v>
       </c>
@@ -14133,7 +14174,7 @@
       </c>
       <c r="R293" s="14"/>
     </row>
-    <row r="294" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>42675</v>
       </c>
@@ -14181,7 +14222,7 @@
       </c>
       <c r="R294" s="14"/>
     </row>
-    <row r="295" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>42675</v>
       </c>
@@ -14229,7 +14270,7 @@
       </c>
       <c r="R295" s="14"/>
     </row>
-    <row r="296" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>42675</v>
       </c>
@@ -14277,7 +14318,7 @@
       </c>
       <c r="R296" s="14"/>
     </row>
-    <row r="297" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>42675</v>
       </c>
@@ -14325,7 +14366,7 @@
       </c>
       <c r="R297" s="14"/>
     </row>
-    <row r="298" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>42675</v>
       </c>
@@ -14373,7 +14414,7 @@
       </c>
       <c r="R298" s="14"/>
     </row>
-    <row r="299" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>42675</v>
       </c>
@@ -14421,7 +14462,7 @@
       </c>
       <c r="R299" s="14"/>
     </row>
-    <row r="300" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>42705</v>
       </c>
@@ -14469,7 +14510,7 @@
       </c>
       <c r="R300" s="14"/>
     </row>
-    <row r="301" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>42705</v>
       </c>
@@ -14517,7 +14558,7 @@
       </c>
       <c r="R301" s="14"/>
     </row>
-    <row r="302" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>42705</v>
       </c>
@@ -14565,7 +14606,7 @@
       </c>
       <c r="R302" s="14"/>
     </row>
-    <row r="303" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>42705</v>
       </c>
@@ -14613,7 +14654,7 @@
       </c>
       <c r="R303" s="14"/>
     </row>
-    <row r="304" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>42705</v>
       </c>
@@ -14661,7 +14702,7 @@
       </c>
       <c r="R304" s="14"/>
     </row>
-    <row r="305" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>42705</v>
       </c>
@@ -14709,7 +14750,7 @@
       </c>
       <c r="R305" s="14"/>
     </row>
-    <row r="306" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>42736</v>
       </c>
@@ -14757,7 +14798,7 @@
       </c>
       <c r="R306" s="14"/>
     </row>
-    <row r="307" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>42736</v>
       </c>
@@ -14805,7 +14846,7 @@
       </c>
       <c r="R307" s="14"/>
     </row>
-    <row r="308" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>42736</v>
       </c>
@@ -14853,7 +14894,7 @@
       </c>
       <c r="R308" s="14"/>
     </row>
-    <row r="309" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>42736</v>
       </c>
@@ -14901,7 +14942,7 @@
       </c>
       <c r="R309" s="14"/>
     </row>
-    <row r="310" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>42736</v>
       </c>
@@ -14949,7 +14990,7 @@
       </c>
       <c r="R310" s="14"/>
     </row>
-    <row r="311" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>42736</v>
       </c>
@@ -14997,7 +15038,7 @@
       </c>
       <c r="R311" s="14"/>
     </row>
-    <row r="312" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>42767</v>
       </c>
@@ -15045,7 +15086,7 @@
       </c>
       <c r="R312" s="14"/>
     </row>
-    <row r="313" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>42767</v>
       </c>
@@ -15093,7 +15134,7 @@
       </c>
       <c r="R313" s="14"/>
     </row>
-    <row r="314" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>42767</v>
       </c>
@@ -15141,7 +15182,7 @@
       </c>
       <c r="R314" s="14"/>
     </row>
-    <row r="315" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>42767</v>
       </c>
@@ -15189,7 +15230,7 @@
       </c>
       <c r="R315" s="14"/>
     </row>
-    <row r="316" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>42767</v>
       </c>
@@ -15237,7 +15278,7 @@
       </c>
       <c r="R316" s="14"/>
     </row>
-    <row r="317" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>42767</v>
       </c>
@@ -15285,7 +15326,7 @@
       </c>
       <c r="R317" s="14"/>
     </row>
-    <row r="318" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>42795</v>
       </c>
@@ -15333,7 +15374,7 @@
       </c>
       <c r="R318" s="14"/>
     </row>
-    <row r="319" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>42795</v>
       </c>
@@ -15381,7 +15422,7 @@
       </c>
       <c r="R319" s="14"/>
     </row>
-    <row r="320" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>42795</v>
       </c>
@@ -15429,7 +15470,7 @@
       </c>
       <c r="R320" s="14"/>
     </row>
-    <row r="321" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>42795</v>
       </c>
@@ -15477,7 +15518,7 @@
       </c>
       <c r="R321" s="14"/>
     </row>
-    <row r="322" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>42795</v>
       </c>
@@ -15525,7 +15566,7 @@
       </c>
       <c r="R322" s="14"/>
     </row>
-    <row r="323" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>42795</v>
       </c>
@@ -15573,7 +15614,7 @@
       </c>
       <c r="R323" s="14"/>
     </row>
-    <row r="324" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>42826</v>
       </c>
@@ -15621,7 +15662,7 @@
       </c>
       <c r="R324" s="14"/>
     </row>
-    <row r="325" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>42826</v>
       </c>
@@ -15669,7 +15710,7 @@
       </c>
       <c r="R325" s="14"/>
     </row>
-    <row r="326" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>42826</v>
       </c>
@@ -15717,7 +15758,7 @@
       </c>
       <c r="R326" s="14"/>
     </row>
-    <row r="327" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>42826</v>
       </c>
@@ -15765,7 +15806,7 @@
       </c>
       <c r="R327" s="14"/>
     </row>
-    <row r="328" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>42826</v>
       </c>
@@ -15813,7 +15854,7 @@
       </c>
       <c r="R328" s="14"/>
     </row>
-    <row r="329" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>42826</v>
       </c>
@@ -15861,7 +15902,7 @@
       </c>
       <c r="R329" s="14"/>
     </row>
-    <row r="330" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>42856</v>
       </c>
@@ -15909,7 +15950,7 @@
       </c>
       <c r="R330" s="14"/>
     </row>
-    <row r="331" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>42856</v>
       </c>
@@ -15957,7 +15998,7 @@
       </c>
       <c r="R331" s="14"/>
     </row>
-    <row r="332" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>42856</v>
       </c>
@@ -16005,7 +16046,7 @@
       </c>
       <c r="R332" s="14"/>
     </row>
-    <row r="333" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>42856</v>
       </c>
@@ -16053,7 +16094,7 @@
       </c>
       <c r="R333" s="14"/>
     </row>
-    <row r="334" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>42856</v>
       </c>
@@ -16101,7 +16142,7 @@
       </c>
       <c r="R334" s="14"/>
     </row>
-    <row r="335" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>42856</v>
       </c>
@@ -16149,7 +16190,7 @@
       </c>
       <c r="R335" s="14"/>
     </row>
-    <row r="336" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>42887</v>
       </c>
@@ -16197,7 +16238,7 @@
       </c>
       <c r="R336" s="14"/>
     </row>
-    <row r="337" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>42887</v>
       </c>
@@ -16245,7 +16286,7 @@
       </c>
       <c r="R337" s="14"/>
     </row>
-    <row r="338" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>42887</v>
       </c>
@@ -16293,7 +16334,7 @@
       </c>
       <c r="R338" s="14"/>
     </row>
-    <row r="339" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>42887</v>
       </c>
@@ -16341,7 +16382,7 @@
       </c>
       <c r="R339" s="14"/>
     </row>
-    <row r="340" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>42887</v>
       </c>
@@ -16389,7 +16430,7 @@
       </c>
       <c r="R340" s="14"/>
     </row>
-    <row r="341" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>42887</v>
       </c>
@@ -16437,7 +16478,7 @@
       </c>
       <c r="R341" s="14"/>
     </row>
-    <row r="342" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>42917</v>
       </c>
@@ -16485,7 +16526,7 @@
       </c>
       <c r="R342" s="14"/>
     </row>
-    <row r="343" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>42917</v>
       </c>
@@ -16533,7 +16574,7 @@
       </c>
       <c r="R343" s="14"/>
     </row>
-    <row r="344" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>42917</v>
       </c>
@@ -16581,7 +16622,7 @@
       </c>
       <c r="R344" s="14"/>
     </row>
-    <row r="345" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>42917</v>
       </c>
@@ -16629,7 +16670,7 @@
       </c>
       <c r="R345" s="14"/>
     </row>
-    <row r="346" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>42917</v>
       </c>
@@ -16677,7 +16718,7 @@
       </c>
       <c r="R346" s="14"/>
     </row>
-    <row r="347" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>42917</v>
       </c>
@@ -16725,7 +16766,7 @@
       </c>
       <c r="R347" s="14"/>
     </row>
-    <row r="348" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>42948</v>
       </c>
@@ -16773,7 +16814,7 @@
       </c>
       <c r="R348" s="14"/>
     </row>
-    <row r="349" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>42948</v>
       </c>
@@ -16821,7 +16862,7 @@
       </c>
       <c r="R349" s="14"/>
     </row>
-    <row r="350" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>42948</v>
       </c>
@@ -16869,7 +16910,7 @@
       </c>
       <c r="R350" s="14"/>
     </row>
-    <row r="351" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>42948</v>
       </c>
@@ -16917,7 +16958,7 @@
       </c>
       <c r="R351" s="14"/>
     </row>
-    <row r="352" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>42948</v>
       </c>
@@ -16965,7 +17006,7 @@
       </c>
       <c r="R352" s="14"/>
     </row>
-    <row r="353" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>42948</v>
       </c>
@@ -17013,7 +17054,7 @@
       </c>
       <c r="R353" s="14"/>
     </row>
-    <row r="354" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>42979</v>
       </c>
@@ -17061,7 +17102,7 @@
       </c>
       <c r="R354" s="14"/>
     </row>
-    <row r="355" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>42979</v>
       </c>
@@ -17109,7 +17150,7 @@
       </c>
       <c r="R355" s="14"/>
     </row>
-    <row r="356" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>42979</v>
       </c>
@@ -17157,7 +17198,7 @@
       </c>
       <c r="R356" s="14"/>
     </row>
-    <row r="357" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>42979</v>
       </c>
@@ -17205,7 +17246,7 @@
       </c>
       <c r="R357" s="14"/>
     </row>
-    <row r="358" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>42979</v>
       </c>
@@ -17253,7 +17294,7 @@
       </c>
       <c r="R358" s="14"/>
     </row>
-    <row r="359" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>42979</v>
       </c>
@@ -17301,7 +17342,7 @@
       </c>
       <c r="R359" s="14"/>
     </row>
-    <row r="360" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>43009</v>
       </c>
@@ -17349,7 +17390,7 @@
       </c>
       <c r="R360" s="14"/>
     </row>
-    <row r="361" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>43009</v>
       </c>
@@ -17397,7 +17438,7 @@
       </c>
       <c r="R361" s="14"/>
     </row>
-    <row r="362" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>43009</v>
       </c>
@@ -17445,7 +17486,7 @@
       </c>
       <c r="R362" s="14"/>
     </row>
-    <row r="363" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>43009</v>
       </c>
@@ -17493,7 +17534,7 @@
       </c>
       <c r="R363" s="14"/>
     </row>
-    <row r="364" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>43009</v>
       </c>
@@ -17541,7 +17582,7 @@
       </c>
       <c r="R364" s="14"/>
     </row>
-    <row r="365" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>43009</v>
       </c>
@@ -17589,7 +17630,7 @@
       </c>
       <c r="R365" s="14"/>
     </row>
-    <row r="366" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>43040</v>
       </c>
@@ -17637,7 +17678,7 @@
       </c>
       <c r="R366" s="14"/>
     </row>
-    <row r="367" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>43040</v>
       </c>
@@ -17685,7 +17726,7 @@
       </c>
       <c r="R367" s="14"/>
     </row>
-    <row r="368" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>43040</v>
       </c>
@@ -17733,7 +17774,7 @@
       </c>
       <c r="R368" s="14"/>
     </row>
-    <row r="369" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>43040</v>
       </c>
@@ -17781,7 +17822,7 @@
       </c>
       <c r="R369" s="14"/>
     </row>
-    <row r="370" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>43040</v>
       </c>
@@ -17829,7 +17870,7 @@
       </c>
       <c r="R370" s="14"/>
     </row>
-    <row r="371" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>43040</v>
       </c>
@@ -17877,7 +17918,7 @@
       </c>
       <c r="R371" s="14"/>
     </row>
-    <row r="372" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>43070</v>
       </c>
@@ -17925,7 +17966,7 @@
       </c>
       <c r="R372" s="14"/>
     </row>
-    <row r="373" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>43070</v>
       </c>
@@ -17973,7 +18014,7 @@
       </c>
       <c r="R373" s="14"/>
     </row>
-    <row r="374" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>43070</v>
       </c>
@@ -18021,7 +18062,7 @@
       </c>
       <c r="R374" s="14"/>
     </row>
-    <row r="375" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>43070</v>
       </c>
@@ -18069,7 +18110,7 @@
       </c>
       <c r="R375" s="14"/>
     </row>
-    <row r="376" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>43070</v>
       </c>
@@ -18117,7 +18158,7 @@
       </c>
       <c r="R376" s="14"/>
     </row>
-    <row r="377" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>43070</v>
       </c>
@@ -18165,7 +18206,7 @@
       </c>
       <c r="R377" s="14"/>
     </row>
-    <row r="378" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>43101</v>
       </c>
@@ -18213,7 +18254,7 @@
       </c>
       <c r="R378" s="14"/>
     </row>
-    <row r="379" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>43101</v>
       </c>
@@ -18261,7 +18302,7 @@
       </c>
       <c r="R379" s="14"/>
     </row>
-    <row r="380" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>43101</v>
       </c>
@@ -18309,7 +18350,7 @@
       </c>
       <c r="R380" s="14"/>
     </row>
-    <row r="381" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>43101</v>
       </c>
@@ -18357,7 +18398,7 @@
       </c>
       <c r="R381" s="14"/>
     </row>
-    <row r="382" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>43101</v>
       </c>
@@ -18405,7 +18446,7 @@
       </c>
       <c r="R382" s="14"/>
     </row>
-    <row r="383" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>43101</v>
       </c>
@@ -18453,7 +18494,7 @@
       </c>
       <c r="R383" s="14"/>
     </row>
-    <row r="384" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>43132</v>
       </c>
@@ -18501,7 +18542,7 @@
       </c>
       <c r="R384" s="14"/>
     </row>
-    <row r="385" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>43132</v>
       </c>
@@ -18549,7 +18590,7 @@
       </c>
       <c r="R385" s="14"/>
     </row>
-    <row r="386" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>43132</v>
       </c>
@@ -18597,7 +18638,7 @@
       </c>
       <c r="R386" s="14"/>
     </row>
-    <row r="387" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>43132</v>
       </c>
@@ -18645,7 +18686,7 @@
       </c>
       <c r="R387" s="14"/>
     </row>
-    <row r="388" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
         <v>43132</v>
       </c>
@@ -18693,7 +18734,7 @@
       </c>
       <c r="R388" s="14"/>
     </row>
-    <row r="389" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
         <v>43132</v>
       </c>
@@ -18741,7 +18782,7 @@
       </c>
       <c r="R389" s="14"/>
     </row>
-    <row r="390" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>43160</v>
       </c>
@@ -18789,7 +18830,7 @@
       </c>
       <c r="R390" s="14"/>
     </row>
-    <row r="391" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>43160</v>
       </c>
@@ -18837,7 +18878,7 @@
       </c>
       <c r="R391" s="14"/>
     </row>
-    <row r="392" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>43160</v>
       </c>
@@ -18885,7 +18926,7 @@
       </c>
       <c r="R392" s="14"/>
     </row>
-    <row r="393" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
         <v>43160</v>
       </c>
@@ -18933,7 +18974,7 @@
       </c>
       <c r="R393" s="14"/>
     </row>
-    <row r="394" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>43160</v>
       </c>
@@ -18981,7 +19022,7 @@
       </c>
       <c r="R394" s="14"/>
     </row>
-    <row r="395" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
         <v>43160</v>
       </c>
@@ -19029,7 +19070,7 @@
       </c>
       <c r="R395" s="14"/>
     </row>
-    <row r="396" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
         <v>43191</v>
       </c>
@@ -19077,7 +19118,7 @@
       </c>
       <c r="R396" s="14"/>
     </row>
-    <row r="397" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
         <v>43191</v>
       </c>
@@ -19125,7 +19166,7 @@
       </c>
       <c r="R397" s="14"/>
     </row>
-    <row r="398" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
         <v>43191</v>
       </c>
@@ -19173,7 +19214,7 @@
       </c>
       <c r="R398" s="14"/>
     </row>
-    <row r="399" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>43191</v>
       </c>
@@ -19221,7 +19262,7 @@
       </c>
       <c r="R399" s="14"/>
     </row>
-    <row r="400" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>43191</v>
       </c>
@@ -19269,7 +19310,7 @@
       </c>
       <c r="R400" s="14"/>
     </row>
-    <row r="401" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
         <v>43191</v>
       </c>
@@ -19317,7 +19358,7 @@
       </c>
       <c r="R401" s="14"/>
     </row>
-    <row r="402" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
         <v>43221</v>
       </c>
@@ -19365,7 +19406,7 @@
       </c>
       <c r="R402" s="14"/>
     </row>
-    <row r="403" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
         <v>43221</v>
       </c>
@@ -19413,7 +19454,7 @@
       </c>
       <c r="R403" s="14"/>
     </row>
-    <row r="404" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
         <v>43221</v>
       </c>
@@ -19461,7 +19502,7 @@
       </c>
       <c r="R404" s="14"/>
     </row>
-    <row r="405" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
         <v>43221</v>
       </c>
@@ -19509,7 +19550,7 @@
       </c>
       <c r="R405" s="14"/>
     </row>
-    <row r="406" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
         <v>43221</v>
       </c>
@@ -19557,7 +19598,7 @@
       </c>
       <c r="R406" s="14"/>
     </row>
-    <row r="407" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
         <v>43221</v>
       </c>
@@ -19605,7 +19646,7 @@
       </c>
       <c r="R407" s="14"/>
     </row>
-    <row r="408" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
         <v>43252</v>
       </c>
@@ -19653,7 +19694,7 @@
       </c>
       <c r="R408" s="14"/>
     </row>
-    <row r="409" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>43252</v>
       </c>
@@ -19701,7 +19742,7 @@
       </c>
       <c r="R409" s="14"/>
     </row>
-    <row r="410" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
         <v>43252</v>
       </c>
@@ -19749,7 +19790,7 @@
       </c>
       <c r="R410" s="14"/>
     </row>
-    <row r="411" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
         <v>43252</v>
       </c>
@@ -19797,7 +19838,7 @@
       </c>
       <c r="R411" s="14"/>
     </row>
-    <row r="412" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
         <v>43252</v>
       </c>
@@ -19845,7 +19886,7 @@
       </c>
       <c r="R412" s="14"/>
     </row>
-    <row r="413" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
         <v>43252</v>
       </c>
@@ -19893,7 +19934,7 @@
       </c>
       <c r="R413" s="14"/>
     </row>
-    <row r="414" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
         <v>43282</v>
       </c>
@@ -19941,7 +19982,7 @@
       </c>
       <c r="R414" s="14"/>
     </row>
-    <row r="415" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
         <v>43282</v>
       </c>
@@ -19989,7 +20030,7 @@
       </c>
       <c r="R415" s="14"/>
     </row>
-    <row r="416" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
         <v>43282</v>
       </c>
@@ -20037,7 +20078,7 @@
       </c>
       <c r="R416" s="14"/>
     </row>
-    <row r="417" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
         <v>43282</v>
       </c>
@@ -20085,7 +20126,7 @@
       </c>
       <c r="R417" s="14"/>
     </row>
-    <row r="418" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A418" s="2">
         <v>43282</v>
       </c>
@@ -20133,7 +20174,7 @@
       </c>
       <c r="R418" s="14"/>
     </row>
-    <row r="419" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A419" s="2">
         <v>43282</v>
       </c>
@@ -20181,7 +20222,7 @@
       </c>
       <c r="R419" s="14"/>
     </row>
-    <row r="420" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A420" s="2">
         <v>43313</v>
       </c>
@@ -20229,7 +20270,7 @@
       </c>
       <c r="R420" s="14"/>
     </row>
-    <row r="421" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
         <v>43313</v>
       </c>
@@ -20277,7 +20318,7 @@
       </c>
       <c r="R421" s="14"/>
     </row>
-    <row r="422" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
         <v>43313</v>
       </c>
@@ -20325,7 +20366,7 @@
       </c>
       <c r="R422" s="14"/>
     </row>
-    <row r="423" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
         <v>43313</v>
       </c>
@@ -20373,7 +20414,7 @@
       </c>
       <c r="R423" s="14"/>
     </row>
-    <row r="424" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
         <v>43313</v>
       </c>
@@ -20421,7 +20462,7 @@
       </c>
       <c r="R424" s="14"/>
     </row>
-    <row r="425" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
         <v>43313</v>
       </c>
@@ -20469,7 +20510,7 @@
       </c>
       <c r="R425" s="14"/>
     </row>
-    <row r="426" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
         <v>43344</v>
       </c>
@@ -20517,7 +20558,7 @@
       </c>
       <c r="R426" s="14"/>
     </row>
-    <row r="427" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
         <v>43344</v>
       </c>
@@ -20565,7 +20606,7 @@
       </c>
       <c r="R427" s="14"/>
     </row>
-    <row r="428" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
         <v>43344</v>
       </c>
@@ -20613,7 +20654,7 @@
       </c>
       <c r="R428" s="14"/>
     </row>
-    <row r="429" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
         <v>43344</v>
       </c>
@@ -20661,7 +20702,7 @@
       </c>
       <c r="R429" s="14"/>
     </row>
-    <row r="430" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
         <v>43344</v>
       </c>
@@ -20709,7 +20750,7 @@
       </c>
       <c r="R430" s="14"/>
     </row>
-    <row r="431" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
         <v>43344</v>
       </c>
@@ -20757,7 +20798,7 @@
       </c>
       <c r="R431" s="14"/>
     </row>
-    <row r="432" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
         <v>43374</v>
       </c>
@@ -20805,7 +20846,7 @@
       </c>
       <c r="R432" s="14"/>
     </row>
-    <row r="433" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
         <v>43374</v>
       </c>
@@ -20853,7 +20894,7 @@
       </c>
       <c r="R433" s="14"/>
     </row>
-    <row r="434" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
         <v>43374</v>
       </c>
@@ -20901,7 +20942,7 @@
       </c>
       <c r="R434" s="14"/>
     </row>
-    <row r="435" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
         <v>43374</v>
       </c>
@@ -20949,7 +20990,7 @@
       </c>
       <c r="R435" s="14"/>
     </row>
-    <row r="436" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
         <v>43374</v>
       </c>
@@ -20997,7 +21038,7 @@
       </c>
       <c r="R436" s="14"/>
     </row>
-    <row r="437" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
         <v>43374</v>
       </c>
@@ -21045,7 +21086,7 @@
       </c>
       <c r="R437" s="14"/>
     </row>
-    <row r="438" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
         <v>43405</v>
       </c>
@@ -21093,7 +21134,7 @@
       </c>
       <c r="R438" s="14"/>
     </row>
-    <row r="439" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
         <v>43405</v>
       </c>
@@ -21141,7 +21182,7 @@
       </c>
       <c r="R439" s="14"/>
     </row>
-    <row r="440" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
         <v>43405</v>
       </c>
@@ -21189,7 +21230,7 @@
       </c>
       <c r="R440" s="14"/>
     </row>
-    <row r="441" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
         <v>43405</v>
       </c>
@@ -21237,7 +21278,7 @@
       </c>
       <c r="R441" s="14"/>
     </row>
-    <row r="442" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
         <v>43405</v>
       </c>
@@ -21285,7 +21326,7 @@
       </c>
       <c r="R442" s="14"/>
     </row>
-    <row r="443" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
         <v>43405</v>
       </c>
@@ -21333,7 +21374,7 @@
       </c>
       <c r="R443" s="14"/>
     </row>
-    <row r="444" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
         <v>43435</v>
       </c>
@@ -21381,7 +21422,7 @@
       </c>
       <c r="R444" s="14"/>
     </row>
-    <row r="445" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
         <v>43435</v>
       </c>
@@ -21429,7 +21470,7 @@
       </c>
       <c r="R445" s="14"/>
     </row>
-    <row r="446" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
         <v>43435</v>
       </c>
@@ -21477,7 +21518,7 @@
       </c>
       <c r="R446" s="14"/>
     </row>
-    <row r="447" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
         <v>43435</v>
       </c>
@@ -21525,7 +21566,7 @@
       </c>
       <c r="R447" s="14"/>
     </row>
-    <row r="448" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A448" s="2">
         <v>43435</v>
       </c>
@@ -21573,7 +21614,7 @@
       </c>
       <c r="R448" s="14"/>
     </row>
-    <row r="449" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
         <v>43435</v>
       </c>
@@ -21621,7 +21662,7 @@
       </c>
       <c r="R449" s="14"/>
     </row>
-    <row r="450" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A450" s="12">
         <v>43466</v>
       </c>
@@ -21669,7 +21710,7 @@
       </c>
       <c r="R450" s="14"/>
     </row>
-    <row r="451" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A451" s="12">
         <v>43466</v>
       </c>
@@ -21717,7 +21758,7 @@
       </c>
       <c r="R451" s="14"/>
     </row>
-    <row r="452" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A452" s="12">
         <v>43466</v>
       </c>
@@ -21765,7 +21806,7 @@
       </c>
       <c r="R452" s="14"/>
     </row>
-    <row r="453" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A453" s="12">
         <v>43466</v>
       </c>
@@ -21813,7 +21854,7 @@
       </c>
       <c r="R453" s="14"/>
     </row>
-    <row r="454" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A454" s="12">
         <v>43466</v>
       </c>
@@ -21861,7 +21902,7 @@
       </c>
       <c r="R454" s="14"/>
     </row>
-    <row r="455" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A455" s="12">
         <v>43466</v>
       </c>
@@ -21909,7 +21950,7 @@
       </c>
       <c r="R455" s="14"/>
     </row>
-    <row r="456" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A456" s="12">
         <v>43497</v>
       </c>
@@ -21957,7 +21998,7 @@
       </c>
       <c r="R456" s="14"/>
     </row>
-    <row r="457" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A457" s="12">
         <v>43497</v>
       </c>
@@ -22005,7 +22046,7 @@
       </c>
       <c r="R457" s="14"/>
     </row>
-    <row r="458" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A458" s="12">
         <v>43497</v>
       </c>
@@ -22053,7 +22094,7 @@
       </c>
       <c r="R458" s="14"/>
     </row>
-    <row r="459" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A459" s="12">
         <v>43497</v>
       </c>
@@ -22101,7 +22142,7 @@
       </c>
       <c r="R459" s="14"/>
     </row>
-    <row r="460" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A460" s="12">
         <v>43497</v>
       </c>
@@ -22149,7 +22190,7 @@
       </c>
       <c r="R460" s="14"/>
     </row>
-    <row r="461" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A461" s="12">
         <v>43497</v>
       </c>
@@ -22197,7 +22238,7 @@
       </c>
       <c r="R461" s="14"/>
     </row>
-    <row r="462" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A462" s="12">
         <v>43525</v>
       </c>
@@ -22245,7 +22286,7 @@
       </c>
       <c r="R462" s="14"/>
     </row>
-    <row r="463" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A463" s="12">
         <v>43525</v>
       </c>
@@ -22293,7 +22334,7 @@
       </c>
       <c r="R463" s="14"/>
     </row>
-    <row r="464" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A464" s="12">
         <v>43525</v>
       </c>
@@ -22341,7 +22382,7 @@
       </c>
       <c r="R464" s="14"/>
     </row>
-    <row r="465" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A465" s="12">
         <v>43525</v>
       </c>
@@ -22389,7 +22430,7 @@
       </c>
       <c r="R465" s="14"/>
     </row>
-    <row r="466" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A466" s="12">
         <v>43525</v>
       </c>
@@ -22437,7 +22478,7 @@
       </c>
       <c r="R466" s="14"/>
     </row>
-    <row r="467" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A467" s="12">
         <v>43525</v>
       </c>
@@ -22485,7 +22526,7 @@
       </c>
       <c r="R467" s="14"/>
     </row>
-    <row r="468" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A468" s="12">
         <v>43556</v>
       </c>
@@ -22533,7 +22574,7 @@
       </c>
       <c r="R468" s="14"/>
     </row>
-    <row r="469" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A469" s="12">
         <v>43556</v>
       </c>
@@ -22581,7 +22622,7 @@
       </c>
       <c r="R469" s="14"/>
     </row>
-    <row r="470" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A470" s="12">
         <v>43556</v>
       </c>
@@ -22629,7 +22670,7 @@
       </c>
       <c r="R470" s="14"/>
     </row>
-    <row r="471" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A471" s="12">
         <v>43556</v>
       </c>
@@ -22677,7 +22718,7 @@
       </c>
       <c r="R471" s="14"/>
     </row>
-    <row r="472" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A472" s="12">
         <v>43556</v>
       </c>
@@ -22725,7 +22766,7 @@
       </c>
       <c r="R472" s="14"/>
     </row>
-    <row r="473" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A473" s="12">
         <v>43556</v>
       </c>
@@ -22773,7 +22814,7 @@
       </c>
       <c r="R473" s="14"/>
     </row>
-    <row r="474" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A474" s="12">
         <v>43586</v>
       </c>
@@ -22821,7 +22862,7 @@
       </c>
       <c r="R474" s="14"/>
     </row>
-    <row r="475" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A475" s="12">
         <v>43586</v>
       </c>
@@ -22869,7 +22910,7 @@
       </c>
       <c r="R475" s="14"/>
     </row>
-    <row r="476" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A476" s="12">
         <v>43586</v>
       </c>
@@ -22917,7 +22958,7 @@
       </c>
       <c r="R476" s="14"/>
     </row>
-    <row r="477" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A477" s="12">
         <v>43586</v>
       </c>
@@ -22965,7 +23006,7 @@
       </c>
       <c r="R477" s="14"/>
     </row>
-    <row r="478" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A478" s="12">
         <v>43586</v>
       </c>
@@ -23013,7 +23054,7 @@
       </c>
       <c r="R478" s="14"/>
     </row>
-    <row r="479" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A479" s="12">
         <v>43586</v>
       </c>
@@ -23061,7 +23102,7 @@
       </c>
       <c r="R479" s="14"/>
     </row>
-    <row r="480" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A480" s="12">
         <v>43617</v>
       </c>
@@ -23109,7 +23150,7 @@
       </c>
       <c r="R480" s="14"/>
     </row>
-    <row r="481" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A481" s="12">
         <v>43617</v>
       </c>
@@ -23157,7 +23198,7 @@
       </c>
       <c r="R481" s="14"/>
     </row>
-    <row r="482" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A482" s="12">
         <v>43617</v>
       </c>
@@ -23205,7 +23246,7 @@
       </c>
       <c r="R482" s="14"/>
     </row>
-    <row r="483" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A483" s="12">
         <v>43617</v>
       </c>
@@ -23253,7 +23294,7 @@
       </c>
       <c r="R483" s="14"/>
     </row>
-    <row r="484" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A484" s="12">
         <v>43617</v>
       </c>
@@ -23301,7 +23342,7 @@
       </c>
       <c r="R484" s="14"/>
     </row>
-    <row r="485" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A485" s="12">
         <v>43617</v>
       </c>
@@ -23349,7 +23390,7 @@
       </c>
       <c r="R485" s="14"/>
     </row>
-    <row r="486" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A486" s="12">
         <v>43647</v>
       </c>
@@ -23397,7 +23438,7 @@
       </c>
       <c r="R486" s="14"/>
     </row>
-    <row r="487" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A487" s="12">
         <v>43647</v>
       </c>
@@ -23445,7 +23486,7 @@
       </c>
       <c r="R487" s="14"/>
     </row>
-    <row r="488" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A488" s="12">
         <v>43647</v>
       </c>
@@ -23493,7 +23534,7 @@
       </c>
       <c r="R488" s="14"/>
     </row>
-    <row r="489" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A489" s="12">
         <v>43647</v>
       </c>
@@ -23541,7 +23582,7 @@
       </c>
       <c r="R489" s="14"/>
     </row>
-    <row r="490" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A490" s="12">
         <v>43647</v>
       </c>
@@ -23589,7 +23630,7 @@
       </c>
       <c r="R490" s="14"/>
     </row>
-    <row r="491" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A491" s="12">
         <v>43647</v>
       </c>
@@ -23637,7 +23678,7 @@
       </c>
       <c r="R491" s="14"/>
     </row>
-    <row r="492" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A492" s="12">
         <v>43678</v>
       </c>
@@ -23685,7 +23726,7 @@
       </c>
       <c r="R492" s="14"/>
     </row>
-    <row r="493" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A493" s="12">
         <v>43678</v>
       </c>
@@ -23733,7 +23774,7 @@
       </c>
       <c r="R493" s="14"/>
     </row>
-    <row r="494" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A494" s="12">
         <v>43678</v>
       </c>
@@ -23781,7 +23822,7 @@
       </c>
       <c r="R494" s="14"/>
     </row>
-    <row r="495" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A495" s="12">
         <v>43678</v>
       </c>
@@ -23829,7 +23870,7 @@
       </c>
       <c r="R495" s="14"/>
     </row>
-    <row r="496" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A496" s="12">
         <v>43678</v>
       </c>
@@ -23877,7 +23918,7 @@
       </c>
       <c r="R496" s="14"/>
     </row>
-    <row r="497" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A497" s="12">
         <v>43678</v>
       </c>
@@ -23925,7 +23966,7 @@
       </c>
       <c r="R497" s="14"/>
     </row>
-    <row r="498" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A498" s="12">
         <v>43709</v>
       </c>
@@ -23973,7 +24014,7 @@
       </c>
       <c r="R498" s="14"/>
     </row>
-    <row r="499" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A499" s="12">
         <v>43709</v>
       </c>
@@ -24021,7 +24062,7 @@
       </c>
       <c r="R499" s="14"/>
     </row>
-    <row r="500" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A500" s="12">
         <v>43709</v>
       </c>
@@ -24069,7 +24110,7 @@
       </c>
       <c r="R500" s="14"/>
     </row>
-    <row r="501" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A501" s="12">
         <v>43709</v>
       </c>
@@ -24117,7 +24158,7 @@
       </c>
       <c r="R501" s="14"/>
     </row>
-    <row r="502" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A502" s="12">
         <v>43709</v>
       </c>
@@ -24165,7 +24206,7 @@
       </c>
       <c r="R502" s="14"/>
     </row>
-    <row r="503" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A503" s="12">
         <v>43709</v>
       </c>
@@ -24213,7 +24254,7 @@
       </c>
       <c r="R503" s="14"/>
     </row>
-    <row r="504" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A504" s="12">
         <v>43739</v>
       </c>
@@ -24261,7 +24302,7 @@
       </c>
       <c r="R504" s="14"/>
     </row>
-    <row r="505" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A505" s="12">
         <v>43739</v>
       </c>
@@ -24309,7 +24350,7 @@
       </c>
       <c r="R505" s="14"/>
     </row>
-    <row r="506" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A506" s="12">
         <v>43739</v>
       </c>
@@ -24357,7 +24398,7 @@
       </c>
       <c r="R506" s="14"/>
     </row>
-    <row r="507" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A507" s="12">
         <v>43739</v>
       </c>
@@ -24405,7 +24446,7 @@
       </c>
       <c r="R507" s="14"/>
     </row>
-    <row r="508" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A508" s="12">
         <v>43739</v>
       </c>
@@ -24453,7 +24494,7 @@
       </c>
       <c r="R508" s="14"/>
     </row>
-    <row r="509" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A509" s="12">
         <v>43739</v>
       </c>
@@ -24501,7 +24542,7 @@
       </c>
       <c r="R509" s="14"/>
     </row>
-    <row r="510" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A510" s="12">
         <v>43770</v>
       </c>
@@ -24549,7 +24590,7 @@
       </c>
       <c r="R510" s="14"/>
     </row>
-    <row r="511" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A511" s="12">
         <v>43770</v>
       </c>
@@ -24597,7 +24638,7 @@
       </c>
       <c r="R511" s="14"/>
     </row>
-    <row r="512" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A512" s="12">
         <v>43770</v>
       </c>
@@ -24645,7 +24686,7 @@
       </c>
       <c r="R512" s="14"/>
     </row>
-    <row r="513" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A513" s="12">
         <v>43770</v>
       </c>
@@ -24693,7 +24734,7 @@
       </c>
       <c r="R513" s="14"/>
     </row>
-    <row r="514" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A514" s="12">
         <v>43770</v>
       </c>
@@ -24741,7 +24782,7 @@
       </c>
       <c r="R514" s="14"/>
     </row>
-    <row r="515" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A515" s="12">
         <v>43770</v>
       </c>
@@ -24789,7 +24830,7 @@
       </c>
       <c r="R515" s="14"/>
     </row>
-    <row r="516" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A516" s="12">
         <v>43800</v>
       </c>
@@ -24837,7 +24878,7 @@
       </c>
       <c r="R516" s="14"/>
     </row>
-    <row r="517" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A517" s="12">
         <v>43800</v>
       </c>
@@ -24885,7 +24926,7 @@
       </c>
       <c r="R517" s="14"/>
     </row>
-    <row r="518" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A518" s="12">
         <v>43800</v>
       </c>
@@ -24933,7 +24974,7 @@
       </c>
       <c r="R518" s="14"/>
     </row>
-    <row r="519" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A519" s="12">
         <v>43800</v>
       </c>
@@ -24981,7 +25022,7 @@
       </c>
       <c r="R519" s="14"/>
     </row>
-    <row r="520" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A520" s="12">
         <v>43800</v>
       </c>
@@ -25029,7 +25070,7 @@
       </c>
       <c r="R520" s="14"/>
     </row>
-    <row r="521" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A521" s="12">
         <v>43800</v>
       </c>
@@ -25077,7 +25118,7 @@
       </c>
       <c r="R521" s="14"/>
     </row>
-    <row r="522" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A522" s="12">
         <v>43831</v>
       </c>
@@ -25125,7 +25166,7 @@
       </c>
       <c r="R522" s="14"/>
     </row>
-    <row r="523" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A523" s="12">
         <v>43831</v>
       </c>
@@ -25173,7 +25214,7 @@
       </c>
       <c r="R523" s="14"/>
     </row>
-    <row r="524" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A524" s="12">
         <v>43831</v>
       </c>
@@ -25221,7 +25262,7 @@
       </c>
       <c r="R524" s="14"/>
     </row>
-    <row r="525" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A525" s="12">
         <v>43831</v>
       </c>
@@ -25269,7 +25310,7 @@
       </c>
       <c r="R525" s="14"/>
     </row>
-    <row r="526" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A526" s="12">
         <v>43831</v>
       </c>
@@ -25317,7 +25358,7 @@
       </c>
       <c r="R526" s="14"/>
     </row>
-    <row r="527" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A527" s="12">
         <v>43831</v>
       </c>
@@ -25365,7 +25406,7 @@
       </c>
       <c r="R527" s="14"/>
     </row>
-    <row r="528" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A528" s="12">
         <v>43862</v>
       </c>
@@ -25413,7 +25454,7 @@
       </c>
       <c r="R528" s="14"/>
     </row>
-    <row r="529" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A529" s="12">
         <v>43862</v>
       </c>
@@ -25461,7 +25502,7 @@
       </c>
       <c r="R529" s="14"/>
     </row>
-    <row r="530" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A530" s="12">
         <v>43862</v>
       </c>
@@ -25509,7 +25550,7 @@
       </c>
       <c r="R530" s="14"/>
     </row>
-    <row r="531" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A531" s="12">
         <v>43862</v>
       </c>
@@ -25557,7 +25598,7 @@
       </c>
       <c r="R531" s="14"/>
     </row>
-    <row r="532" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A532" s="12">
         <v>43862</v>
       </c>
@@ -25605,7 +25646,7 @@
       </c>
       <c r="R532" s="14"/>
     </row>
-    <row r="533" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A533" s="12">
         <v>43862</v>
       </c>
@@ -25653,7 +25694,7 @@
       </c>
       <c r="R533" s="14"/>
     </row>
-    <row r="534" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A534" s="12">
         <v>43891</v>
       </c>
@@ -25701,7 +25742,7 @@
       </c>
       <c r="R534" s="14"/>
     </row>
-    <row r="535" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A535" s="12">
         <v>43891</v>
       </c>
@@ -25749,7 +25790,7 @@
       </c>
       <c r="R535" s="14"/>
     </row>
-    <row r="536" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A536" s="12">
         <v>43891</v>
       </c>
@@ -25797,7 +25838,7 @@
       </c>
       <c r="R536" s="14"/>
     </row>
-    <row r="537" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A537" s="12">
         <v>43891</v>
       </c>
@@ -25845,7 +25886,7 @@
       </c>
       <c r="R537" s="14"/>
     </row>
-    <row r="538" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A538" s="12">
         <v>43891</v>
       </c>
@@ -25893,7 +25934,7 @@
       </c>
       <c r="R538" s="14"/>
     </row>
-    <row r="539" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A539" s="12">
         <v>43891</v>
       </c>
@@ -25941,7 +25982,7 @@
       </c>
       <c r="R539" s="14"/>
     </row>
-    <row r="540" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A540" s="12">
         <v>43922</v>
       </c>
@@ -25989,7 +26030,7 @@
       </c>
       <c r="R540" s="14"/>
     </row>
-    <row r="541" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A541" s="12">
         <v>43922</v>
       </c>
@@ -26037,7 +26078,7 @@
       </c>
       <c r="R541" s="14"/>
     </row>
-    <row r="542" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A542" s="12">
         <v>43922</v>
       </c>
@@ -26085,7 +26126,7 @@
       </c>
       <c r="R542" s="14"/>
     </row>
-    <row r="543" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A543" s="12">
         <v>43922</v>
       </c>
@@ -26133,7 +26174,7 @@
       </c>
       <c r="R543" s="14"/>
     </row>
-    <row r="544" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A544" s="12">
         <v>43922</v>
       </c>
@@ -26181,7 +26222,7 @@
       </c>
       <c r="R544" s="14"/>
     </row>
-    <row r="545" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A545" s="12">
         <v>43922</v>
       </c>
@@ -26229,7 +26270,7 @@
       </c>
       <c r="R545" s="14"/>
     </row>
-    <row r="546" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A546" s="12">
         <v>43952</v>
       </c>
@@ -26277,7 +26318,7 @@
       </c>
       <c r="R546" s="14"/>
     </row>
-    <row r="547" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A547" s="12">
         <v>43952</v>
       </c>
@@ -26325,7 +26366,7 @@
       </c>
       <c r="R547" s="14"/>
     </row>
-    <row r="548" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A548" s="12">
         <v>43952</v>
       </c>
@@ -26373,7 +26414,7 @@
       </c>
       <c r="R548" s="14"/>
     </row>
-    <row r="549" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A549" s="12">
         <v>43952</v>
       </c>
@@ -26421,7 +26462,7 @@
       </c>
       <c r="R549" s="14"/>
     </row>
-    <row r="550" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A550" s="12">
         <v>43952</v>
       </c>
@@ -26469,7 +26510,7 @@
       </c>
       <c r="R550" s="14"/>
     </row>
-    <row r="551" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A551" s="12">
         <v>43952</v>
       </c>
@@ -26517,7 +26558,7 @@
       </c>
       <c r="R551" s="14"/>
     </row>
-    <row r="552" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A552" s="12">
         <v>43983</v>
       </c>
@@ -26565,7 +26606,7 @@
       </c>
       <c r="R552" s="14"/>
     </row>
-    <row r="553" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A553" s="12">
         <v>43983</v>
       </c>
@@ -26613,7 +26654,7 @@
       </c>
       <c r="R553" s="14"/>
     </row>
-    <row r="554" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A554" s="12">
         <v>43983</v>
       </c>
@@ -26661,7 +26702,7 @@
       </c>
       <c r="R554" s="14"/>
     </row>
-    <row r="555" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A555" s="12">
         <v>43983</v>
       </c>
@@ -26709,7 +26750,7 @@
       </c>
       <c r="R555" s="14"/>
     </row>
-    <row r="556" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A556" s="12">
         <v>43983</v>
       </c>
@@ -26757,7 +26798,7 @@
       </c>
       <c r="R556" s="14"/>
     </row>
-    <row r="557" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A557" s="12">
         <v>43983</v>
       </c>
@@ -26805,7 +26846,7 @@
       </c>
       <c r="R557" s="14"/>
     </row>
-    <row r="558" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A558" s="12">
         <v>44013</v>
       </c>
@@ -26853,7 +26894,7 @@
       </c>
       <c r="R558" s="14"/>
     </row>
-    <row r="559" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A559" s="12">
         <v>44013</v>
       </c>
@@ -26901,7 +26942,7 @@
       </c>
       <c r="R559" s="14"/>
     </row>
-    <row r="560" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A560" s="12">
         <v>44013</v>
       </c>
@@ -26949,7 +26990,7 @@
       </c>
       <c r="R560" s="14"/>
     </row>
-    <row r="561" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A561" s="12">
         <v>44013</v>
       </c>
@@ -26997,7 +27038,7 @@
       </c>
       <c r="R561" s="14"/>
     </row>
-    <row r="562" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A562" s="12">
         <v>44013</v>
       </c>
@@ -27045,7 +27086,7 @@
       </c>
       <c r="R562" s="14"/>
     </row>
-    <row r="563" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A563" s="12">
         <v>44013</v>
       </c>
@@ -27093,7 +27134,7 @@
       </c>
       <c r="R563" s="14"/>
     </row>
-    <row r="564" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A564" s="12">
         <v>44044</v>
       </c>
@@ -27141,7 +27182,7 @@
       </c>
       <c r="R564" s="14"/>
     </row>
-    <row r="565" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A565" s="12">
         <v>44044</v>
       </c>
@@ -27189,7 +27230,7 @@
       </c>
       <c r="R565" s="14"/>
     </row>
-    <row r="566" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A566" s="12">
         <v>44044</v>
       </c>
@@ -27237,7 +27278,7 @@
       </c>
       <c r="R566" s="14"/>
     </row>
-    <row r="567" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A567" s="12">
         <v>44044</v>
       </c>
@@ -27285,7 +27326,7 @@
       </c>
       <c r="R567" s="14"/>
     </row>
-    <row r="568" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A568" s="12">
         <v>44044</v>
       </c>
@@ -27333,7 +27374,7 @@
       </c>
       <c r="R568" s="14"/>
     </row>
-    <row r="569" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A569" s="12">
         <v>44044</v>
       </c>
@@ -27381,7 +27422,7 @@
       </c>
       <c r="R569" s="14"/>
     </row>
-    <row r="570" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A570" s="12">
         <v>44105</v>
       </c>
@@ -27429,7 +27470,7 @@
       </c>
       <c r="R570" s="14"/>
     </row>
-    <row r="571" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A571" s="12">
         <v>44105</v>
       </c>
@@ -27477,7 +27518,7 @@
       </c>
       <c r="R571" s="14"/>
     </row>
-    <row r="572" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A572" s="12">
         <v>44105</v>
       </c>
@@ -27525,7 +27566,7 @@
       </c>
       <c r="R572" s="14"/>
     </row>
-    <row r="573" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A573" s="12">
         <v>44105</v>
       </c>
@@ -27573,7 +27614,7 @@
       </c>
       <c r="R573" s="14"/>
     </row>
-    <row r="574" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A574" s="12">
         <v>44105</v>
       </c>
@@ -27621,7 +27662,7 @@
       </c>
       <c r="R574" s="14"/>
     </row>
-    <row r="575" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A575" s="12">
         <v>44105</v>
       </c>
@@ -27669,7 +27710,7 @@
       </c>
       <c r="R575" s="14"/>
     </row>
-    <row r="576" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A576" s="12">
         <v>44105</v>
       </c>
@@ -27717,7 +27758,7 @@
       </c>
       <c r="R576" s="14"/>
     </row>
-    <row r="577" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A577" s="12">
         <v>44136</v>
       </c>
@@ -27765,7 +27806,7 @@
       </c>
       <c r="R577" s="14"/>
     </row>
-    <row r="578" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A578" s="12">
         <v>44136</v>
       </c>
@@ -27813,7 +27854,7 @@
       </c>
       <c r="R578" s="14"/>
     </row>
-    <row r="579" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A579" s="12">
         <v>44136</v>
       </c>
@@ -27861,7 +27902,7 @@
       </c>
       <c r="R579" s="14"/>
     </row>
-    <row r="580" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A580" s="12">
         <v>44136</v>
       </c>
@@ -27909,7 +27950,7 @@
       </c>
       <c r="R580" s="14"/>
     </row>
-    <row r="581" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A581" s="12">
         <v>44136</v>
       </c>
@@ -27957,7 +27998,7 @@
       </c>
       <c r="R581" s="14"/>
     </row>
-    <row r="582" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A582" s="12">
         <v>44136</v>
       </c>
@@ -28005,7 +28046,7 @@
       </c>
       <c r="R582" s="14"/>
     </row>
-    <row r="583" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A583" s="12">
         <v>44136</v>
       </c>
@@ -28053,7 +28094,7 @@
       </c>
       <c r="R583" s="14"/>
     </row>
-    <row r="584" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A584" s="12">
         <v>44166</v>
       </c>
@@ -28101,7 +28142,7 @@
       </c>
       <c r="R584" s="14"/>
     </row>
-    <row r="585" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A585" s="12">
         <v>44166</v>
       </c>
@@ -28149,7 +28190,7 @@
       </c>
       <c r="R585" s="14"/>
     </row>
-    <row r="586" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A586" s="12">
         <v>44166</v>
       </c>
@@ -28197,7 +28238,7 @@
       </c>
       <c r="R586" s="14"/>
     </row>
-    <row r="587" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A587" s="12">
         <v>44166</v>
       </c>
@@ -28245,7 +28286,7 @@
       </c>
       <c r="R587" s="14"/>
     </row>
-    <row r="588" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A588" s="12">
         <v>44166</v>
       </c>
@@ -28293,7 +28334,7 @@
       </c>
       <c r="R588" s="14"/>
     </row>
-    <row r="589" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A589" s="12">
         <v>44166</v>
       </c>
@@ -28341,7 +28382,7 @@
       </c>
       <c r="R589" s="14"/>
     </row>
-    <row r="590" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A590" s="12">
         <v>44166</v>
       </c>
@@ -28389,7 +28430,7 @@
       </c>
       <c r="R590" s="14"/>
     </row>
-    <row r="591" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A591" s="12">
         <v>44197</v>
       </c>
@@ -28436,7 +28477,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="592" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A592" s="12">
         <v>44197</v>
       </c>
@@ -28483,7 +28524,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="593" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A593" s="12">
         <v>44197</v>
       </c>
@@ -28530,7 +28571,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="594" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A594" s="12">
         <v>44197</v>
       </c>
@@ -28577,7 +28618,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="595" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A595" s="12">
         <v>44197</v>
       </c>
@@ -28624,7 +28665,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="596" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A596" s="12">
         <v>44197</v>
       </c>
@@ -28671,7 +28712,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="597" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A597" s="12">
         <v>44197</v>
       </c>
@@ -28718,7 +28759,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="598" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A598" s="12">
         <v>44228</v>
       </c>
@@ -28765,7 +28806,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="599" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A599" s="12">
         <v>44228</v>
       </c>
@@ -28812,7 +28853,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="600" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A600" s="12">
         <v>44228</v>
       </c>
@@ -28859,7 +28900,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="601" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A601" s="12">
         <v>44228</v>
       </c>
@@ -28906,7 +28947,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="602" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A602" s="12">
         <v>44228</v>
       </c>
@@ -28953,7 +28994,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="603" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A603" s="12">
         <v>44228</v>
       </c>
@@ -29000,7 +29041,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="604" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A604" s="12">
         <v>44228</v>
       </c>
@@ -29047,7 +29088,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="605" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A605" s="12">
         <v>44256</v>
       </c>
@@ -29094,7 +29135,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="606" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A606" s="12">
         <v>44256</v>
       </c>
@@ -29141,7 +29182,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="607" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A607" s="12">
         <v>44256</v>
       </c>
@@ -29188,7 +29229,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="608" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A608" s="12">
         <v>44256</v>
       </c>
@@ -29235,7 +29276,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="609" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A609" s="12">
         <v>44256</v>
       </c>
@@ -29282,7 +29323,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="610" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A610" s="12">
         <v>44256</v>
       </c>
@@ -29329,7 +29370,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="611" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A611" s="12">
         <v>44256</v>
       </c>
@@ -29376,7 +29417,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="612" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A612" s="12">
         <v>44287</v>
       </c>
@@ -29423,7 +29464,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="613" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A613" s="12">
         <v>44287</v>
       </c>
@@ -29470,7 +29511,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="614" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A614" s="12">
         <v>44287</v>
       </c>
@@ -29517,7 +29558,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="615" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A615" s="12">
         <v>44287</v>
       </c>
@@ -29564,7 +29605,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="616" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A616" s="12">
         <v>44287</v>
       </c>
@@ -29611,7 +29652,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="617" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A617" s="12">
         <v>44287</v>
       </c>
@@ -29658,7 +29699,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="618" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A618" s="12">
         <v>44287</v>
       </c>
@@ -29705,7 +29746,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="619" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A619" s="12">
         <v>44317</v>
       </c>
@@ -29752,7 +29793,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="620" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A620" s="12">
         <v>44317</v>
       </c>
@@ -29799,7 +29840,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="621" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A621" s="12">
         <v>44317</v>
       </c>
@@ -29846,7 +29887,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="622" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A622" s="12">
         <v>44317</v>
       </c>
@@ -29893,7 +29934,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="623" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A623" s="12">
         <v>44317</v>
       </c>
@@ -29940,7 +29981,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="624" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A624" s="12">
         <v>44317</v>
       </c>
@@ -29987,7 +30028,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="625" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A625" s="12">
         <v>44317</v>
       </c>
@@ -30034,7 +30075,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="626" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A626" s="12">
         <v>44348</v>
       </c>
@@ -30081,7 +30122,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="627" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A627" s="12">
         <v>44348</v>
       </c>
@@ -30128,7 +30169,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="628" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A628" s="12">
         <v>44348</v>
       </c>
@@ -30175,7 +30216,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="629" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A629" s="12">
         <v>44348</v>
       </c>
@@ -30222,7 +30263,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="630" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A630" s="12">
         <v>44348</v>
       </c>
@@ -30269,7 +30310,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="631" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A631" s="12">
         <v>44348</v>
       </c>
@@ -30316,7 +30357,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="632" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A632" s="12">
         <v>44348</v>
       </c>
@@ -30363,7 +30404,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="633" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A633" s="12">
         <v>44378</v>
       </c>
@@ -30410,7 +30451,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="634" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A634" s="12">
         <v>44378</v>
       </c>
@@ -30457,7 +30498,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="635" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A635" s="12">
         <v>44378</v>
       </c>
@@ -30504,7 +30545,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="636" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A636" s="12">
         <v>44378</v>
       </c>
@@ -30551,7 +30592,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="637" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A637" s="12">
         <v>44378</v>
       </c>
@@ -30598,7 +30639,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="638" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A638" s="12">
         <v>44378</v>
       </c>
@@ -30645,7 +30686,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="639" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A639" s="12">
         <v>44378</v>
       </c>
@@ -30692,7 +30733,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="640" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A640" s="12">
         <v>44409</v>
       </c>
@@ -30739,7 +30780,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="641" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A641" s="12">
         <v>44409</v>
       </c>
@@ -30786,7 +30827,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="642" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A642" s="12">
         <v>44409</v>
       </c>
@@ -30833,7 +30874,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="643" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A643" s="12">
         <v>44409</v>
       </c>
@@ -30880,7 +30921,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="644" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A644" s="12">
         <v>44409</v>
       </c>
@@ -30927,7 +30968,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="645" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A645" s="12">
         <v>44409</v>
       </c>
@@ -30974,7 +31015,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="646" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A646" s="12">
         <v>44409</v>
       </c>
@@ -31021,7 +31062,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="647" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A647" s="12">
         <v>44440</v>
       </c>
@@ -31068,7 +31109,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="648" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A648" s="12">
         <v>44440</v>
       </c>
@@ -31115,7 +31156,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="649" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A649" s="12">
         <v>44440</v>
       </c>
@@ -31162,7 +31203,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="650" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A650" s="12">
         <v>44440</v>
       </c>
@@ -31209,7 +31250,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="651" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A651" s="12">
         <v>44440</v>
       </c>
@@ -31256,7 +31297,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="652" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A652" s="12">
         <v>44440</v>
       </c>
@@ -31303,7 +31344,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="653" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A653" s="12">
         <v>44440</v>
       </c>
@@ -31350,7 +31391,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="654" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A654" s="12">
         <v>44470</v>
       </c>
@@ -31397,7 +31438,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="655" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A655" s="12">
         <v>44470</v>
       </c>
@@ -31444,7 +31485,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="656" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A656" s="12">
         <v>44470</v>
       </c>
@@ -31491,7 +31532,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="657" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A657" s="12">
         <v>44470</v>
       </c>
@@ -31538,7 +31579,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="658" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A658" s="12">
         <v>44470</v>
       </c>
@@ -31585,7 +31626,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="659" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A659" s="12">
         <v>44470</v>
       </c>
@@ -31632,7 +31673,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="660" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A660" s="12">
         <v>44470</v>
       </c>
@@ -31679,7 +31720,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="661" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A661" s="12">
         <v>44501</v>
       </c>
@@ -31726,7 +31767,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="662" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A662" s="12">
         <v>44501</v>
       </c>
@@ -31773,7 +31814,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="663" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A663" s="12">
         <v>44501</v>
       </c>
@@ -31820,7 +31861,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="664" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A664" s="12">
         <v>44501</v>
       </c>
@@ -31867,7 +31908,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="665" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A665" s="12">
         <v>44501</v>
       </c>
@@ -31914,7 +31955,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="666" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A666" s="12">
         <v>44501</v>
       </c>
@@ -31961,7 +32002,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="667" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A667" s="12">
         <v>44501</v>
       </c>
@@ -32008,7 +32049,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="668" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A668" s="12">
         <v>44531</v>
       </c>
@@ -32055,7 +32096,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="669" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A669" s="12">
         <v>44531</v>
       </c>
@@ -32102,7 +32143,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="670" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A670" s="12">
         <v>44531</v>
       </c>
@@ -32149,7 +32190,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="671" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A671" s="12">
         <v>44531</v>
       </c>
@@ -32196,7 +32237,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="672" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A672" s="12">
         <v>44531</v>
       </c>
@@ -32243,7 +32284,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="673" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A673" s="12">
         <v>44531</v>
       </c>
@@ -32290,7 +32331,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="674" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A674" s="12">
         <v>44531</v>
       </c>
@@ -32337,7 +32378,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="675" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A675" s="12">
         <v>44562</v>
       </c>
@@ -32384,7 +32425,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="676" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A676" s="12">
         <v>44562</v>
       </c>
@@ -32431,7 +32472,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="677" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A677" s="12">
         <v>44562</v>
       </c>
@@ -32478,7 +32519,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="678" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A678" s="12">
         <v>44562</v>
       </c>
@@ -32525,7 +32566,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="679" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A679" s="12">
         <v>44562</v>
       </c>
@@ -32572,7 +32613,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="680" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A680" s="12">
         <v>44562</v>
       </c>
@@ -32619,7 +32660,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="681" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A681" s="12">
         <v>44562</v>
       </c>
@@ -32666,7 +32707,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="682" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A682" s="12">
         <v>44593</v>
       </c>
@@ -32713,7 +32754,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="683" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A683" s="12">
         <v>44593</v>
       </c>
@@ -32760,7 +32801,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="684" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A684" s="12">
         <v>44593</v>
       </c>
@@ -32807,7 +32848,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="685" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A685" s="12">
         <v>44593</v>
       </c>
@@ -32854,7 +32895,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="686" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A686" s="12">
         <v>44593</v>
       </c>
@@ -32901,7 +32942,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="687" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A687" s="12">
         <v>44593</v>
       </c>
@@ -32948,7 +32989,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="688" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A688" s="12">
         <v>44593</v>
       </c>
@@ -32995,7 +33036,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="689" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A689" s="12">
         <v>44621</v>
       </c>
@@ -33042,7 +33083,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="690" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A690" s="12">
         <v>44621</v>
       </c>
@@ -33089,7 +33130,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="691" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A691" s="12">
         <v>44621</v>
       </c>
@@ -33136,7 +33177,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="692" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A692" s="12">
         <v>44621</v>
       </c>
@@ -33183,7 +33224,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="693" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A693" s="12">
         <v>44621</v>
       </c>
@@ -33230,7 +33271,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="694" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A694" s="12">
         <v>44621</v>
       </c>
@@ -33277,7 +33318,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="695" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A695" s="12">
         <v>44621</v>
       </c>
@@ -33324,7 +33365,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="696" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A696" s="12">
         <v>44652</v>
       </c>
@@ -33371,7 +33412,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="697" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A697" s="12">
         <v>44652</v>
       </c>
@@ -33418,7 +33459,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="698" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A698" s="12">
         <v>44652</v>
       </c>
@@ -33465,7 +33506,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="699" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A699" s="12">
         <v>44652</v>
       </c>
@@ -33512,7 +33553,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="700" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A700" s="12">
         <v>44652</v>
       </c>
@@ -33559,7 +33600,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="701" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A701" s="12">
         <v>44652</v>
       </c>
@@ -33606,7 +33647,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="702" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A702" s="12">
         <v>44652</v>
       </c>
@@ -33653,7 +33694,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="703" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A703" s="12">
         <v>44682</v>
       </c>
@@ -33700,7 +33741,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="704" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A704" s="12">
         <v>44682</v>
       </c>
@@ -33747,7 +33788,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="705" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A705" s="12">
         <v>44682</v>
       </c>
@@ -33794,7 +33835,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="706" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A706" s="12">
         <v>44682</v>
       </c>
@@ -33841,7 +33882,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="707" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A707" s="12">
         <v>44682</v>
       </c>
@@ -33888,7 +33929,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="708" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A708" s="12">
         <v>44682</v>
       </c>
@@ -33935,7 +33976,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="709" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A709" s="12">
         <v>44682</v>
       </c>
@@ -33982,7 +34023,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="710" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A710" s="12">
         <v>44713</v>
       </c>
@@ -34029,7 +34070,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="711" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A711" s="12">
         <v>44713</v>
       </c>
@@ -34076,7 +34117,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="712" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A712" s="12">
         <v>44713</v>
       </c>
@@ -34123,7 +34164,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="713" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A713" s="12">
         <v>44713</v>
       </c>
@@ -34170,7 +34211,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="714" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A714" s="12">
         <v>44713</v>
       </c>
@@ -34217,7 +34258,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="715" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A715" s="12">
         <v>44713</v>
       </c>
@@ -34264,7 +34305,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="716" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A716" s="12">
         <v>44713</v>
       </c>
@@ -34311,7 +34352,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="717" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A717" s="12">
         <v>44743</v>
       </c>
@@ -34358,7 +34399,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="718" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A718" s="12">
         <v>44743</v>
       </c>
@@ -34405,7 +34446,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="719" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A719" s="12">
         <v>44743</v>
       </c>
@@ -34452,7 +34493,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="720" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A720" s="12">
         <v>44743</v>
       </c>
@@ -34499,7 +34540,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="721" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A721" s="12">
         <v>44743</v>
       </c>
@@ -34546,7 +34587,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="722" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A722" s="12">
         <v>44743</v>
       </c>
@@ -34593,7 +34634,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="723" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A723" s="12">
         <v>44743</v>
       </c>
@@ -34640,7 +34681,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="724" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A724" s="17">
         <v>44774</v>
       </c>
@@ -34687,7 +34728,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="725" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A725" s="17">
         <v>44774</v>
       </c>
@@ -34734,7 +34775,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="726" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A726" s="17">
         <v>44774</v>
       </c>
@@ -34781,7 +34822,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="727" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A727" s="17">
         <v>44774</v>
       </c>
@@ -34828,7 +34869,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="728" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A728" s="17">
         <v>44774</v>
       </c>
@@ -34875,7 +34916,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="729" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A729" s="17">
         <v>44774</v>
       </c>
@@ -34922,7 +34963,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="730" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A730" s="17">
         <v>44774</v>
       </c>
@@ -34969,7 +35010,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="731" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A731" s="17">
         <v>44805</v>
       </c>
@@ -35016,7 +35057,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="732" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A732" s="17">
         <v>44805</v>
       </c>
@@ -35063,7 +35104,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="733" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A733" s="17">
         <v>44805</v>
       </c>
@@ -35110,7 +35151,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="734" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A734" s="17">
         <v>44805</v>
       </c>
@@ -35157,7 +35198,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="735" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A735" s="17">
         <v>44805</v>
       </c>
@@ -35204,7 +35245,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="736" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A736" s="17">
         <v>44805</v>
       </c>
@@ -35251,7 +35292,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="737" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A737" s="17">
         <v>44805</v>
       </c>
@@ -35298,7 +35339,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="738" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A738" s="17">
         <v>44835</v>
       </c>
@@ -35345,7 +35386,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="739" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A739" s="17">
         <v>44835</v>
       </c>
@@ -35392,7 +35433,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="740" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A740" s="17">
         <v>44835</v>
       </c>
@@ -35439,7 +35480,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="741" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A741" s="17">
         <v>44835</v>
       </c>
@@ -35486,7 +35527,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="742" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A742" s="17">
         <v>44835</v>
       </c>
@@ -35533,7 +35574,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="743" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A743" s="17">
         <v>44835</v>
       </c>
@@ -35580,7 +35621,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="744" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A744" s="17">
         <v>44835</v>
       </c>
@@ -35627,7 +35668,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="745" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A745" s="17">
         <v>44866</v>
       </c>
@@ -35674,7 +35715,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="746" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A746" s="17">
         <v>44866</v>
       </c>
@@ -35721,7 +35762,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="747" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A747" s="17">
         <v>44866</v>
       </c>
@@ -35768,7 +35809,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="748" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A748" s="17">
         <v>44866</v>
       </c>
@@ -35815,7 +35856,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="749" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A749" s="17">
         <v>44866</v>
       </c>
@@ -35862,7 +35903,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="750" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A750" s="17">
         <v>44866</v>
       </c>
@@ -35909,7 +35950,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="751" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A751" s="17">
         <v>44866</v>
       </c>
@@ -35956,7 +35997,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="752" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A752" s="17">
         <v>44896</v>
       </c>
@@ -36003,7 +36044,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="753" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A753" s="17">
         <v>44896</v>
       </c>
@@ -36050,7 +36091,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="754" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A754" s="17">
         <v>44896</v>
       </c>
@@ -36097,7 +36138,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="755" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A755" s="17">
         <v>44896</v>
       </c>
@@ -36144,7 +36185,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="756" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A756" s="17">
         <v>44896</v>
       </c>
@@ -36191,7 +36232,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="757" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A757" s="17">
         <v>44896</v>
       </c>
@@ -36238,7 +36279,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="758" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A758" s="17">
         <v>44896</v>
       </c>
@@ -36285,10 +36326,339 @@
         <v>34</v>
       </c>
     </row>
+    <row r="759" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A759" s="17">
+        <v>44927</v>
+      </c>
+      <c r="B759" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C759" s="16">
+        <v>15382</v>
+      </c>
+      <c r="D759" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E759" s="19">
+        <v>3.88</v>
+      </c>
+      <c r="F759" s="18">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="G759" s="19">
+        <v>3.06</v>
+      </c>
+      <c r="H759" s="19">
+        <v>6.57</v>
+      </c>
+      <c r="I759" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J759" s="18">
+        <v>0.11</v>
+      </c>
+      <c r="K759" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L759" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M759" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N759" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O759" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="760" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A760" s="17">
+        <v>44927</v>
+      </c>
+      <c r="B760" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C760" s="16">
+        <v>13952</v>
+      </c>
+      <c r="D760" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E760" s="19">
+        <v>5.22</v>
+      </c>
+      <c r="F760" s="18">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="G760" s="19">
+        <v>3.47</v>
+      </c>
+      <c r="H760" s="19">
+        <v>7.99</v>
+      </c>
+      <c r="I760" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J760" s="18">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="K760" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L760" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M760" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N760" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O760" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="761" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A761" s="17">
+        <v>44927</v>
+      </c>
+      <c r="B761" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C761" s="16">
+        <v>17732</v>
+      </c>
+      <c r="D761" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E761" s="19">
+        <v>5.05</v>
+      </c>
+      <c r="F761" s="18">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="G761" s="19">
+        <v>4.09</v>
+      </c>
+      <c r="H761" s="19">
+        <v>8.19</v>
+      </c>
+      <c r="I761" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J761" s="18">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="K761" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L761" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M761" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N761" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O761" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="762" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A762" s="17">
+        <v>44927</v>
+      </c>
+      <c r="B762" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C762" s="16">
+        <v>16865</v>
+      </c>
+      <c r="D762" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E762" s="19">
+        <v>108.27</v>
+      </c>
+      <c r="F762" s="18">
+        <v>11.141999999999999</v>
+      </c>
+      <c r="G762" s="19">
+        <v>77.989999999999995</v>
+      </c>
+      <c r="H762" s="19">
+        <v>150</v>
+      </c>
+      <c r="I762" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J762" s="18">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="K762" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L762" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M762" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N762" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O762" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="763" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A763" s="17">
+        <v>44927</v>
+      </c>
+      <c r="B763" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C763" s="16">
+        <v>1576</v>
+      </c>
+      <c r="D763" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E763" s="19">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="F763" s="18">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="G763" s="19">
+        <v>3.19</v>
+      </c>
+      <c r="H763" s="19">
+        <v>6.71</v>
+      </c>
+      <c r="I763" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J763" s="18">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="K763" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L763" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M763" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N763" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O763" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="764" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A764" s="17">
+        <v>44927</v>
+      </c>
+      <c r="B764" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C764" s="16">
+        <v>7622</v>
+      </c>
+      <c r="D764" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E764" s="19">
+        <v>6.33</v>
+      </c>
+      <c r="F764" s="18">
+        <v>0.37</v>
+      </c>
+      <c r="G764" s="19">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="H764" s="19">
+        <v>7.99</v>
+      </c>
+      <c r="I764" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J764" s="18">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="K764" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L764" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M764" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N764" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O764" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="765" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A765" s="17">
+        <v>44927</v>
+      </c>
+      <c r="B765" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C765" s="16">
+        <v>12763</v>
+      </c>
+      <c r="D765" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E765" s="19">
+        <v>6.44</v>
+      </c>
+      <c r="F765" s="18">
+        <v>0.37</v>
+      </c>
+      <c r="G765" s="19">
+        <v>5.59</v>
+      </c>
+      <c r="H765" s="19">
+        <v>8.85</v>
+      </c>
+      <c r="I765" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J765" s="18">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="K765" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L765" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M765" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N765" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O765" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A18:O758">
-    <sortCondition ref="A18:A758"/>
-    <sortCondition ref="B18:B758"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:O765">
+    <sortCondition ref="A18:A765"/>
+    <sortCondition ref="B18:B765"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/data/raw/mensal-brasil-desde-jan2013.xlsx
+++ b/data/raw/mensal-brasil-desde-jan2013.xlsx
@@ -1,17 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <fileSharing readOnlyRecommended="1" userName="Carlos Antonio Rocha" algorithmName="SHA-512" hashValue="6gyQ/gq5o2WkU1XV8h107SL7pE6SZMJ30e9vabonwVcUg4NYu8MIC9U/nF0ljCY4YwRmXc135KQr4WiO1lgBNQ==" saltValue="uC04lM9wjy6EFCHGNg8L6w==" spinCount="100000"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Precos\Levantamento de Preços\++SERIE_HISTORICA-SITE++\MENSAL\2013 EM DIANTE\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:10001_{BE4CEA5B-7716-46B3-8BF1-50FCC5A90D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1956" yWindow="1956" windowWidth="21600" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="BRASIL - DESDE JANEIRO DE 2013" sheetId="1" r:id="rId1"/>
@@ -32,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2756" uniqueCount="40">
   <si>
     <t>AGÊNCIA NACIONAL DO PETRÓLEO, GÁS NATURAL E BIOCOMBUSTÍVEIS - ANP</t>
   </si>
@@ -203,7 +196,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -336,7 +329,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -374,9 +367,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -409,26 +402,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -461,26 +437,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -653,36 +612,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:R765"/>
+  <dimension ref="A1:R772"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="17" topLeftCell="A742" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="31" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -692,7 +651,7 @@
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>32</v>
       </c>
@@ -702,7 +661,7 @@
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>27</v>
       </c>
@@ -712,7 +671,7 @@
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -720,7 +679,7 @@
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>1</v>
       </c>
@@ -730,7 +689,7 @@
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="20"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
@@ -738,7 +697,7 @@
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>2</v>
       </c>
@@ -748,7 +707,7 @@
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
@@ -758,7 +717,7 @@
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>12</v>
       </c>
@@ -768,7 +727,7 @@
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>3</v>
       </c>
@@ -778,7 +737,7 @@
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
     </row>
-    <row r="11" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>31</v>
       </c>
@@ -792,7 +751,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>29</v>
       </c>
@@ -806,7 +765,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>33</v>
       </c>
@@ -820,7 +779,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>38</v>
       </c>
@@ -834,7 +793,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>39</v>
       </c>
@@ -848,7 +807,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -856,7 +815,7 @@
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -903,7 +862,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>41275</v>
       </c>
@@ -952,7 +911,7 @@
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>41275</v>
       </c>
@@ -1002,7 +961,7 @@
       <c r="Q19" s="11"/>
       <c r="R19" s="14"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>41275</v>
       </c>
@@ -1052,7 +1011,7 @@
       <c r="Q20" s="11"/>
       <c r="R20" s="14"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>41275</v>
       </c>
@@ -1102,7 +1061,7 @@
       <c r="Q21" s="11"/>
       <c r="R21" s="14"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>41275</v>
       </c>
@@ -1152,7 +1111,7 @@
       <c r="Q22" s="11"/>
       <c r="R22" s="14"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>41275</v>
       </c>
@@ -1202,7 +1161,7 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="14"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>41306</v>
       </c>
@@ -1252,7 +1211,7 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="14"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>41306</v>
       </c>
@@ -1302,7 +1261,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="14"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>41306</v>
       </c>
@@ -1352,7 +1311,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="14"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>41306</v>
       </c>
@@ -1400,7 +1359,7 @@
       </c>
       <c r="R27" s="14"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>41306</v>
       </c>
@@ -1448,7 +1407,7 @@
       </c>
       <c r="R28" s="14"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>41306</v>
       </c>
@@ -1496,7 +1455,7 @@
       </c>
       <c r="R29" s="14"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>41334</v>
       </c>
@@ -1544,7 +1503,7 @@
       </c>
       <c r="R30" s="14"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>41334</v>
       </c>
@@ -1592,7 +1551,7 @@
       </c>
       <c r="R31" s="14"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>41334</v>
       </c>
@@ -1640,7 +1599,7 @@
       </c>
       <c r="R32" s="14"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>41334</v>
       </c>
@@ -1688,7 +1647,7 @@
       </c>
       <c r="R33" s="14"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>41334</v>
       </c>
@@ -1736,7 +1695,7 @@
       </c>
       <c r="R34" s="14"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>41334</v>
       </c>
@@ -1784,7 +1743,7 @@
       </c>
       <c r="R35" s="14"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>41365</v>
       </c>
@@ -1832,7 +1791,7 @@
       </c>
       <c r="R36" s="14"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>41365</v>
       </c>
@@ -1880,7 +1839,7 @@
       </c>
       <c r="R37" s="14"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>41365</v>
       </c>
@@ -1928,7 +1887,7 @@
       </c>
       <c r="R38" s="14"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>41365</v>
       </c>
@@ -1976,7 +1935,7 @@
       </c>
       <c r="R39" s="14"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>41365</v>
       </c>
@@ -2024,7 +1983,7 @@
       </c>
       <c r="R40" s="14"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>41365</v>
       </c>
@@ -2072,7 +2031,7 @@
       </c>
       <c r="R41" s="14"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41395</v>
       </c>
@@ -2120,7 +2079,7 @@
       </c>
       <c r="R42" s="14"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>41395</v>
       </c>
@@ -2168,7 +2127,7 @@
       </c>
       <c r="R43" s="14"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41395</v>
       </c>
@@ -2216,7 +2175,7 @@
       </c>
       <c r="R44" s="14"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>41395</v>
       </c>
@@ -2264,7 +2223,7 @@
       </c>
       <c r="R45" s="14"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>41395</v>
       </c>
@@ -2312,7 +2271,7 @@
       </c>
       <c r="R46" s="14"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>41395</v>
       </c>
@@ -2360,7 +2319,7 @@
       </c>
       <c r="R47" s="14"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>41426</v>
       </c>
@@ -2408,7 +2367,7 @@
       </c>
       <c r="R48" s="14"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>41426</v>
       </c>
@@ -2456,7 +2415,7 @@
       </c>
       <c r="R49" s="14"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>41426</v>
       </c>
@@ -2504,7 +2463,7 @@
       </c>
       <c r="R50" s="14"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>41426</v>
       </c>
@@ -2552,7 +2511,7 @@
       </c>
       <c r="R51" s="14"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>41426</v>
       </c>
@@ -2600,7 +2559,7 @@
       </c>
       <c r="R52" s="14"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>41426</v>
       </c>
@@ -2648,7 +2607,7 @@
       </c>
       <c r="R53" s="14"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>41456</v>
       </c>
@@ -2696,7 +2655,7 @@
       </c>
       <c r="R54" s="14"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>41456</v>
       </c>
@@ -2744,7 +2703,7 @@
       </c>
       <c r="R55" s="14"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>41456</v>
       </c>
@@ -2792,7 +2751,7 @@
       </c>
       <c r="R56" s="14"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>41456</v>
       </c>
@@ -2840,7 +2799,7 @@
       </c>
       <c r="R57" s="14"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>41456</v>
       </c>
@@ -2888,7 +2847,7 @@
       </c>
       <c r="R58" s="14"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>41456</v>
       </c>
@@ -2936,7 +2895,7 @@
       </c>
       <c r="R59" s="14"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>41487</v>
       </c>
@@ -2984,7 +2943,7 @@
       </c>
       <c r="R60" s="14"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>41487</v>
       </c>
@@ -3032,7 +2991,7 @@
       </c>
       <c r="R61" s="14"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>41487</v>
       </c>
@@ -3080,7 +3039,7 @@
       </c>
       <c r="R62" s="14"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>41487</v>
       </c>
@@ -3128,7 +3087,7 @@
       </c>
       <c r="R63" s="14"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>41487</v>
       </c>
@@ -3176,7 +3135,7 @@
       </c>
       <c r="R64" s="14"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>41487</v>
       </c>
@@ -3224,7 +3183,7 @@
       </c>
       <c r="R65" s="14"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>41518</v>
       </c>
@@ -3272,7 +3231,7 @@
       </c>
       <c r="R66" s="14"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>41518</v>
       </c>
@@ -3320,7 +3279,7 @@
       </c>
       <c r="R67" s="14"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>41518</v>
       </c>
@@ -3368,7 +3327,7 @@
       </c>
       <c r="R68" s="14"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>41518</v>
       </c>
@@ -3416,7 +3375,7 @@
       </c>
       <c r="R69" s="14"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>41518</v>
       </c>
@@ -3464,7 +3423,7 @@
       </c>
       <c r="R70" s="14"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>41518</v>
       </c>
@@ -3512,7 +3471,7 @@
       </c>
       <c r="R71" s="14"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>41548</v>
       </c>
@@ -3560,7 +3519,7 @@
       </c>
       <c r="R72" s="14"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>41548</v>
       </c>
@@ -3608,7 +3567,7 @@
       </c>
       <c r="R73" s="14"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>41548</v>
       </c>
@@ -3656,7 +3615,7 @@
       </c>
       <c r="R74" s="14"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>41548</v>
       </c>
@@ -3704,7 +3663,7 @@
       </c>
       <c r="R75" s="14"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>41548</v>
       </c>
@@ -3752,7 +3711,7 @@
       </c>
       <c r="R76" s="14"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>41548</v>
       </c>
@@ -3800,7 +3759,7 @@
       </c>
       <c r="R77" s="14"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>41579</v>
       </c>
@@ -3848,7 +3807,7 @@
       </c>
       <c r="R78" s="14"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>41579</v>
       </c>
@@ -3896,7 +3855,7 @@
       </c>
       <c r="R79" s="14"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>41579</v>
       </c>
@@ -3944,7 +3903,7 @@
       </c>
       <c r="R80" s="14"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>41579</v>
       </c>
@@ -3992,7 +3951,7 @@
       </c>
       <c r="R81" s="14"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>41579</v>
       </c>
@@ -4040,7 +3999,7 @@
       </c>
       <c r="R82" s="14"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>41579</v>
       </c>
@@ -4088,7 +4047,7 @@
       </c>
       <c r="R83" s="14"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>41609</v>
       </c>
@@ -4136,7 +4095,7 @@
       </c>
       <c r="R84" s="14"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>41609</v>
       </c>
@@ -4184,7 +4143,7 @@
       </c>
       <c r="R85" s="14"/>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>41609</v>
       </c>
@@ -4232,7 +4191,7 @@
       </c>
       <c r="R86" s="14"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>41609</v>
       </c>
@@ -4280,7 +4239,7 @@
       </c>
       <c r="R87" s="14"/>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>41609</v>
       </c>
@@ -4328,7 +4287,7 @@
       </c>
       <c r="R88" s="14"/>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>41609</v>
       </c>
@@ -4376,7 +4335,7 @@
       </c>
       <c r="R89" s="14"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>41640</v>
       </c>
@@ -4424,7 +4383,7 @@
       </c>
       <c r="R90" s="14"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>41640</v>
       </c>
@@ -4472,7 +4431,7 @@
       </c>
       <c r="R91" s="14"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>41640</v>
       </c>
@@ -4520,7 +4479,7 @@
       </c>
       <c r="R92" s="14"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>41640</v>
       </c>
@@ -4568,7 +4527,7 @@
       </c>
       <c r="R93" s="14"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>41640</v>
       </c>
@@ -4616,7 +4575,7 @@
       </c>
       <c r="R94" s="14"/>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>41640</v>
       </c>
@@ -4664,7 +4623,7 @@
       </c>
       <c r="R95" s="14"/>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>41671</v>
       </c>
@@ -4712,7 +4671,7 @@
       </c>
       <c r="R96" s="14"/>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>41671</v>
       </c>
@@ -4760,7 +4719,7 @@
       </c>
       <c r="R97" s="14"/>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>41671</v>
       </c>
@@ -4808,7 +4767,7 @@
       </c>
       <c r="R98" s="14"/>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>41671</v>
       </c>
@@ -4856,7 +4815,7 @@
       </c>
       <c r="R99" s="14"/>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>41671</v>
       </c>
@@ -4904,7 +4863,7 @@
       </c>
       <c r="R100" s="14"/>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>41671</v>
       </c>
@@ -4952,7 +4911,7 @@
       </c>
       <c r="R101" s="14"/>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>41699</v>
       </c>
@@ -5000,7 +4959,7 @@
       </c>
       <c r="R102" s="14"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>41699</v>
       </c>
@@ -5048,7 +5007,7 @@
       </c>
       <c r="R103" s="14"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>41699</v>
       </c>
@@ -5096,7 +5055,7 @@
       </c>
       <c r="R104" s="14"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>41699</v>
       </c>
@@ -5144,7 +5103,7 @@
       </c>
       <c r="R105" s="14"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>41699</v>
       </c>
@@ -5192,7 +5151,7 @@
       </c>
       <c r="R106" s="14"/>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>41699</v>
       </c>
@@ -5240,7 +5199,7 @@
       </c>
       <c r="R107" s="14"/>
     </row>
-    <row r="108" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>41730</v>
       </c>
@@ -5289,7 +5248,7 @@
       <c r="P108"/>
       <c r="R108" s="14"/>
     </row>
-    <row r="109" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>41730</v>
       </c>
@@ -5338,7 +5297,7 @@
       <c r="P109"/>
       <c r="R109" s="14"/>
     </row>
-    <row r="110" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>41730</v>
       </c>
@@ -5387,7 +5346,7 @@
       <c r="P110"/>
       <c r="R110" s="14"/>
     </row>
-    <row r="111" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>41730</v>
       </c>
@@ -5436,7 +5395,7 @@
       <c r="P111"/>
       <c r="R111" s="14"/>
     </row>
-    <row r="112" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>41730</v>
       </c>
@@ -5485,7 +5444,7 @@
       <c r="P112"/>
       <c r="R112" s="14"/>
     </row>
-    <row r="113" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>41730</v>
       </c>
@@ -5534,7 +5493,7 @@
       <c r="P113"/>
       <c r="R113" s="14"/>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>41760</v>
       </c>
@@ -5582,7 +5541,7 @@
       </c>
       <c r="R114" s="14"/>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>41760</v>
       </c>
@@ -5630,7 +5589,7 @@
       </c>
       <c r="R115" s="14"/>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>41760</v>
       </c>
@@ -5678,7 +5637,7 @@
       </c>
       <c r="R116" s="14"/>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>41760</v>
       </c>
@@ -5726,7 +5685,7 @@
       </c>
       <c r="R117" s="14"/>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>41760</v>
       </c>
@@ -5774,7 +5733,7 @@
       </c>
       <c r="R118" s="14"/>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>41760</v>
       </c>
@@ -5822,7 +5781,7 @@
       </c>
       <c r="R119" s="14"/>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>41791</v>
       </c>
@@ -5870,7 +5829,7 @@
       </c>
       <c r="R120" s="14"/>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>41791</v>
       </c>
@@ -5918,7 +5877,7 @@
       </c>
       <c r="R121" s="14"/>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>41791</v>
       </c>
@@ -5966,7 +5925,7 @@
       </c>
       <c r="R122" s="14"/>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>41791</v>
       </c>
@@ -6014,7 +5973,7 @@
       </c>
       <c r="R123" s="14"/>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>41791</v>
       </c>
@@ -6062,7 +6021,7 @@
       </c>
       <c r="R124" s="14"/>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>41791</v>
       </c>
@@ -6110,7 +6069,7 @@
       </c>
       <c r="R125" s="14"/>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>41821</v>
       </c>
@@ -6158,7 +6117,7 @@
       </c>
       <c r="R126" s="14"/>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>41821</v>
       </c>
@@ -6206,7 +6165,7 @@
       </c>
       <c r="R127" s="14"/>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>41821</v>
       </c>
@@ -6254,7 +6213,7 @@
       </c>
       <c r="R128" s="14"/>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>41821</v>
       </c>
@@ -6302,7 +6261,7 @@
       </c>
       <c r="R129" s="14"/>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>41821</v>
       </c>
@@ -6350,7 +6309,7 @@
       </c>
       <c r="R130" s="14"/>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>41821</v>
       </c>
@@ -6398,7 +6357,7 @@
       </c>
       <c r="R131" s="14"/>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>41852</v>
       </c>
@@ -6446,7 +6405,7 @@
       </c>
       <c r="R132" s="14"/>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>41852</v>
       </c>
@@ -6494,7 +6453,7 @@
       </c>
       <c r="R133" s="14"/>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>41852</v>
       </c>
@@ -6542,7 +6501,7 @@
       </c>
       <c r="R134" s="14"/>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>41852</v>
       </c>
@@ -6590,7 +6549,7 @@
       </c>
       <c r="R135" s="14"/>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>41852</v>
       </c>
@@ -6638,7 +6597,7 @@
       </c>
       <c r="R136" s="14"/>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>41852</v>
       </c>
@@ -6686,7 +6645,7 @@
       </c>
       <c r="R137" s="14"/>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>41883</v>
       </c>
@@ -6734,7 +6693,7 @@
       </c>
       <c r="R138" s="14"/>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>41883</v>
       </c>
@@ -6782,7 +6741,7 @@
       </c>
       <c r="R139" s="14"/>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>41883</v>
       </c>
@@ -6830,7 +6789,7 @@
       </c>
       <c r="R140" s="14"/>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>41883</v>
       </c>
@@ -6878,7 +6837,7 @@
       </c>
       <c r="R141" s="14"/>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>41883</v>
       </c>
@@ -6926,7 +6885,7 @@
       </c>
       <c r="R142" s="14"/>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>41883</v>
       </c>
@@ -6974,7 +6933,7 @@
       </c>
       <c r="R143" s="14"/>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>41913</v>
       </c>
@@ -7022,7 +6981,7 @@
       </c>
       <c r="R144" s="14"/>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>41913</v>
       </c>
@@ -7070,7 +7029,7 @@
       </c>
       <c r="R145" s="14"/>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>41913</v>
       </c>
@@ -7118,7 +7077,7 @@
       </c>
       <c r="R146" s="14"/>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>41913</v>
       </c>
@@ -7166,7 +7125,7 @@
       </c>
       <c r="R147" s="14"/>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>41913</v>
       </c>
@@ -7214,7 +7173,7 @@
       </c>
       <c r="R148" s="14"/>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>41913</v>
       </c>
@@ -7262,7 +7221,7 @@
       </c>
       <c r="R149" s="14"/>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>41944</v>
       </c>
@@ -7310,7 +7269,7 @@
       </c>
       <c r="R150" s="14"/>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>41944</v>
       </c>
@@ -7358,7 +7317,7 @@
       </c>
       <c r="R151" s="14"/>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>41944</v>
       </c>
@@ -7406,7 +7365,7 @@
       </c>
       <c r="R152" s="14"/>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>41944</v>
       </c>
@@ -7454,7 +7413,7 @@
       </c>
       <c r="R153" s="14"/>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>41944</v>
       </c>
@@ -7502,7 +7461,7 @@
       </c>
       <c r="R154" s="14"/>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>41944</v>
       </c>
@@ -7550,7 +7509,7 @@
       </c>
       <c r="R155" s="14"/>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>41974</v>
       </c>
@@ -7598,7 +7557,7 @@
       </c>
       <c r="R156" s="14"/>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>41974</v>
       </c>
@@ -7646,7 +7605,7 @@
       </c>
       <c r="R157" s="14"/>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>41974</v>
       </c>
@@ -7694,7 +7653,7 @@
       </c>
       <c r="R158" s="14"/>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>41974</v>
       </c>
@@ -7742,7 +7701,7 @@
       </c>
       <c r="R159" s="14"/>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>41974</v>
       </c>
@@ -7790,7 +7749,7 @@
       </c>
       <c r="R160" s="14"/>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>41974</v>
       </c>
@@ -7838,7 +7797,7 @@
       </c>
       <c r="R161" s="14"/>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>42005</v>
       </c>
@@ -7886,7 +7845,7 @@
       </c>
       <c r="R162" s="14"/>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>42005</v>
       </c>
@@ -7934,7 +7893,7 @@
       </c>
       <c r="R163" s="14"/>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>42005</v>
       </c>
@@ -7982,7 +7941,7 @@
       </c>
       <c r="R164" s="14"/>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>42005</v>
       </c>
@@ -8030,7 +7989,7 @@
       </c>
       <c r="R165" s="14"/>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>42005</v>
       </c>
@@ -8078,7 +8037,7 @@
       </c>
       <c r="R166" s="14"/>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>42005</v>
       </c>
@@ -8126,7 +8085,7 @@
       </c>
       <c r="R167" s="14"/>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>42036</v>
       </c>
@@ -8174,7 +8133,7 @@
       </c>
       <c r="R168" s="14"/>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>42036</v>
       </c>
@@ -8222,7 +8181,7 @@
       </c>
       <c r="R169" s="14"/>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>42036</v>
       </c>
@@ -8270,7 +8229,7 @@
       </c>
       <c r="R170" s="14"/>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>42036</v>
       </c>
@@ -8318,7 +8277,7 @@
       </c>
       <c r="R171" s="14"/>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>42036</v>
       </c>
@@ -8366,7 +8325,7 @@
       </c>
       <c r="R172" s="14"/>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>42036</v>
       </c>
@@ -8414,7 +8373,7 @@
       </c>
       <c r="R173" s="14"/>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>42064</v>
       </c>
@@ -8462,7 +8421,7 @@
       </c>
       <c r="R174" s="14"/>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>42064</v>
       </c>
@@ -8510,7 +8469,7 @@
       </c>
       <c r="R175" s="14"/>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>42064</v>
       </c>
@@ -8558,7 +8517,7 @@
       </c>
       <c r="R176" s="14"/>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>42064</v>
       </c>
@@ -8606,7 +8565,7 @@
       </c>
       <c r="R177" s="14"/>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>42064</v>
       </c>
@@ -8654,7 +8613,7 @@
       </c>
       <c r="R178" s="14"/>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>42064</v>
       </c>
@@ -8702,7 +8661,7 @@
       </c>
       <c r="R179" s="14"/>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>42095</v>
       </c>
@@ -8750,7 +8709,7 @@
       </c>
       <c r="R180" s="14"/>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>42095</v>
       </c>
@@ -8798,7 +8757,7 @@
       </c>
       <c r="R181" s="14"/>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>42095</v>
       </c>
@@ -8846,7 +8805,7 @@
       </c>
       <c r="R182" s="14"/>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>42095</v>
       </c>
@@ -8894,7 +8853,7 @@
       </c>
       <c r="R183" s="14"/>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>42095</v>
       </c>
@@ -8942,7 +8901,7 @@
       </c>
       <c r="R184" s="14"/>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>42095</v>
       </c>
@@ -8990,7 +8949,7 @@
       </c>
       <c r="R185" s="14"/>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>42125</v>
       </c>
@@ -9038,7 +8997,7 @@
       </c>
       <c r="R186" s="14"/>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>42125</v>
       </c>
@@ -9086,7 +9045,7 @@
       </c>
       <c r="R187" s="14"/>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>42125</v>
       </c>
@@ -9134,7 +9093,7 @@
       </c>
       <c r="R188" s="14"/>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>42125</v>
       </c>
@@ -9182,7 +9141,7 @@
       </c>
       <c r="R189" s="14"/>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>42125</v>
       </c>
@@ -9230,7 +9189,7 @@
       </c>
       <c r="R190" s="14"/>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>42125</v>
       </c>
@@ -9278,7 +9237,7 @@
       </c>
       <c r="R191" s="14"/>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>42156</v>
       </c>
@@ -9326,7 +9285,7 @@
       </c>
       <c r="R192" s="14"/>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>42156</v>
       </c>
@@ -9374,7 +9333,7 @@
       </c>
       <c r="R193" s="14"/>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>42156</v>
       </c>
@@ -9422,7 +9381,7 @@
       </c>
       <c r="R194" s="14"/>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>42156</v>
       </c>
@@ -9470,7 +9429,7 @@
       </c>
       <c r="R195" s="14"/>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>42156</v>
       </c>
@@ -9518,7 +9477,7 @@
       </c>
       <c r="R196" s="14"/>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>42156</v>
       </c>
@@ -9566,7 +9525,7 @@
       </c>
       <c r="R197" s="14"/>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>42186</v>
       </c>
@@ -9614,7 +9573,7 @@
       </c>
       <c r="R198" s="14"/>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>42186</v>
       </c>
@@ -9662,7 +9621,7 @@
       </c>
       <c r="R199" s="14"/>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>42186</v>
       </c>
@@ -9710,7 +9669,7 @@
       </c>
       <c r="R200" s="14"/>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>42186</v>
       </c>
@@ -9758,7 +9717,7 @@
       </c>
       <c r="R201" s="14"/>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>42186</v>
       </c>
@@ -9806,7 +9765,7 @@
       </c>
       <c r="R202" s="14"/>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>42186</v>
       </c>
@@ -9854,7 +9813,7 @@
       </c>
       <c r="R203" s="14"/>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>42217</v>
       </c>
@@ -9902,7 +9861,7 @@
       </c>
       <c r="R204" s="14"/>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>42217</v>
       </c>
@@ -9950,7 +9909,7 @@
       </c>
       <c r="R205" s="14"/>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>42217</v>
       </c>
@@ -9998,7 +9957,7 @@
       </c>
       <c r="R206" s="14"/>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>42217</v>
       </c>
@@ -10046,7 +10005,7 @@
       </c>
       <c r="R207" s="14"/>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>42217</v>
       </c>
@@ -10094,7 +10053,7 @@
       </c>
       <c r="R208" s="14"/>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>42217</v>
       </c>
@@ -10142,7 +10101,7 @@
       </c>
       <c r="R209" s="14"/>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>42248</v>
       </c>
@@ -10190,7 +10149,7 @@
       </c>
       <c r="R210" s="14"/>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>42248</v>
       </c>
@@ -10238,7 +10197,7 @@
       </c>
       <c r="R211" s="14"/>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>42248</v>
       </c>
@@ -10286,7 +10245,7 @@
       </c>
       <c r="R212" s="14"/>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>42248</v>
       </c>
@@ -10334,7 +10293,7 @@
       </c>
       <c r="R213" s="14"/>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>42248</v>
       </c>
@@ -10382,7 +10341,7 @@
       </c>
       <c r="R214" s="14"/>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>42248</v>
       </c>
@@ -10430,7 +10389,7 @@
       </c>
       <c r="R215" s="14"/>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>42278</v>
       </c>
@@ -10478,7 +10437,7 @@
       </c>
       <c r="R216" s="14"/>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>42278</v>
       </c>
@@ -10526,7 +10485,7 @@
       </c>
       <c r="R217" s="14"/>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>42278</v>
       </c>
@@ -10574,7 +10533,7 @@
       </c>
       <c r="R218" s="14"/>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>42278</v>
       </c>
@@ -10622,7 +10581,7 @@
       </c>
       <c r="R219" s="14"/>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>42278</v>
       </c>
@@ -10670,7 +10629,7 @@
       </c>
       <c r="R220" s="14"/>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>42278</v>
       </c>
@@ -10718,7 +10677,7 @@
       </c>
       <c r="R221" s="14"/>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>42309</v>
       </c>
@@ -10766,7 +10725,7 @@
       </c>
       <c r="R222" s="14"/>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>42309</v>
       </c>
@@ -10814,7 +10773,7 @@
       </c>
       <c r="R223" s="14"/>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>42309</v>
       </c>
@@ -10862,7 +10821,7 @@
       </c>
       <c r="R224" s="14"/>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>42309</v>
       </c>
@@ -10910,7 +10869,7 @@
       </c>
       <c r="R225" s="14"/>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>42309</v>
       </c>
@@ -10958,7 +10917,7 @@
       </c>
       <c r="R226" s="14"/>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>42309</v>
       </c>
@@ -11006,7 +10965,7 @@
       </c>
       <c r="R227" s="14"/>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>42339</v>
       </c>
@@ -11054,7 +11013,7 @@
       </c>
       <c r="R228" s="14"/>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>42339</v>
       </c>
@@ -11102,7 +11061,7 @@
       </c>
       <c r="R229" s="14"/>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>42339</v>
       </c>
@@ -11150,7 +11109,7 @@
       </c>
       <c r="R230" s="14"/>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>42339</v>
       </c>
@@ -11198,7 +11157,7 @@
       </c>
       <c r="R231" s="14"/>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>42339</v>
       </c>
@@ -11246,7 +11205,7 @@
       </c>
       <c r="R232" s="14"/>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>42339</v>
       </c>
@@ -11294,7 +11253,7 @@
       </c>
       <c r="R233" s="14"/>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>42370</v>
       </c>
@@ -11342,7 +11301,7 @@
       </c>
       <c r="R234" s="14"/>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>42370</v>
       </c>
@@ -11390,7 +11349,7 @@
       </c>
       <c r="R235" s="14"/>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>42370</v>
       </c>
@@ -11438,7 +11397,7 @@
       </c>
       <c r="R236" s="14"/>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>42370</v>
       </c>
@@ -11486,7 +11445,7 @@
       </c>
       <c r="R237" s="14"/>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>42370</v>
       </c>
@@ -11534,7 +11493,7 @@
       </c>
       <c r="R238" s="14"/>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>42370</v>
       </c>
@@ -11582,7 +11541,7 @@
       </c>
       <c r="R239" s="14"/>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>42401</v>
       </c>
@@ -11630,7 +11589,7 @@
       </c>
       <c r="R240" s="14"/>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>42401</v>
       </c>
@@ -11678,7 +11637,7 @@
       </c>
       <c r="R241" s="14"/>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>42401</v>
       </c>
@@ -11726,7 +11685,7 @@
       </c>
       <c r="R242" s="14"/>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>42401</v>
       </c>
@@ -11774,7 +11733,7 @@
       </c>
       <c r="R243" s="14"/>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>42401</v>
       </c>
@@ -11822,7 +11781,7 @@
       </c>
       <c r="R244" s="14"/>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>42401</v>
       </c>
@@ -11870,7 +11829,7 @@
       </c>
       <c r="R245" s="14"/>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>42430</v>
       </c>
@@ -11918,7 +11877,7 @@
       </c>
       <c r="R246" s="14"/>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>42430</v>
       </c>
@@ -11966,7 +11925,7 @@
       </c>
       <c r="R247" s="14"/>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>42430</v>
       </c>
@@ -12014,7 +11973,7 @@
       </c>
       <c r="R248" s="14"/>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>42430</v>
       </c>
@@ -12062,7 +12021,7 @@
       </c>
       <c r="R249" s="14"/>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>42430</v>
       </c>
@@ -12110,7 +12069,7 @@
       </c>
       <c r="R250" s="14"/>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>42430</v>
       </c>
@@ -12158,7 +12117,7 @@
       </c>
       <c r="R251" s="14"/>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>42461</v>
       </c>
@@ -12206,7 +12165,7 @@
       </c>
       <c r="R252" s="14"/>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>42461</v>
       </c>
@@ -12254,7 +12213,7 @@
       </c>
       <c r="R253" s="14"/>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>42461</v>
       </c>
@@ -12302,7 +12261,7 @@
       </c>
       <c r="R254" s="14"/>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>42461</v>
       </c>
@@ -12350,7 +12309,7 @@
       </c>
       <c r="R255" s="14"/>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>42461</v>
       </c>
@@ -12398,7 +12357,7 @@
       </c>
       <c r="R256" s="14"/>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>42461</v>
       </c>
@@ -12446,7 +12405,7 @@
       </c>
       <c r="R257" s="14"/>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>42491</v>
       </c>
@@ -12494,7 +12453,7 @@
       </c>
       <c r="R258" s="14"/>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>42491</v>
       </c>
@@ -12542,7 +12501,7 @@
       </c>
       <c r="R259" s="14"/>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>42491</v>
       </c>
@@ -12590,7 +12549,7 @@
       </c>
       <c r="R260" s="14"/>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>42491</v>
       </c>
@@ -12638,7 +12597,7 @@
       </c>
       <c r="R261" s="14"/>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>42491</v>
       </c>
@@ -12686,7 +12645,7 @@
       </c>
       <c r="R262" s="14"/>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>42491</v>
       </c>
@@ -12734,7 +12693,7 @@
       </c>
       <c r="R263" s="14"/>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>42522</v>
       </c>
@@ -12782,7 +12741,7 @@
       </c>
       <c r="R264" s="14"/>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>42522</v>
       </c>
@@ -12830,7 +12789,7 @@
       </c>
       <c r="R265" s="14"/>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>42522</v>
       </c>
@@ -12878,7 +12837,7 @@
       </c>
       <c r="R266" s="14"/>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>42522</v>
       </c>
@@ -12926,7 +12885,7 @@
       </c>
       <c r="R267" s="14"/>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>42522</v>
       </c>
@@ -12974,7 +12933,7 @@
       </c>
       <c r="R268" s="14"/>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>42522</v>
       </c>
@@ -13022,7 +12981,7 @@
       </c>
       <c r="R269" s="14"/>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>42552</v>
       </c>
@@ -13070,7 +13029,7 @@
       </c>
       <c r="R270" s="14"/>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>42552</v>
       </c>
@@ -13118,7 +13077,7 @@
       </c>
       <c r="R271" s="14"/>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>42552</v>
       </c>
@@ -13166,7 +13125,7 @@
       </c>
       <c r="R272" s="14"/>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>42552</v>
       </c>
@@ -13214,7 +13173,7 @@
       </c>
       <c r="R273" s="14"/>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>42552</v>
       </c>
@@ -13262,7 +13221,7 @@
       </c>
       <c r="R274" s="14"/>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>42552</v>
       </c>
@@ -13310,7 +13269,7 @@
       </c>
       <c r="R275" s="14"/>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>42583</v>
       </c>
@@ -13358,7 +13317,7 @@
       </c>
       <c r="R276" s="14"/>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>42583</v>
       </c>
@@ -13406,7 +13365,7 @@
       </c>
       <c r="R277" s="14"/>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>42583</v>
       </c>
@@ -13454,7 +13413,7 @@
       </c>
       <c r="R278" s="14"/>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>42583</v>
       </c>
@@ -13502,7 +13461,7 @@
       </c>
       <c r="R279" s="14"/>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>42583</v>
       </c>
@@ -13550,7 +13509,7 @@
       </c>
       <c r="R280" s="14"/>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>42583</v>
       </c>
@@ -13598,7 +13557,7 @@
       </c>
       <c r="R281" s="14"/>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>42614</v>
       </c>
@@ -13646,7 +13605,7 @@
       </c>
       <c r="R282" s="14"/>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>42614</v>
       </c>
@@ -13694,7 +13653,7 @@
       </c>
       <c r="R283" s="14"/>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>42614</v>
       </c>
@@ -13742,7 +13701,7 @@
       </c>
       <c r="R284" s="14"/>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>42614</v>
       </c>
@@ -13790,7 +13749,7 @@
       </c>
       <c r="R285" s="14"/>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>42614</v>
       </c>
@@ -13838,7 +13797,7 @@
       </c>
       <c r="R286" s="14"/>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>42614</v>
       </c>
@@ -13886,7 +13845,7 @@
       </c>
       <c r="R287" s="14"/>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>42644</v>
       </c>
@@ -13934,7 +13893,7 @@
       </c>
       <c r="R288" s="14"/>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>42644</v>
       </c>
@@ -13982,7 +13941,7 @@
       </c>
       <c r="R289" s="14"/>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>42644</v>
       </c>
@@ -14030,7 +13989,7 @@
       </c>
       <c r="R290" s="14"/>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>42644</v>
       </c>
@@ -14078,7 +14037,7 @@
       </c>
       <c r="R291" s="14"/>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>42644</v>
       </c>
@@ -14126,7 +14085,7 @@
       </c>
       <c r="R292" s="14"/>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>42644</v>
       </c>
@@ -14174,7 +14133,7 @@
       </c>
       <c r="R293" s="14"/>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>42675</v>
       </c>
@@ -14222,7 +14181,7 @@
       </c>
       <c r="R294" s="14"/>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>42675</v>
       </c>
@@ -14270,7 +14229,7 @@
       </c>
       <c r="R295" s="14"/>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>42675</v>
       </c>
@@ -14318,7 +14277,7 @@
       </c>
       <c r="R296" s="14"/>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>42675</v>
       </c>
@@ -14366,7 +14325,7 @@
       </c>
       <c r="R297" s="14"/>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>42675</v>
       </c>
@@ -14414,7 +14373,7 @@
       </c>
       <c r="R298" s="14"/>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>42675</v>
       </c>
@@ -14462,7 +14421,7 @@
       </c>
       <c r="R299" s="14"/>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>42705</v>
       </c>
@@ -14510,7 +14469,7 @@
       </c>
       <c r="R300" s="14"/>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>42705</v>
       </c>
@@ -14558,7 +14517,7 @@
       </c>
       <c r="R301" s="14"/>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>42705</v>
       </c>
@@ -14606,7 +14565,7 @@
       </c>
       <c r="R302" s="14"/>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>42705</v>
       </c>
@@ -14654,7 +14613,7 @@
       </c>
       <c r="R303" s="14"/>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>42705</v>
       </c>
@@ -14702,7 +14661,7 @@
       </c>
       <c r="R304" s="14"/>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>42705</v>
       </c>
@@ -14750,7 +14709,7 @@
       </c>
       <c r="R305" s="14"/>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>42736</v>
       </c>
@@ -14798,7 +14757,7 @@
       </c>
       <c r="R306" s="14"/>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>42736</v>
       </c>
@@ -14846,7 +14805,7 @@
       </c>
       <c r="R307" s="14"/>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>42736</v>
       </c>
@@ -14894,7 +14853,7 @@
       </c>
       <c r="R308" s="14"/>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>42736</v>
       </c>
@@ -14942,7 +14901,7 @@
       </c>
       <c r="R309" s="14"/>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>42736</v>
       </c>
@@ -14990,7 +14949,7 @@
       </c>
       <c r="R310" s="14"/>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>42736</v>
       </c>
@@ -15038,7 +14997,7 @@
       </c>
       <c r="R311" s="14"/>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>42767</v>
       </c>
@@ -15086,7 +15045,7 @@
       </c>
       <c r="R312" s="14"/>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>42767</v>
       </c>
@@ -15134,7 +15093,7 @@
       </c>
       <c r="R313" s="14"/>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>42767</v>
       </c>
@@ -15182,7 +15141,7 @@
       </c>
       <c r="R314" s="14"/>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>42767</v>
       </c>
@@ -15230,7 +15189,7 @@
       </c>
       <c r="R315" s="14"/>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>42767</v>
       </c>
@@ -15278,7 +15237,7 @@
       </c>
       <c r="R316" s="14"/>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>42767</v>
       </c>
@@ -15326,7 +15285,7 @@
       </c>
       <c r="R317" s="14"/>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>42795</v>
       </c>
@@ -15374,7 +15333,7 @@
       </c>
       <c r="R318" s="14"/>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>42795</v>
       </c>
@@ -15422,7 +15381,7 @@
       </c>
       <c r="R319" s="14"/>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>42795</v>
       </c>
@@ -15470,7 +15429,7 @@
       </c>
       <c r="R320" s="14"/>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>42795</v>
       </c>
@@ -15518,7 +15477,7 @@
       </c>
       <c r="R321" s="14"/>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>42795</v>
       </c>
@@ -15566,7 +15525,7 @@
       </c>
       <c r="R322" s="14"/>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>42795</v>
       </c>
@@ -15614,7 +15573,7 @@
       </c>
       <c r="R323" s="14"/>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>42826</v>
       </c>
@@ -15662,7 +15621,7 @@
       </c>
       <c r="R324" s="14"/>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>42826</v>
       </c>
@@ -15710,7 +15669,7 @@
       </c>
       <c r="R325" s="14"/>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>42826</v>
       </c>
@@ -15758,7 +15717,7 @@
       </c>
       <c r="R326" s="14"/>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>42826</v>
       </c>
@@ -15806,7 +15765,7 @@
       </c>
       <c r="R327" s="14"/>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>42826</v>
       </c>
@@ -15854,7 +15813,7 @@
       </c>
       <c r="R328" s="14"/>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>42826</v>
       </c>
@@ -15902,7 +15861,7 @@
       </c>
       <c r="R329" s="14"/>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>42856</v>
       </c>
@@ -15950,7 +15909,7 @@
       </c>
       <c r="R330" s="14"/>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>42856</v>
       </c>
@@ -15998,7 +15957,7 @@
       </c>
       <c r="R331" s="14"/>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>42856</v>
       </c>
@@ -16046,7 +16005,7 @@
       </c>
       <c r="R332" s="14"/>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>42856</v>
       </c>
@@ -16094,7 +16053,7 @@
       </c>
       <c r="R333" s="14"/>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>42856</v>
       </c>
@@ -16142,7 +16101,7 @@
       </c>
       <c r="R334" s="14"/>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>42856</v>
       </c>
@@ -16190,7 +16149,7 @@
       </c>
       <c r="R335" s="14"/>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>42887</v>
       </c>
@@ -16238,7 +16197,7 @@
       </c>
       <c r="R336" s="14"/>
     </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>42887</v>
       </c>
@@ -16286,7 +16245,7 @@
       </c>
       <c r="R337" s="14"/>
     </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>42887</v>
       </c>
@@ -16334,7 +16293,7 @@
       </c>
       <c r="R338" s="14"/>
     </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>42887</v>
       </c>
@@ -16382,7 +16341,7 @@
       </c>
       <c r="R339" s="14"/>
     </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>42887</v>
       </c>
@@ -16430,7 +16389,7 @@
       </c>
       <c r="R340" s="14"/>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>42887</v>
       </c>
@@ -16478,7 +16437,7 @@
       </c>
       <c r="R341" s="14"/>
     </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>42917</v>
       </c>
@@ -16526,7 +16485,7 @@
       </c>
       <c r="R342" s="14"/>
     </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>42917</v>
       </c>
@@ -16574,7 +16533,7 @@
       </c>
       <c r="R343" s="14"/>
     </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>42917</v>
       </c>
@@ -16622,7 +16581,7 @@
       </c>
       <c r="R344" s="14"/>
     </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>42917</v>
       </c>
@@ -16670,7 +16629,7 @@
       </c>
       <c r="R345" s="14"/>
     </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>42917</v>
       </c>
@@ -16718,7 +16677,7 @@
       </c>
       <c r="R346" s="14"/>
     </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>42917</v>
       </c>
@@ -16766,7 +16725,7 @@
       </c>
       <c r="R347" s="14"/>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>42948</v>
       </c>
@@ -16814,7 +16773,7 @@
       </c>
       <c r="R348" s="14"/>
     </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>42948</v>
       </c>
@@ -16862,7 +16821,7 @@
       </c>
       <c r="R349" s="14"/>
     </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>42948</v>
       </c>
@@ -16910,7 +16869,7 @@
       </c>
       <c r="R350" s="14"/>
     </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>42948</v>
       </c>
@@ -16958,7 +16917,7 @@
       </c>
       <c r="R351" s="14"/>
     </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>42948</v>
       </c>
@@ -17006,7 +16965,7 @@
       </c>
       <c r="R352" s="14"/>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>42948</v>
       </c>
@@ -17054,7 +17013,7 @@
       </c>
       <c r="R353" s="14"/>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>42979</v>
       </c>
@@ -17102,7 +17061,7 @@
       </c>
       <c r="R354" s="14"/>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>42979</v>
       </c>
@@ -17150,7 +17109,7 @@
       </c>
       <c r="R355" s="14"/>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>42979</v>
       </c>
@@ -17198,7 +17157,7 @@
       </c>
       <c r="R356" s="14"/>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>42979</v>
       </c>
@@ -17246,7 +17205,7 @@
       </c>
       <c r="R357" s="14"/>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>42979</v>
       </c>
@@ -17294,7 +17253,7 @@
       </c>
       <c r="R358" s="14"/>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>42979</v>
       </c>
@@ -17342,7 +17301,7 @@
       </c>
       <c r="R359" s="14"/>
     </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>43009</v>
       </c>
@@ -17390,7 +17349,7 @@
       </c>
       <c r="R360" s="14"/>
     </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>43009</v>
       </c>
@@ -17438,7 +17397,7 @@
       </c>
       <c r="R361" s="14"/>
     </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>43009</v>
       </c>
@@ -17486,7 +17445,7 @@
       </c>
       <c r="R362" s="14"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>43009</v>
       </c>
@@ -17534,7 +17493,7 @@
       </c>
       <c r="R363" s="14"/>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>43009</v>
       </c>
@@ -17582,7 +17541,7 @@
       </c>
       <c r="R364" s="14"/>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>43009</v>
       </c>
@@ -17630,7 +17589,7 @@
       </c>
       <c r="R365" s="14"/>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>43040</v>
       </c>
@@ -17678,7 +17637,7 @@
       </c>
       <c r="R366" s="14"/>
     </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>43040</v>
       </c>
@@ -17726,7 +17685,7 @@
       </c>
       <c r="R367" s="14"/>
     </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>43040</v>
       </c>
@@ -17774,7 +17733,7 @@
       </c>
       <c r="R368" s="14"/>
     </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>43040</v>
       </c>
@@ -17822,7 +17781,7 @@
       </c>
       <c r="R369" s="14"/>
     </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>43040</v>
       </c>
@@ -17870,7 +17829,7 @@
       </c>
       <c r="R370" s="14"/>
     </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>43040</v>
       </c>
@@ -17918,7 +17877,7 @@
       </c>
       <c r="R371" s="14"/>
     </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>43070</v>
       </c>
@@ -17966,7 +17925,7 @@
       </c>
       <c r="R372" s="14"/>
     </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>43070</v>
       </c>
@@ -18014,7 +17973,7 @@
       </c>
       <c r="R373" s="14"/>
     </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>43070</v>
       </c>
@@ -18062,7 +18021,7 @@
       </c>
       <c r="R374" s="14"/>
     </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>43070</v>
       </c>
@@ -18110,7 +18069,7 @@
       </c>
       <c r="R375" s="14"/>
     </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>43070</v>
       </c>
@@ -18158,7 +18117,7 @@
       </c>
       <c r="R376" s="14"/>
     </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>43070</v>
       </c>
@@ -18206,7 +18165,7 @@
       </c>
       <c r="R377" s="14"/>
     </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>43101</v>
       </c>
@@ -18254,7 +18213,7 @@
       </c>
       <c r="R378" s="14"/>
     </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>43101</v>
       </c>
@@ -18302,7 +18261,7 @@
       </c>
       <c r="R379" s="14"/>
     </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>43101</v>
       </c>
@@ -18350,7 +18309,7 @@
       </c>
       <c r="R380" s="14"/>
     </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>43101</v>
       </c>
@@ -18398,7 +18357,7 @@
       </c>
       <c r="R381" s="14"/>
     </row>
-    <row r="382" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>43101</v>
       </c>
@@ -18446,7 +18405,7 @@
       </c>
       <c r="R382" s="14"/>
     </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>43101</v>
       </c>
@@ -18494,7 +18453,7 @@
       </c>
       <c r="R383" s="14"/>
     </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>43132</v>
       </c>
@@ -18542,7 +18501,7 @@
       </c>
       <c r="R384" s="14"/>
     </row>
-    <row r="385" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>43132</v>
       </c>
@@ -18590,7 +18549,7 @@
       </c>
       <c r="R385" s="14"/>
     </row>
-    <row r="386" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>43132</v>
       </c>
@@ -18638,7 +18597,7 @@
       </c>
       <c r="R386" s="14"/>
     </row>
-    <row r="387" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>43132</v>
       </c>
@@ -18686,7 +18645,7 @@
       </c>
       <c r="R387" s="14"/>
     </row>
-    <row r="388" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
         <v>43132</v>
       </c>
@@ -18734,7 +18693,7 @@
       </c>
       <c r="R388" s="14"/>
     </row>
-    <row r="389" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
         <v>43132</v>
       </c>
@@ -18782,7 +18741,7 @@
       </c>
       <c r="R389" s="14"/>
     </row>
-    <row r="390" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>43160</v>
       </c>
@@ -18830,7 +18789,7 @@
       </c>
       <c r="R390" s="14"/>
     </row>
-    <row r="391" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>43160</v>
       </c>
@@ -18878,7 +18837,7 @@
       </c>
       <c r="R391" s="14"/>
     </row>
-    <row r="392" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>43160</v>
       </c>
@@ -18926,7 +18885,7 @@
       </c>
       <c r="R392" s="14"/>
     </row>
-    <row r="393" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
         <v>43160</v>
       </c>
@@ -18974,7 +18933,7 @@
       </c>
       <c r="R393" s="14"/>
     </row>
-    <row r="394" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>43160</v>
       </c>
@@ -19022,7 +18981,7 @@
       </c>
       <c r="R394" s="14"/>
     </row>
-    <row r="395" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
         <v>43160</v>
       </c>
@@ -19070,7 +19029,7 @@
       </c>
       <c r="R395" s="14"/>
     </row>
-    <row r="396" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
         <v>43191</v>
       </c>
@@ -19118,7 +19077,7 @@
       </c>
       <c r="R396" s="14"/>
     </row>
-    <row r="397" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
         <v>43191</v>
       </c>
@@ -19166,7 +19125,7 @@
       </c>
       <c r="R397" s="14"/>
     </row>
-    <row r="398" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
         <v>43191</v>
       </c>
@@ -19214,7 +19173,7 @@
       </c>
       <c r="R398" s="14"/>
     </row>
-    <row r="399" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>43191</v>
       </c>
@@ -19262,7 +19221,7 @@
       </c>
       <c r="R399" s="14"/>
     </row>
-    <row r="400" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>43191</v>
       </c>
@@ -19310,7 +19269,7 @@
       </c>
       <c r="R400" s="14"/>
     </row>
-    <row r="401" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
         <v>43191</v>
       </c>
@@ -19358,7 +19317,7 @@
       </c>
       <c r="R401" s="14"/>
     </row>
-    <row r="402" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
         <v>43221</v>
       </c>
@@ -19406,7 +19365,7 @@
       </c>
       <c r="R402" s="14"/>
     </row>
-    <row r="403" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
         <v>43221</v>
       </c>
@@ -19454,7 +19413,7 @@
       </c>
       <c r="R403" s="14"/>
     </row>
-    <row r="404" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
         <v>43221</v>
       </c>
@@ -19502,7 +19461,7 @@
       </c>
       <c r="R404" s="14"/>
     </row>
-    <row r="405" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
         <v>43221</v>
       </c>
@@ -19550,7 +19509,7 @@
       </c>
       <c r="R405" s="14"/>
     </row>
-    <row r="406" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
         <v>43221</v>
       </c>
@@ -19598,7 +19557,7 @@
       </c>
       <c r="R406" s="14"/>
     </row>
-    <row r="407" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
         <v>43221</v>
       </c>
@@ -19646,7 +19605,7 @@
       </c>
       <c r="R407" s="14"/>
     </row>
-    <row r="408" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
         <v>43252</v>
       </c>
@@ -19694,7 +19653,7 @@
       </c>
       <c r="R408" s="14"/>
     </row>
-    <row r="409" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>43252</v>
       </c>
@@ -19742,7 +19701,7 @@
       </c>
       <c r="R409" s="14"/>
     </row>
-    <row r="410" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
         <v>43252</v>
       </c>
@@ -19790,7 +19749,7 @@
       </c>
       <c r="R410" s="14"/>
     </row>
-    <row r="411" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
         <v>43252</v>
       </c>
@@ -19838,7 +19797,7 @@
       </c>
       <c r="R411" s="14"/>
     </row>
-    <row r="412" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
         <v>43252</v>
       </c>
@@ -19886,7 +19845,7 @@
       </c>
       <c r="R412" s="14"/>
     </row>
-    <row r="413" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
         <v>43252</v>
       </c>
@@ -19934,7 +19893,7 @@
       </c>
       <c r="R413" s="14"/>
     </row>
-    <row r="414" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
         <v>43282</v>
       </c>
@@ -19982,7 +19941,7 @@
       </c>
       <c r="R414" s="14"/>
     </row>
-    <row r="415" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
         <v>43282</v>
       </c>
@@ -20030,7 +19989,7 @@
       </c>
       <c r="R415" s="14"/>
     </row>
-    <row r="416" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
         <v>43282</v>
       </c>
@@ -20078,7 +20037,7 @@
       </c>
       <c r="R416" s="14"/>
     </row>
-    <row r="417" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
         <v>43282</v>
       </c>
@@ -20126,7 +20085,7 @@
       </c>
       <c r="R417" s="14"/>
     </row>
-    <row r="418" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A418" s="2">
         <v>43282</v>
       </c>
@@ -20174,7 +20133,7 @@
       </c>
       <c r="R418" s="14"/>
     </row>
-    <row r="419" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A419" s="2">
         <v>43282</v>
       </c>
@@ -20222,7 +20181,7 @@
       </c>
       <c r="R419" s="14"/>
     </row>
-    <row r="420" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A420" s="2">
         <v>43313</v>
       </c>
@@ -20270,7 +20229,7 @@
       </c>
       <c r="R420" s="14"/>
     </row>
-    <row r="421" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
         <v>43313</v>
       </c>
@@ -20318,7 +20277,7 @@
       </c>
       <c r="R421" s="14"/>
     </row>
-    <row r="422" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
         <v>43313</v>
       </c>
@@ -20366,7 +20325,7 @@
       </c>
       <c r="R422" s="14"/>
     </row>
-    <row r="423" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
         <v>43313</v>
       </c>
@@ -20414,7 +20373,7 @@
       </c>
       <c r="R423" s="14"/>
     </row>
-    <row r="424" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
         <v>43313</v>
       </c>
@@ -20462,7 +20421,7 @@
       </c>
       <c r="R424" s="14"/>
     </row>
-    <row r="425" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
         <v>43313</v>
       </c>
@@ -20510,7 +20469,7 @@
       </c>
       <c r="R425" s="14"/>
     </row>
-    <row r="426" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
         <v>43344</v>
       </c>
@@ -20558,7 +20517,7 @@
       </c>
       <c r="R426" s="14"/>
     </row>
-    <row r="427" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
         <v>43344</v>
       </c>
@@ -20606,7 +20565,7 @@
       </c>
       <c r="R427" s="14"/>
     </row>
-    <row r="428" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
         <v>43344</v>
       </c>
@@ -20654,7 +20613,7 @@
       </c>
       <c r="R428" s="14"/>
     </row>
-    <row r="429" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
         <v>43344</v>
       </c>
@@ -20702,7 +20661,7 @@
       </c>
       <c r="R429" s="14"/>
     </row>
-    <row r="430" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
         <v>43344</v>
       </c>
@@ -20750,7 +20709,7 @@
       </c>
       <c r="R430" s="14"/>
     </row>
-    <row r="431" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
         <v>43344</v>
       </c>
@@ -20798,7 +20757,7 @@
       </c>
       <c r="R431" s="14"/>
     </row>
-    <row r="432" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
         <v>43374</v>
       </c>
@@ -20846,7 +20805,7 @@
       </c>
       <c r="R432" s="14"/>
     </row>
-    <row r="433" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
         <v>43374</v>
       </c>
@@ -20894,7 +20853,7 @@
       </c>
       <c r="R433" s="14"/>
     </row>
-    <row r="434" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
         <v>43374</v>
       </c>
@@ -20942,7 +20901,7 @@
       </c>
       <c r="R434" s="14"/>
     </row>
-    <row r="435" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
         <v>43374</v>
       </c>
@@ -20990,7 +20949,7 @@
       </c>
       <c r="R435" s="14"/>
     </row>
-    <row r="436" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
         <v>43374</v>
       </c>
@@ -21038,7 +20997,7 @@
       </c>
       <c r="R436" s="14"/>
     </row>
-    <row r="437" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
         <v>43374</v>
       </c>
@@ -21086,7 +21045,7 @@
       </c>
       <c r="R437" s="14"/>
     </row>
-    <row r="438" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
         <v>43405</v>
       </c>
@@ -21134,7 +21093,7 @@
       </c>
       <c r="R438" s="14"/>
     </row>
-    <row r="439" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
         <v>43405</v>
       </c>
@@ -21182,7 +21141,7 @@
       </c>
       <c r="R439" s="14"/>
     </row>
-    <row r="440" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
         <v>43405</v>
       </c>
@@ -21230,7 +21189,7 @@
       </c>
       <c r="R440" s="14"/>
     </row>
-    <row r="441" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
         <v>43405</v>
       </c>
@@ -21278,7 +21237,7 @@
       </c>
       <c r="R441" s="14"/>
     </row>
-    <row r="442" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
         <v>43405</v>
       </c>
@@ -21326,7 +21285,7 @@
       </c>
       <c r="R442" s="14"/>
     </row>
-    <row r="443" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
         <v>43405</v>
       </c>
@@ -21374,7 +21333,7 @@
       </c>
       <c r="R443" s="14"/>
     </row>
-    <row r="444" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
         <v>43435</v>
       </c>
@@ -21422,7 +21381,7 @@
       </c>
       <c r="R444" s="14"/>
     </row>
-    <row r="445" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
         <v>43435</v>
       </c>
@@ -21470,7 +21429,7 @@
       </c>
       <c r="R445" s="14"/>
     </row>
-    <row r="446" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
         <v>43435</v>
       </c>
@@ -21518,7 +21477,7 @@
       </c>
       <c r="R446" s="14"/>
     </row>
-    <row r="447" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
         <v>43435</v>
       </c>
@@ -21566,7 +21525,7 @@
       </c>
       <c r="R447" s="14"/>
     </row>
-    <row r="448" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A448" s="2">
         <v>43435</v>
       </c>
@@ -21614,7 +21573,7 @@
       </c>
       <c r="R448" s="14"/>
     </row>
-    <row r="449" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
         <v>43435</v>
       </c>
@@ -21662,7 +21621,7 @@
       </c>
       <c r="R449" s="14"/>
     </row>
-    <row r="450" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A450" s="12">
         <v>43466</v>
       </c>
@@ -21710,7 +21669,7 @@
       </c>
       <c r="R450" s="14"/>
     </row>
-    <row r="451" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A451" s="12">
         <v>43466</v>
       </c>
@@ -21758,7 +21717,7 @@
       </c>
       <c r="R451" s="14"/>
     </row>
-    <row r="452" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A452" s="12">
         <v>43466</v>
       </c>
@@ -21806,7 +21765,7 @@
       </c>
       <c r="R452" s="14"/>
     </row>
-    <row r="453" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A453" s="12">
         <v>43466</v>
       </c>
@@ -21854,7 +21813,7 @@
       </c>
       <c r="R453" s="14"/>
     </row>
-    <row r="454" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A454" s="12">
         <v>43466</v>
       </c>
@@ -21902,7 +21861,7 @@
       </c>
       <c r="R454" s="14"/>
     </row>
-    <row r="455" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A455" s="12">
         <v>43466</v>
       </c>
@@ -21950,7 +21909,7 @@
       </c>
       <c r="R455" s="14"/>
     </row>
-    <row r="456" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A456" s="12">
         <v>43497</v>
       </c>
@@ -21998,7 +21957,7 @@
       </c>
       <c r="R456" s="14"/>
     </row>
-    <row r="457" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A457" s="12">
         <v>43497</v>
       </c>
@@ -22046,7 +22005,7 @@
       </c>
       <c r="R457" s="14"/>
     </row>
-    <row r="458" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A458" s="12">
         <v>43497</v>
       </c>
@@ -22094,7 +22053,7 @@
       </c>
       <c r="R458" s="14"/>
     </row>
-    <row r="459" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A459" s="12">
         <v>43497</v>
       </c>
@@ -22142,7 +22101,7 @@
       </c>
       <c r="R459" s="14"/>
     </row>
-    <row r="460" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A460" s="12">
         <v>43497</v>
       </c>
@@ -22190,7 +22149,7 @@
       </c>
       <c r="R460" s="14"/>
     </row>
-    <row r="461" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A461" s="12">
         <v>43497</v>
       </c>
@@ -22238,7 +22197,7 @@
       </c>
       <c r="R461" s="14"/>
     </row>
-    <row r="462" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A462" s="12">
         <v>43525</v>
       </c>
@@ -22286,7 +22245,7 @@
       </c>
       <c r="R462" s="14"/>
     </row>
-    <row r="463" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A463" s="12">
         <v>43525</v>
       </c>
@@ -22334,7 +22293,7 @@
       </c>
       <c r="R463" s="14"/>
     </row>
-    <row r="464" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A464" s="12">
         <v>43525</v>
       </c>
@@ -22382,7 +22341,7 @@
       </c>
       <c r="R464" s="14"/>
     </row>
-    <row r="465" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A465" s="12">
         <v>43525</v>
       </c>
@@ -22430,7 +22389,7 @@
       </c>
       <c r="R465" s="14"/>
     </row>
-    <row r="466" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A466" s="12">
         <v>43525</v>
       </c>
@@ -22478,7 +22437,7 @@
       </c>
       <c r="R466" s="14"/>
     </row>
-    <row r="467" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A467" s="12">
         <v>43525</v>
       </c>
@@ -22526,7 +22485,7 @@
       </c>
       <c r="R467" s="14"/>
     </row>
-    <row r="468" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A468" s="12">
         <v>43556</v>
       </c>
@@ -22574,7 +22533,7 @@
       </c>
       <c r="R468" s="14"/>
     </row>
-    <row r="469" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A469" s="12">
         <v>43556</v>
       </c>
@@ -22622,7 +22581,7 @@
       </c>
       <c r="R469" s="14"/>
     </row>
-    <row r="470" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A470" s="12">
         <v>43556</v>
       </c>
@@ -22670,7 +22629,7 @@
       </c>
       <c r="R470" s="14"/>
     </row>
-    <row r="471" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A471" s="12">
         <v>43556</v>
       </c>
@@ -22718,7 +22677,7 @@
       </c>
       <c r="R471" s="14"/>
     </row>
-    <row r="472" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A472" s="12">
         <v>43556</v>
       </c>
@@ -22766,7 +22725,7 @@
       </c>
       <c r="R472" s="14"/>
     </row>
-    <row r="473" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A473" s="12">
         <v>43556</v>
       </c>
@@ -22814,7 +22773,7 @@
       </c>
       <c r="R473" s="14"/>
     </row>
-    <row r="474" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A474" s="12">
         <v>43586</v>
       </c>
@@ -22862,7 +22821,7 @@
       </c>
       <c r="R474" s="14"/>
     </row>
-    <row r="475" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A475" s="12">
         <v>43586</v>
       </c>
@@ -22910,7 +22869,7 @@
       </c>
       <c r="R475" s="14"/>
     </row>
-    <row r="476" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A476" s="12">
         <v>43586</v>
       </c>
@@ -22958,7 +22917,7 @@
       </c>
       <c r="R476" s="14"/>
     </row>
-    <row r="477" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A477" s="12">
         <v>43586</v>
       </c>
@@ -23006,7 +22965,7 @@
       </c>
       <c r="R477" s="14"/>
     </row>
-    <row r="478" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A478" s="12">
         <v>43586</v>
       </c>
@@ -23054,7 +23013,7 @@
       </c>
       <c r="R478" s="14"/>
     </row>
-    <row r="479" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A479" s="12">
         <v>43586</v>
       </c>
@@ -23102,7 +23061,7 @@
       </c>
       <c r="R479" s="14"/>
     </row>
-    <row r="480" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A480" s="12">
         <v>43617</v>
       </c>
@@ -23150,7 +23109,7 @@
       </c>
       <c r="R480" s="14"/>
     </row>
-    <row r="481" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A481" s="12">
         <v>43617</v>
       </c>
@@ -23198,7 +23157,7 @@
       </c>
       <c r="R481" s="14"/>
     </row>
-    <row r="482" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A482" s="12">
         <v>43617</v>
       </c>
@@ -23246,7 +23205,7 @@
       </c>
       <c r="R482" s="14"/>
     </row>
-    <row r="483" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A483" s="12">
         <v>43617</v>
       </c>
@@ -23294,7 +23253,7 @@
       </c>
       <c r="R483" s="14"/>
     </row>
-    <row r="484" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A484" s="12">
         <v>43617</v>
       </c>
@@ -23342,7 +23301,7 @@
       </c>
       <c r="R484" s="14"/>
     </row>
-    <row r="485" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A485" s="12">
         <v>43617</v>
       </c>
@@ -23390,7 +23349,7 @@
       </c>
       <c r="R485" s="14"/>
     </row>
-    <row r="486" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A486" s="12">
         <v>43647</v>
       </c>
@@ -23438,7 +23397,7 @@
       </c>
       <c r="R486" s="14"/>
     </row>
-    <row r="487" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A487" s="12">
         <v>43647</v>
       </c>
@@ -23486,7 +23445,7 @@
       </c>
       <c r="R487" s="14"/>
     </row>
-    <row r="488" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A488" s="12">
         <v>43647</v>
       </c>
@@ -23534,7 +23493,7 @@
       </c>
       <c r="R488" s="14"/>
     </row>
-    <row r="489" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A489" s="12">
         <v>43647</v>
       </c>
@@ -23582,7 +23541,7 @@
       </c>
       <c r="R489" s="14"/>
     </row>
-    <row r="490" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A490" s="12">
         <v>43647</v>
       </c>
@@ -23630,7 +23589,7 @@
       </c>
       <c r="R490" s="14"/>
     </row>
-    <row r="491" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A491" s="12">
         <v>43647</v>
       </c>
@@ -23678,7 +23637,7 @@
       </c>
       <c r="R491" s="14"/>
     </row>
-    <row r="492" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A492" s="12">
         <v>43678</v>
       </c>
@@ -23726,7 +23685,7 @@
       </c>
       <c r="R492" s="14"/>
     </row>
-    <row r="493" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A493" s="12">
         <v>43678</v>
       </c>
@@ -23774,7 +23733,7 @@
       </c>
       <c r="R493" s="14"/>
     </row>
-    <row r="494" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A494" s="12">
         <v>43678</v>
       </c>
@@ -23822,7 +23781,7 @@
       </c>
       <c r="R494" s="14"/>
     </row>
-    <row r="495" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A495" s="12">
         <v>43678</v>
       </c>
@@ -23870,7 +23829,7 @@
       </c>
       <c r="R495" s="14"/>
     </row>
-    <row r="496" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A496" s="12">
         <v>43678</v>
       </c>
@@ -23918,7 +23877,7 @@
       </c>
       <c r="R496" s="14"/>
     </row>
-    <row r="497" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A497" s="12">
         <v>43678</v>
       </c>
@@ -23966,7 +23925,7 @@
       </c>
       <c r="R497" s="14"/>
     </row>
-    <row r="498" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A498" s="12">
         <v>43709</v>
       </c>
@@ -24014,7 +23973,7 @@
       </c>
       <c r="R498" s="14"/>
     </row>
-    <row r="499" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A499" s="12">
         <v>43709</v>
       </c>
@@ -24062,7 +24021,7 @@
       </c>
       <c r="R499" s="14"/>
     </row>
-    <row r="500" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A500" s="12">
         <v>43709</v>
       </c>
@@ -24110,7 +24069,7 @@
       </c>
       <c r="R500" s="14"/>
     </row>
-    <row r="501" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A501" s="12">
         <v>43709</v>
       </c>
@@ -24158,7 +24117,7 @@
       </c>
       <c r="R501" s="14"/>
     </row>
-    <row r="502" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A502" s="12">
         <v>43709</v>
       </c>
@@ -24206,7 +24165,7 @@
       </c>
       <c r="R502" s="14"/>
     </row>
-    <row r="503" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A503" s="12">
         <v>43709</v>
       </c>
@@ -24254,7 +24213,7 @@
       </c>
       <c r="R503" s="14"/>
     </row>
-    <row r="504" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A504" s="12">
         <v>43739</v>
       </c>
@@ -24302,7 +24261,7 @@
       </c>
       <c r="R504" s="14"/>
     </row>
-    <row r="505" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A505" s="12">
         <v>43739</v>
       </c>
@@ -24350,7 +24309,7 @@
       </c>
       <c r="R505" s="14"/>
     </row>
-    <row r="506" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A506" s="12">
         <v>43739</v>
       </c>
@@ -24398,7 +24357,7 @@
       </c>
       <c r="R506" s="14"/>
     </row>
-    <row r="507" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A507" s="12">
         <v>43739</v>
       </c>
@@ -24446,7 +24405,7 @@
       </c>
       <c r="R507" s="14"/>
     </row>
-    <row r="508" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A508" s="12">
         <v>43739</v>
       </c>
@@ -24494,7 +24453,7 @@
       </c>
       <c r="R508" s="14"/>
     </row>
-    <row r="509" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A509" s="12">
         <v>43739</v>
       </c>
@@ -24542,7 +24501,7 @@
       </c>
       <c r="R509" s="14"/>
     </row>
-    <row r="510" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A510" s="12">
         <v>43770</v>
       </c>
@@ -24590,7 +24549,7 @@
       </c>
       <c r="R510" s="14"/>
     </row>
-    <row r="511" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A511" s="12">
         <v>43770</v>
       </c>
@@ -24638,7 +24597,7 @@
       </c>
       <c r="R511" s="14"/>
     </row>
-    <row r="512" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A512" s="12">
         <v>43770</v>
       </c>
@@ -24686,7 +24645,7 @@
       </c>
       <c r="R512" s="14"/>
     </row>
-    <row r="513" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A513" s="12">
         <v>43770</v>
       </c>
@@ -24734,7 +24693,7 @@
       </c>
       <c r="R513" s="14"/>
     </row>
-    <row r="514" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A514" s="12">
         <v>43770</v>
       </c>
@@ -24782,7 +24741,7 @@
       </c>
       <c r="R514" s="14"/>
     </row>
-    <row r="515" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A515" s="12">
         <v>43770</v>
       </c>
@@ -24830,7 +24789,7 @@
       </c>
       <c r="R515" s="14"/>
     </row>
-    <row r="516" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A516" s="12">
         <v>43800</v>
       </c>
@@ -24878,7 +24837,7 @@
       </c>
       <c r="R516" s="14"/>
     </row>
-    <row r="517" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A517" s="12">
         <v>43800</v>
       </c>
@@ -24926,7 +24885,7 @@
       </c>
       <c r="R517" s="14"/>
     </row>
-    <row r="518" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A518" s="12">
         <v>43800</v>
       </c>
@@ -24974,7 +24933,7 @@
       </c>
       <c r="R518" s="14"/>
     </row>
-    <row r="519" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A519" s="12">
         <v>43800</v>
       </c>
@@ -25022,7 +24981,7 @@
       </c>
       <c r="R519" s="14"/>
     </row>
-    <row r="520" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A520" s="12">
         <v>43800</v>
       </c>
@@ -25070,7 +25029,7 @@
       </c>
       <c r="R520" s="14"/>
     </row>
-    <row r="521" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A521" s="12">
         <v>43800</v>
       </c>
@@ -25118,7 +25077,7 @@
       </c>
       <c r="R521" s="14"/>
     </row>
-    <row r="522" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A522" s="12">
         <v>43831</v>
       </c>
@@ -25166,7 +25125,7 @@
       </c>
       <c r="R522" s="14"/>
     </row>
-    <row r="523" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A523" s="12">
         <v>43831</v>
       </c>
@@ -25214,7 +25173,7 @@
       </c>
       <c r="R523" s="14"/>
     </row>
-    <row r="524" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A524" s="12">
         <v>43831</v>
       </c>
@@ -25262,7 +25221,7 @@
       </c>
       <c r="R524" s="14"/>
     </row>
-    <row r="525" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A525" s="12">
         <v>43831</v>
       </c>
@@ -25310,7 +25269,7 @@
       </c>
       <c r="R525" s="14"/>
     </row>
-    <row r="526" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A526" s="12">
         <v>43831</v>
       </c>
@@ -25358,7 +25317,7 @@
       </c>
       <c r="R526" s="14"/>
     </row>
-    <row r="527" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A527" s="12">
         <v>43831</v>
       </c>
@@ -25406,7 +25365,7 @@
       </c>
       <c r="R527" s="14"/>
     </row>
-    <row r="528" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A528" s="12">
         <v>43862</v>
       </c>
@@ -25454,7 +25413,7 @@
       </c>
       <c r="R528" s="14"/>
     </row>
-    <row r="529" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A529" s="12">
         <v>43862</v>
       </c>
@@ -25502,7 +25461,7 @@
       </c>
       <c r="R529" s="14"/>
     </row>
-    <row r="530" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A530" s="12">
         <v>43862</v>
       </c>
@@ -25550,7 +25509,7 @@
       </c>
       <c r="R530" s="14"/>
     </row>
-    <row r="531" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A531" s="12">
         <v>43862</v>
       </c>
@@ -25598,7 +25557,7 @@
       </c>
       <c r="R531" s="14"/>
     </row>
-    <row r="532" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A532" s="12">
         <v>43862</v>
       </c>
@@ -25646,7 +25605,7 @@
       </c>
       <c r="R532" s="14"/>
     </row>
-    <row r="533" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A533" s="12">
         <v>43862</v>
       </c>
@@ -25694,7 +25653,7 @@
       </c>
       <c r="R533" s="14"/>
     </row>
-    <row r="534" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A534" s="12">
         <v>43891</v>
       </c>
@@ -25742,7 +25701,7 @@
       </c>
       <c r="R534" s="14"/>
     </row>
-    <row r="535" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A535" s="12">
         <v>43891</v>
       </c>
@@ -25790,7 +25749,7 @@
       </c>
       <c r="R535" s="14"/>
     </row>
-    <row r="536" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A536" s="12">
         <v>43891</v>
       </c>
@@ -25838,7 +25797,7 @@
       </c>
       <c r="R536" s="14"/>
     </row>
-    <row r="537" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A537" s="12">
         <v>43891</v>
       </c>
@@ -25886,7 +25845,7 @@
       </c>
       <c r="R537" s="14"/>
     </row>
-    <row r="538" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A538" s="12">
         <v>43891</v>
       </c>
@@ -25934,7 +25893,7 @@
       </c>
       <c r="R538" s="14"/>
     </row>
-    <row r="539" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A539" s="12">
         <v>43891</v>
       </c>
@@ -25982,7 +25941,7 @@
       </c>
       <c r="R539" s="14"/>
     </row>
-    <row r="540" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A540" s="12">
         <v>43922</v>
       </c>
@@ -26030,7 +25989,7 @@
       </c>
       <c r="R540" s="14"/>
     </row>
-    <row r="541" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A541" s="12">
         <v>43922</v>
       </c>
@@ -26078,7 +26037,7 @@
       </c>
       <c r="R541" s="14"/>
     </row>
-    <row r="542" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A542" s="12">
         <v>43922</v>
       </c>
@@ -26126,7 +26085,7 @@
       </c>
       <c r="R542" s="14"/>
     </row>
-    <row r="543" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A543" s="12">
         <v>43922</v>
       </c>
@@ -26174,7 +26133,7 @@
       </c>
       <c r="R543" s="14"/>
     </row>
-    <row r="544" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A544" s="12">
         <v>43922</v>
       </c>
@@ -26222,7 +26181,7 @@
       </c>
       <c r="R544" s="14"/>
     </row>
-    <row r="545" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A545" s="12">
         <v>43922</v>
       </c>
@@ -26270,7 +26229,7 @@
       </c>
       <c r="R545" s="14"/>
     </row>
-    <row r="546" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A546" s="12">
         <v>43952</v>
       </c>
@@ -26318,7 +26277,7 @@
       </c>
       <c r="R546" s="14"/>
     </row>
-    <row r="547" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A547" s="12">
         <v>43952</v>
       </c>
@@ -26366,7 +26325,7 @@
       </c>
       <c r="R547" s="14"/>
     </row>
-    <row r="548" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A548" s="12">
         <v>43952</v>
       </c>
@@ -26414,7 +26373,7 @@
       </c>
       <c r="R548" s="14"/>
     </row>
-    <row r="549" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A549" s="12">
         <v>43952</v>
       </c>
@@ -26462,7 +26421,7 @@
       </c>
       <c r="R549" s="14"/>
     </row>
-    <row r="550" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A550" s="12">
         <v>43952</v>
       </c>
@@ -26510,7 +26469,7 @@
       </c>
       <c r="R550" s="14"/>
     </row>
-    <row r="551" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A551" s="12">
         <v>43952</v>
       </c>
@@ -26558,7 +26517,7 @@
       </c>
       <c r="R551" s="14"/>
     </row>
-    <row r="552" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A552" s="12">
         <v>43983</v>
       </c>
@@ -26606,7 +26565,7 @@
       </c>
       <c r="R552" s="14"/>
     </row>
-    <row r="553" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A553" s="12">
         <v>43983</v>
       </c>
@@ -26654,7 +26613,7 @@
       </c>
       <c r="R553" s="14"/>
     </row>
-    <row r="554" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A554" s="12">
         <v>43983</v>
       </c>
@@ -26702,7 +26661,7 @@
       </c>
       <c r="R554" s="14"/>
     </row>
-    <row r="555" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A555" s="12">
         <v>43983</v>
       </c>
@@ -26750,7 +26709,7 @@
       </c>
       <c r="R555" s="14"/>
     </row>
-    <row r="556" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A556" s="12">
         <v>43983</v>
       </c>
@@ -26798,7 +26757,7 @@
       </c>
       <c r="R556" s="14"/>
     </row>
-    <row r="557" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A557" s="12">
         <v>43983</v>
       </c>
@@ -26846,7 +26805,7 @@
       </c>
       <c r="R557" s="14"/>
     </row>
-    <row r="558" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A558" s="12">
         <v>44013</v>
       </c>
@@ -26894,7 +26853,7 @@
       </c>
       <c r="R558" s="14"/>
     </row>
-    <row r="559" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A559" s="12">
         <v>44013</v>
       </c>
@@ -26942,7 +26901,7 @@
       </c>
       <c r="R559" s="14"/>
     </row>
-    <row r="560" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A560" s="12">
         <v>44013</v>
       </c>
@@ -26990,7 +26949,7 @@
       </c>
       <c r="R560" s="14"/>
     </row>
-    <row r="561" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A561" s="12">
         <v>44013</v>
       </c>
@@ -27038,7 +26997,7 @@
       </c>
       <c r="R561" s="14"/>
     </row>
-    <row r="562" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A562" s="12">
         <v>44013</v>
       </c>
@@ -27086,7 +27045,7 @@
       </c>
       <c r="R562" s="14"/>
     </row>
-    <row r="563" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A563" s="12">
         <v>44013</v>
       </c>
@@ -27134,7 +27093,7 @@
       </c>
       <c r="R563" s="14"/>
     </row>
-    <row r="564" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A564" s="12">
         <v>44044</v>
       </c>
@@ -27182,7 +27141,7 @@
       </c>
       <c r="R564" s="14"/>
     </row>
-    <row r="565" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A565" s="12">
         <v>44044</v>
       </c>
@@ -27230,7 +27189,7 @@
       </c>
       <c r="R565" s="14"/>
     </row>
-    <row r="566" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A566" s="12">
         <v>44044</v>
       </c>
@@ -27278,7 +27237,7 @@
       </c>
       <c r="R566" s="14"/>
     </row>
-    <row r="567" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A567" s="12">
         <v>44044</v>
       </c>
@@ -27326,7 +27285,7 @@
       </c>
       <c r="R567" s="14"/>
     </row>
-    <row r="568" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A568" s="12">
         <v>44044</v>
       </c>
@@ -27374,7 +27333,7 @@
       </c>
       <c r="R568" s="14"/>
     </row>
-    <row r="569" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A569" s="12">
         <v>44044</v>
       </c>
@@ -27422,7 +27381,7 @@
       </c>
       <c r="R569" s="14"/>
     </row>
-    <row r="570" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A570" s="12">
         <v>44105</v>
       </c>
@@ -27470,7 +27429,7 @@
       </c>
       <c r="R570" s="14"/>
     </row>
-    <row r="571" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A571" s="12">
         <v>44105</v>
       </c>
@@ -27518,7 +27477,7 @@
       </c>
       <c r="R571" s="14"/>
     </row>
-    <row r="572" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A572" s="12">
         <v>44105</v>
       </c>
@@ -27566,7 +27525,7 @@
       </c>
       <c r="R572" s="14"/>
     </row>
-    <row r="573" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A573" s="12">
         <v>44105</v>
       </c>
@@ -27614,7 +27573,7 @@
       </c>
       <c r="R573" s="14"/>
     </row>
-    <row r="574" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A574" s="12">
         <v>44105</v>
       </c>
@@ -27662,7 +27621,7 @@
       </c>
       <c r="R574" s="14"/>
     </row>
-    <row r="575" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A575" s="12">
         <v>44105</v>
       </c>
@@ -27710,7 +27669,7 @@
       </c>
       <c r="R575" s="14"/>
     </row>
-    <row r="576" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A576" s="12">
         <v>44105</v>
       </c>
@@ -27758,7 +27717,7 @@
       </c>
       <c r="R576" s="14"/>
     </row>
-    <row r="577" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A577" s="12">
         <v>44136</v>
       </c>
@@ -27806,7 +27765,7 @@
       </c>
       <c r="R577" s="14"/>
     </row>
-    <row r="578" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A578" s="12">
         <v>44136</v>
       </c>
@@ -27854,7 +27813,7 @@
       </c>
       <c r="R578" s="14"/>
     </row>
-    <row r="579" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A579" s="12">
         <v>44136</v>
       </c>
@@ -27902,7 +27861,7 @@
       </c>
       <c r="R579" s="14"/>
     </row>
-    <row r="580" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A580" s="12">
         <v>44136</v>
       </c>
@@ -27950,7 +27909,7 @@
       </c>
       <c r="R580" s="14"/>
     </row>
-    <row r="581" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A581" s="12">
         <v>44136</v>
       </c>
@@ -27998,7 +27957,7 @@
       </c>
       <c r="R581" s="14"/>
     </row>
-    <row r="582" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A582" s="12">
         <v>44136</v>
       </c>
@@ -28046,7 +28005,7 @@
       </c>
       <c r="R582" s="14"/>
     </row>
-    <row r="583" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A583" s="12">
         <v>44136</v>
       </c>
@@ -28094,7 +28053,7 @@
       </c>
       <c r="R583" s="14"/>
     </row>
-    <row r="584" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A584" s="12">
         <v>44166</v>
       </c>
@@ -28142,7 +28101,7 @@
       </c>
       <c r="R584" s="14"/>
     </row>
-    <row r="585" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A585" s="12">
         <v>44166</v>
       </c>
@@ -28190,7 +28149,7 @@
       </c>
       <c r="R585" s="14"/>
     </row>
-    <row r="586" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A586" s="12">
         <v>44166</v>
       </c>
@@ -28238,7 +28197,7 @@
       </c>
       <c r="R586" s="14"/>
     </row>
-    <row r="587" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A587" s="12">
         <v>44166</v>
       </c>
@@ -28286,7 +28245,7 @@
       </c>
       <c r="R587" s="14"/>
     </row>
-    <row r="588" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A588" s="12">
         <v>44166</v>
       </c>
@@ -28334,7 +28293,7 @@
       </c>
       <c r="R588" s="14"/>
     </row>
-    <row r="589" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A589" s="12">
         <v>44166</v>
       </c>
@@ -28382,7 +28341,7 @@
       </c>
       <c r="R589" s="14"/>
     </row>
-    <row r="590" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A590" s="12">
         <v>44166</v>
       </c>
@@ -28430,7 +28389,7 @@
       </c>
       <c r="R590" s="14"/>
     </row>
-    <row r="591" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A591" s="12">
         <v>44197</v>
       </c>
@@ -28477,7 +28436,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="592" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A592" s="12">
         <v>44197</v>
       </c>
@@ -28524,7 +28483,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="593" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A593" s="12">
         <v>44197</v>
       </c>
@@ -28571,7 +28530,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="594" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A594" s="12">
         <v>44197</v>
       </c>
@@ -28618,7 +28577,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="595" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A595" s="12">
         <v>44197</v>
       </c>
@@ -28665,7 +28624,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="596" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A596" s="12">
         <v>44197</v>
       </c>
@@ -28712,7 +28671,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="597" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A597" s="12">
         <v>44197</v>
       </c>
@@ -28759,7 +28718,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="598" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A598" s="12">
         <v>44228</v>
       </c>
@@ -28806,7 +28765,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="599" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A599" s="12">
         <v>44228</v>
       </c>
@@ -28853,7 +28812,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="600" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A600" s="12">
         <v>44228</v>
       </c>
@@ -28900,7 +28859,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="601" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A601" s="12">
         <v>44228</v>
       </c>
@@ -28947,7 +28906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="602" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A602" s="12">
         <v>44228</v>
       </c>
@@ -28994,7 +28953,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="603" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A603" s="12">
         <v>44228</v>
       </c>
@@ -29041,7 +29000,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="604" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A604" s="12">
         <v>44228</v>
       </c>
@@ -29088,7 +29047,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="605" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A605" s="12">
         <v>44256</v>
       </c>
@@ -29135,7 +29094,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="606" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A606" s="12">
         <v>44256</v>
       </c>
@@ -29182,7 +29141,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="607" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A607" s="12">
         <v>44256</v>
       </c>
@@ -29229,7 +29188,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="608" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A608" s="12">
         <v>44256</v>
       </c>
@@ -29276,7 +29235,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="609" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A609" s="12">
         <v>44256</v>
       </c>
@@ -29323,7 +29282,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="610" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A610" s="12">
         <v>44256</v>
       </c>
@@ -29370,7 +29329,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="611" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A611" s="12">
         <v>44256</v>
       </c>
@@ -29417,7 +29376,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="612" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A612" s="12">
         <v>44287</v>
       </c>
@@ -29464,7 +29423,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="613" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A613" s="12">
         <v>44287</v>
       </c>
@@ -29511,7 +29470,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="614" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A614" s="12">
         <v>44287</v>
       </c>
@@ -29558,7 +29517,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="615" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A615" s="12">
         <v>44287</v>
       </c>
@@ -29605,7 +29564,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="616" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A616" s="12">
         <v>44287</v>
       </c>
@@ -29652,7 +29611,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="617" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A617" s="12">
         <v>44287</v>
       </c>
@@ -29699,7 +29658,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="618" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A618" s="12">
         <v>44287</v>
       </c>
@@ -29746,7 +29705,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="619" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A619" s="12">
         <v>44317</v>
       </c>
@@ -29793,7 +29752,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="620" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A620" s="12">
         <v>44317</v>
       </c>
@@ -29840,7 +29799,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="621" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A621" s="12">
         <v>44317</v>
       </c>
@@ -29887,7 +29846,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="622" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A622" s="12">
         <v>44317</v>
       </c>
@@ -29934,7 +29893,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="623" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A623" s="12">
         <v>44317</v>
       </c>
@@ -29981,7 +29940,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="624" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A624" s="12">
         <v>44317</v>
       </c>
@@ -30028,7 +29987,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="625" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A625" s="12">
         <v>44317</v>
       </c>
@@ -30075,7 +30034,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="626" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A626" s="12">
         <v>44348</v>
       </c>
@@ -30122,7 +30081,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="627" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A627" s="12">
         <v>44348</v>
       </c>
@@ -30169,7 +30128,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="628" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A628" s="12">
         <v>44348</v>
       </c>
@@ -30216,7 +30175,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="629" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A629" s="12">
         <v>44348</v>
       </c>
@@ -30263,7 +30222,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="630" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A630" s="12">
         <v>44348</v>
       </c>
@@ -30310,7 +30269,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="631" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A631" s="12">
         <v>44348</v>
       </c>
@@ -30357,7 +30316,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="632" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A632" s="12">
         <v>44348</v>
       </c>
@@ -30404,7 +30363,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="633" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A633" s="12">
         <v>44378</v>
       </c>
@@ -30451,7 +30410,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="634" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A634" s="12">
         <v>44378</v>
       </c>
@@ -30498,7 +30457,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="635" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A635" s="12">
         <v>44378</v>
       </c>
@@ -30545,7 +30504,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="636" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A636" s="12">
         <v>44378</v>
       </c>
@@ -30592,7 +30551,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="637" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A637" s="12">
         <v>44378</v>
       </c>
@@ -30639,7 +30598,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="638" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A638" s="12">
         <v>44378</v>
       </c>
@@ -30686,7 +30645,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="639" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A639" s="12">
         <v>44378</v>
       </c>
@@ -30733,7 +30692,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="640" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A640" s="12">
         <v>44409</v>
       </c>
@@ -30780,7 +30739,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="641" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A641" s="12">
         <v>44409</v>
       </c>
@@ -30827,7 +30786,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="642" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A642" s="12">
         <v>44409</v>
       </c>
@@ -30874,7 +30833,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="643" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A643" s="12">
         <v>44409</v>
       </c>
@@ -30921,7 +30880,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="644" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A644" s="12">
         <v>44409</v>
       </c>
@@ -30968,7 +30927,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="645" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A645" s="12">
         <v>44409</v>
       </c>
@@ -31015,7 +30974,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="646" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A646" s="12">
         <v>44409</v>
       </c>
@@ -31062,7 +31021,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="647" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A647" s="12">
         <v>44440</v>
       </c>
@@ -31109,7 +31068,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="648" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A648" s="12">
         <v>44440</v>
       </c>
@@ -31156,7 +31115,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="649" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A649" s="12">
         <v>44440</v>
       </c>
@@ -31203,7 +31162,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="650" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A650" s="12">
         <v>44440</v>
       </c>
@@ -31250,7 +31209,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="651" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A651" s="12">
         <v>44440</v>
       </c>
@@ -31297,7 +31256,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="652" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A652" s="12">
         <v>44440</v>
       </c>
@@ -31344,7 +31303,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="653" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A653" s="12">
         <v>44440</v>
       </c>
@@ -31391,7 +31350,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="654" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A654" s="12">
         <v>44470</v>
       </c>
@@ -31438,7 +31397,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="655" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A655" s="12">
         <v>44470</v>
       </c>
@@ -31485,7 +31444,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="656" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A656" s="12">
         <v>44470</v>
       </c>
@@ -31532,7 +31491,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="657" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A657" s="12">
         <v>44470</v>
       </c>
@@ -31579,7 +31538,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="658" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A658" s="12">
         <v>44470</v>
       </c>
@@ -31626,7 +31585,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="659" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A659" s="12">
         <v>44470</v>
       </c>
@@ -31673,7 +31632,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="660" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A660" s="12">
         <v>44470</v>
       </c>
@@ -31720,7 +31679,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="661" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A661" s="12">
         <v>44501</v>
       </c>
@@ -31767,7 +31726,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="662" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A662" s="12">
         <v>44501</v>
       </c>
@@ -31814,7 +31773,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="663" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A663" s="12">
         <v>44501</v>
       </c>
@@ -31861,7 +31820,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="664" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A664" s="12">
         <v>44501</v>
       </c>
@@ -31908,7 +31867,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="665" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A665" s="12">
         <v>44501</v>
       </c>
@@ -31955,7 +31914,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="666" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A666" s="12">
         <v>44501</v>
       </c>
@@ -32002,7 +31961,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="667" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A667" s="12">
         <v>44501</v>
       </c>
@@ -32049,7 +32008,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="668" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A668" s="12">
         <v>44531</v>
       </c>
@@ -32096,7 +32055,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="669" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A669" s="12">
         <v>44531</v>
       </c>
@@ -32143,7 +32102,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="670" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A670" s="12">
         <v>44531</v>
       </c>
@@ -32190,7 +32149,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="671" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A671" s="12">
         <v>44531</v>
       </c>
@@ -32237,7 +32196,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="672" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A672" s="12">
         <v>44531</v>
       </c>
@@ -32284,7 +32243,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="673" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A673" s="12">
         <v>44531</v>
       </c>
@@ -32331,7 +32290,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="674" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A674" s="12">
         <v>44531</v>
       </c>
@@ -32378,7 +32337,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="675" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A675" s="12">
         <v>44562</v>
       </c>
@@ -32425,7 +32384,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="676" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A676" s="12">
         <v>44562</v>
       </c>
@@ -32472,7 +32431,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="677" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A677" s="12">
         <v>44562</v>
       </c>
@@ -32519,7 +32478,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="678" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A678" s="12">
         <v>44562</v>
       </c>
@@ -32566,7 +32525,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="679" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A679" s="12">
         <v>44562</v>
       </c>
@@ -32613,7 +32572,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="680" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A680" s="12">
         <v>44562</v>
       </c>
@@ -32660,7 +32619,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="681" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A681" s="12">
         <v>44562</v>
       </c>
@@ -32707,7 +32666,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="682" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A682" s="12">
         <v>44593</v>
       </c>
@@ -32754,7 +32713,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="683" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A683" s="12">
         <v>44593</v>
       </c>
@@ -32801,7 +32760,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="684" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A684" s="12">
         <v>44593</v>
       </c>
@@ -32848,7 +32807,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="685" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A685" s="12">
         <v>44593</v>
       </c>
@@ -32895,7 +32854,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="686" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A686" s="12">
         <v>44593</v>
       </c>
@@ -32942,7 +32901,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="687" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A687" s="12">
         <v>44593</v>
       </c>
@@ -32989,7 +32948,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="688" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A688" s="12">
         <v>44593</v>
       </c>
@@ -33036,7 +32995,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="689" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A689" s="12">
         <v>44621</v>
       </c>
@@ -33083,7 +33042,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="690" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A690" s="12">
         <v>44621</v>
       </c>
@@ -33130,7 +33089,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="691" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A691" s="12">
         <v>44621</v>
       </c>
@@ -33177,7 +33136,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="692" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A692" s="12">
         <v>44621</v>
       </c>
@@ -33224,7 +33183,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="693" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A693" s="12">
         <v>44621</v>
       </c>
@@ -33271,7 +33230,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="694" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A694" s="12">
         <v>44621</v>
       </c>
@@ -33318,7 +33277,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="695" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A695" s="12">
         <v>44621</v>
       </c>
@@ -33365,7 +33324,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="696" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A696" s="12">
         <v>44652</v>
       </c>
@@ -33412,7 +33371,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="697" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A697" s="12">
         <v>44652</v>
       </c>
@@ -33459,7 +33418,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="698" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A698" s="12">
         <v>44652</v>
       </c>
@@ -33506,7 +33465,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="699" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A699" s="12">
         <v>44652</v>
       </c>
@@ -33553,7 +33512,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="700" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A700" s="12">
         <v>44652</v>
       </c>
@@ -33600,7 +33559,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="701" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A701" s="12">
         <v>44652</v>
       </c>
@@ -33647,7 +33606,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="702" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A702" s="12">
         <v>44652</v>
       </c>
@@ -33694,7 +33653,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="703" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A703" s="12">
         <v>44682</v>
       </c>
@@ -33741,7 +33700,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="704" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A704" s="12">
         <v>44682</v>
       </c>
@@ -33788,7 +33747,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="705" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A705" s="12">
         <v>44682</v>
       </c>
@@ -33835,7 +33794,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="706" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A706" s="12">
         <v>44682</v>
       </c>
@@ -33882,7 +33841,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="707" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A707" s="12">
         <v>44682</v>
       </c>
@@ -33929,7 +33888,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="708" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A708" s="12">
         <v>44682</v>
       </c>
@@ -33976,7 +33935,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="709" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A709" s="12">
         <v>44682</v>
       </c>
@@ -34023,7 +33982,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="710" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A710" s="12">
         <v>44713</v>
       </c>
@@ -34070,7 +34029,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="711" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A711" s="12">
         <v>44713</v>
       </c>
@@ -34117,7 +34076,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="712" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A712" s="12">
         <v>44713</v>
       </c>
@@ -34164,7 +34123,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="713" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A713" s="12">
         <v>44713</v>
       </c>
@@ -34211,7 +34170,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="714" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A714" s="12">
         <v>44713</v>
       </c>
@@ -34258,7 +34217,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="715" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A715" s="12">
         <v>44713</v>
       </c>
@@ -34305,7 +34264,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="716" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A716" s="12">
         <v>44713</v>
       </c>
@@ -34352,7 +34311,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="717" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A717" s="12">
         <v>44743</v>
       </c>
@@ -34399,7 +34358,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="718" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A718" s="12">
         <v>44743</v>
       </c>
@@ -34446,7 +34405,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="719" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A719" s="12">
         <v>44743</v>
       </c>
@@ -34493,7 +34452,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="720" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A720" s="12">
         <v>44743</v>
       </c>
@@ -34540,7 +34499,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="721" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A721" s="12">
         <v>44743</v>
       </c>
@@ -34587,7 +34546,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="722" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A722" s="12">
         <v>44743</v>
       </c>
@@ -34634,7 +34593,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="723" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A723" s="12">
         <v>44743</v>
       </c>
@@ -34681,7 +34640,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="724" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A724" s="17">
         <v>44774</v>
       </c>
@@ -34728,7 +34687,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="725" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A725" s="17">
         <v>44774</v>
       </c>
@@ -34775,7 +34734,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="726" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A726" s="17">
         <v>44774</v>
       </c>
@@ -34822,7 +34781,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="727" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A727" s="17">
         <v>44774</v>
       </c>
@@ -34869,7 +34828,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="728" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A728" s="17">
         <v>44774</v>
       </c>
@@ -34916,7 +34875,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="729" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A729" s="17">
         <v>44774</v>
       </c>
@@ -34963,7 +34922,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="730" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A730" s="17">
         <v>44774</v>
       </c>
@@ -35010,7 +34969,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="731" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A731" s="17">
         <v>44805</v>
       </c>
@@ -35057,7 +35016,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="732" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A732" s="17">
         <v>44805</v>
       </c>
@@ -35104,7 +35063,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="733" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A733" s="17">
         <v>44805</v>
       </c>
@@ -35151,7 +35110,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="734" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A734" s="17">
         <v>44805</v>
       </c>
@@ -35198,7 +35157,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="735" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A735" s="17">
         <v>44805</v>
       </c>
@@ -35245,7 +35204,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="736" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A736" s="17">
         <v>44805</v>
       </c>
@@ -35292,7 +35251,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="737" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A737" s="17">
         <v>44805</v>
       </c>
@@ -35339,7 +35298,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="738" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A738" s="17">
         <v>44835</v>
       </c>
@@ -35386,7 +35345,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="739" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A739" s="17">
         <v>44835</v>
       </c>
@@ -35433,7 +35392,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="740" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A740" s="17">
         <v>44835</v>
       </c>
@@ -35480,7 +35439,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="741" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A741" s="17">
         <v>44835</v>
       </c>
@@ -35527,7 +35486,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="742" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A742" s="17">
         <v>44835</v>
       </c>
@@ -35574,7 +35533,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="743" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A743" s="17">
         <v>44835</v>
       </c>
@@ -35621,7 +35580,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="744" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A744" s="17">
         <v>44835</v>
       </c>
@@ -35668,7 +35627,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="745" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A745" s="17">
         <v>44866</v>
       </c>
@@ -35715,7 +35674,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="746" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A746" s="17">
         <v>44866</v>
       </c>
@@ -35762,7 +35721,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="747" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A747" s="17">
         <v>44866</v>
       </c>
@@ -35809,7 +35768,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="748" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A748" s="17">
         <v>44866</v>
       </c>
@@ -35856,7 +35815,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="749" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A749" s="17">
         <v>44866</v>
       </c>
@@ -35903,7 +35862,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="750" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A750" s="17">
         <v>44866</v>
       </c>
@@ -35950,7 +35909,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="751" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A751" s="17">
         <v>44866</v>
       </c>
@@ -35997,7 +35956,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="752" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A752" s="17">
         <v>44896</v>
       </c>
@@ -36044,7 +36003,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="753" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A753" s="17">
         <v>44896</v>
       </c>
@@ -36091,7 +36050,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="754" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A754" s="17">
         <v>44896</v>
       </c>
@@ -36138,7 +36097,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="755" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A755" s="17">
         <v>44896</v>
       </c>
@@ -36185,7 +36144,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="756" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A756" s="17">
         <v>44896</v>
       </c>
@@ -36232,7 +36191,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="757" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A757" s="17">
         <v>44896</v>
       </c>
@@ -36279,7 +36238,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="758" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A758" s="17">
         <v>44896</v>
       </c>
@@ -36326,7 +36285,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="759" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A759" s="17">
         <v>44927</v>
       </c>
@@ -36373,7 +36332,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="760" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A760" s="17">
         <v>44927</v>
       </c>
@@ -36420,7 +36379,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="761" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A761" s="17">
         <v>44927</v>
       </c>
@@ -36467,7 +36426,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="762" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A762" s="17">
         <v>44927</v>
       </c>
@@ -36514,7 +36473,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="763" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A763" s="17">
         <v>44927</v>
       </c>
@@ -36561,7 +36520,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="764" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A764" s="17">
         <v>44927</v>
       </c>
@@ -36608,7 +36567,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="765" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A765" s="17">
         <v>44927</v>
       </c>
@@ -36655,10 +36614,339 @@
         <v>34</v>
       </c>
     </row>
+    <row r="766" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A766" s="17">
+        <v>44958</v>
+      </c>
+      <c r="B766" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C766" s="16">
+        <v>13792</v>
+      </c>
+      <c r="D766" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E766" s="19">
+        <v>3.8</v>
+      </c>
+      <c r="F766" s="18">
+        <v>0.434</v>
+      </c>
+      <c r="G766" s="19">
+        <v>3.03</v>
+      </c>
+      <c r="H766" s="19">
+        <v>6.96</v>
+      </c>
+      <c r="I766" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J766" s="18">
+        <v>0.114</v>
+      </c>
+      <c r="K766" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L766" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M766" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N766" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O766" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="767" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A767" s="17">
+        <v>44958</v>
+      </c>
+      <c r="B767" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C767" s="16">
+        <v>12548</v>
+      </c>
+      <c r="D767" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E767" s="19">
+        <v>5.27</v>
+      </c>
+      <c r="F767" s="18">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="G767" s="19">
+        <v>3.89</v>
+      </c>
+      <c r="H767" s="19">
+        <v>7.99</v>
+      </c>
+      <c r="I767" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J767" s="18">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="K767" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L767" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M767" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N767" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O767" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="768" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A768" s="17">
+        <v>44958</v>
+      </c>
+      <c r="B768" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C768" s="16">
+        <v>16013</v>
+      </c>
+      <c r="D768" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E768" s="19">
+        <v>5.09</v>
+      </c>
+      <c r="F768" s="18">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="G768" s="19">
+        <v>4.09</v>
+      </c>
+      <c r="H768" s="19">
+        <v>7</v>
+      </c>
+      <c r="I768" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J768" s="18">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="K768" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L768" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M768" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N768" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O768" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="769" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A769" s="17">
+        <v>44958</v>
+      </c>
+      <c r="B769" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C769" s="16">
+        <v>15664</v>
+      </c>
+      <c r="D769" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E769" s="19">
+        <v>107.89</v>
+      </c>
+      <c r="F769" s="18">
+        <v>11.49</v>
+      </c>
+      <c r="G769" s="19">
+        <v>70</v>
+      </c>
+      <c r="H769" s="19">
+        <v>155</v>
+      </c>
+      <c r="I769" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J769" s="18">
+        <v>0.106</v>
+      </c>
+      <c r="K769" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L769" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M769" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N769" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O769" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="770" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A770" s="17">
+        <v>44958</v>
+      </c>
+      <c r="B770" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C770" s="16">
+        <v>1275</v>
+      </c>
+      <c r="D770" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E770" s="19">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F770" s="18">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="G770" s="19">
+        <v>3.28</v>
+      </c>
+      <c r="H770" s="19">
+        <v>6.59</v>
+      </c>
+      <c r="I770" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J770" s="18">
+        <v>0.124</v>
+      </c>
+      <c r="K770" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L770" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M770" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N770" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O770" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="771" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A771" s="17">
+        <v>44958</v>
+      </c>
+      <c r="B771" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C771" s="16">
+        <v>7148</v>
+      </c>
+      <c r="D771" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E771" s="19">
+        <v>6.06</v>
+      </c>
+      <c r="F771" s="18">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="G771" s="19">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="H771" s="19">
+        <v>7.99</v>
+      </c>
+      <c r="I771" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J771" s="18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K771" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L771" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M771" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N771" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O771" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="772" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A772" s="17">
+        <v>44958</v>
+      </c>
+      <c r="B772" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C772" s="16">
+        <v>11613</v>
+      </c>
+      <c r="D772" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E772" s="19">
+        <v>6.16</v>
+      </c>
+      <c r="F772" s="18">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="G772" s="19">
+        <v>5.27</v>
+      </c>
+      <c r="H772" s="19">
+        <v>8.85</v>
+      </c>
+      <c r="I772" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J772" s="18">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="K772" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L772" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M772" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N772" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O772" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:O765">
-    <sortCondition ref="A18:A765"/>
-    <sortCondition ref="B18:B765"/>
+  <sortState ref="A18:O772">
+    <sortCondition ref="A18:A772"/>
+    <sortCondition ref="B18:B772"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
